--- a/inputs/fr/demo_testing_input.xlsx
+++ b/inputs/fr/demo_testing_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1771D6C-0B00-407E-A0FD-FB0A513EBE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0EBB043-FD20-474D-B372-C0A44FF4DC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23280" yWindow="3555" windowWidth="28800" windowHeight="15435" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="15435" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Dist. l'allaitement maternel" sheetId="50" r:id="rId5"/>
     <sheet name="Tendances temporelles" sheetId="51" r:id="rId6"/>
     <sheet name="Perte économique" sheetId="74" r:id="rId7"/>
-    <sheet name="Paquets IYCF" sheetId="55" r:id="rId8"/>
+    <sheet name="Paquets ANJE" sheetId="55" r:id="rId8"/>
     <sheet name="Traitement de la MAS" sheetId="60" r:id="rId9"/>
     <sheet name="Coût et couverture du programme" sheetId="56" r:id="rId10"/>
     <sheet name="Dépendances du programme" sheetId="58" r:id="rId11"/>
@@ -32,13 +32,13 @@
     <sheet name="Programmes - population touchée" sheetId="62" state="hidden" r:id="rId17"/>
     <sheet name="Programme - secteurs à risque" sheetId="63" r:id="rId18"/>
     <sheet name="Population des sect. à risque" sheetId="64" state="hidden" r:id="rId19"/>
-    <sheet name="Rapport des cotes IYCF" sheetId="65" r:id="rId20"/>
+    <sheet name="Rapport des cotes ANJE" sheetId="65" r:id="rId20"/>
     <sheet name="Risques des rés. des naissances" sheetId="66" r:id="rId21"/>
     <sheet name="Risques relatifs" sheetId="67" r:id="rId22"/>
     <sheet name="Rapports des cotes" sheetId="68" r:id="rId23"/>
     <sheet name="Programmes-rés. des naissances" sheetId="69" r:id="rId24"/>
     <sheet name="Programmes-anémie" sheetId="70" r:id="rId25"/>
-    <sheet name="Programmes-amaigrissement" sheetId="71" r:id="rId26"/>
+    <sheet name="Programmes-émaciation" sheetId="71" r:id="rId26"/>
     <sheet name="Programmes pour les enfants" sheetId="72" r:id="rId27"/>
     <sheet name="Programmes pour les FE" sheetId="73" r:id="rId28"/>
   </sheets>
@@ -598,9 +598,6 @@
     <t>Sepsis</t>
   </si>
   <si>
-    <t>IPTp</t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
@@ -613,19 +610,10 @@
     <t>Field</t>
   </si>
   <si>
-    <t>IYCF 1</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>IYCF 2</t>
-  </si>
-  <si>
-    <t>IYCF 3</t>
   </si>
   <si>
     <t>Causes</t>
@@ -937,7 +925,7 @@
     <t>État</t>
   </si>
   <si>
-    <t>Retard de croissance (taille-pour-l'âge)</t>
+    <t>Retard de croissance (taille-pour-âge)</t>
   </si>
   <si>
     <t>Normal (score HAZ &gt; -1)</t>
@@ -952,7 +940,7 @@
     <t>Élevé (score HAZ &lt; -3)</t>
   </si>
   <si>
-    <t>Amaigrissement (poids-pour-taille)</t>
+    <t>Émaciation (poids-pour-taille)</t>
   </si>
   <si>
     <t>Normal (score WHZ &gt; -1)</t>
@@ -1009,7 +997,7 @@
     <t>Prévalence du retard de croissance (%)</t>
   </si>
   <si>
-    <t>Prévalence de l'amaigrissement (%)</t>
+    <t>Prévalence de l'émaciation (%)</t>
   </si>
   <si>
     <t>Prévalence de l'anémie (%)</t>
@@ -1039,7 +1027,7 @@
     <t>Coût</t>
   </si>
   <si>
-    <t>Épisode d'amaigrissement d'un enfant</t>
+    <t>Épisode d'émaciation d'un enfant</t>
   </si>
   <si>
     <t>Décès d'enfant</t>
@@ -1057,7 +1045,7 @@
     <t>Enfant souffrant d'un retard de croissance qui aura 5 ans (au cours de sa vie)</t>
   </si>
   <si>
-    <t>Paquet IYCF</t>
+    <t>Paquet ANJE</t>
   </si>
   <si>
     <t>Population cible</t>
@@ -1073,6 +1061,15 @@
   </si>
   <si>
     <t>Tous</t>
+  </si>
+  <si>
+    <t>ANJE 1</t>
+  </si>
+  <si>
+    <t>ANJE 2</t>
+  </si>
+  <si>
+    <t>ANJE 3</t>
   </si>
   <si>
     <t>Programme</t>
@@ -1141,10 +1138,13 @@
     <t>SFAF pour les femmes enceintes (établissement de santé)</t>
   </si>
   <si>
+    <t>TPIg</t>
+  </si>
+  <si>
     <t>Enrichissement du sel en fer et en iode</t>
   </si>
   <si>
-    <t>Méthode mère kangourou</t>
+    <t>Soins maternals kangourou</t>
   </si>
   <si>
     <t>Supplémentation en nutriments à base de lipides</t>
@@ -1189,7 +1189,7 @@
     <t>WASH: Eau courante</t>
   </si>
   <si>
-    <t>Zinc pour le traitement + SRO</t>
+    <t>SRO+Zn pour le traitement de la diarrhée</t>
   </si>
   <si>
     <t>Supplémentation en zinc</t>
@@ -1273,10 +1273,10 @@
     <t>Retard de croissance</t>
   </si>
   <si>
-    <t>Prévention de l'amaigrissement</t>
+    <t>Prévention de l'émaciation</t>
   </si>
   <si>
-    <t>Traitement de l'amaigrissement</t>
+    <t>Traitement de l'émaciation</t>
   </si>
   <si>
     <t>Résultats des naissances</t>
@@ -1333,7 +1333,7 @@
     <t>Rapport des cote pour des conditions</t>
   </si>
   <si>
-    <t>Amaigrissement (score-HAZ &lt; -2)</t>
+    <t>Émaciation (score-HAZ &lt; -2)</t>
   </si>
   <si>
     <t>Risques relatifs des causes du décès néonatales</t>
@@ -1384,7 +1384,7 @@
     <t>Rapports des cotes pour les femmes avec l'anémie maternelle - supérieur</t>
   </si>
   <si>
-    <t>Risque relatif des causes du décès par la distribution de la taille-pour-l'àge (retard de croissance)</t>
+    <t>Risque relatif des causes du décès par la distribution de la taille-pour-âge (retard de croissance)</t>
   </si>
   <si>
     <t>Cause du décès</t>
@@ -1426,10 +1426,10 @@
     <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
   </si>
   <si>
-    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
+    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (émaciation)</t>
   </si>
   <si>
-    <t>Amaigrissement</t>
+    <t>Émaciation</t>
   </si>
   <si>
     <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
@@ -1480,7 +1480,7 @@
     <t>Rapport des cotes pour allaitement correct par programme - inférieur</t>
   </si>
   <si>
-    <t>Méthode mère kangourou - inférieur</t>
+    <t>Soins maternals kangourou - inférieur</t>
   </si>
   <si>
     <t>Pour MAS par épisode supplémentaire de la diarrhée - inférieur</t>
@@ -1519,7 +1519,7 @@
     <t>Rapport des cotes pour allaitement correct par programme - supérieur</t>
   </si>
   <si>
-    <t>Méthode mère kangourou - supérieur</t>
+    <t>Soins maternals kangourou - supérieur</t>
   </si>
   <si>
     <t>Pour MAS par épisode supplémentaire de la diarrhée - supérieur</t>
@@ -5169,18 +5169,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -5188,7 +5188,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -5197,7 +5197,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -5210,12 +5210,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" s="67">
         <v>0.23</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -5274,14 +5274,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -5325,12 +5325,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -5346,7 +5346,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -5366,14 +5366,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -5381,7 +5381,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -5415,19 +5415,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5435,7 +5435,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5482,13 +5482,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C45" s="67">
         <v>3.1E-2</v>
@@ -5497,7 +5497,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C46" s="67">
         <v>0.109</v>
@@ -5506,7 +5506,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C47" s="67">
         <v>0.36499999999999999</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5530,13 +5530,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5561,7 +5561,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5569,7 +5569,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5577,12 +5577,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5590,7 +5590,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5598,7 +5598,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5606,7 +5606,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C62" s="66">
         <v>0.02</v>
@@ -5624,7 +5624,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/KOgDTD28p+DaFuLhO7rJgsSgok0rP/0YCU0E8iHJU6EJNKnVo1je80P+B48fhXU17+5HzOol0vEza6c3nE/OA==" saltValue="tynnNYaFCGH4R+0S/d5/6A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qv+ilQY2wgjRv5H5cVbrkI+jbz0mlxF+GxbUWTwFVIk5C5uaxQfacFrO2WzCycZQyw4D/V4gw2eCrX7OMsDNiA==" saltValue="a9Z/+aHR5nz0/KQtPFv4tw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5656,20 +5656,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="62" t="str">
         <f>"Couverture de l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Couverture de l'année de référence (2017)</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D1" s="53" t="s">
         <v>203</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F1" s="53" t="s">
         <v>204</v>
@@ -5680,7 +5680,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="81">
         <v>0</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="81">
         <v>0</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="81">
         <v>0</v>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="81">
         <v>0</v>
@@ -5772,7 +5772,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="81">
         <v>0</v>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" s="81">
         <v>0.36</v>
@@ -5818,7 +5818,7 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="81">
         <v>0</v>
@@ -5841,7 +5841,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="81">
         <v>0</v>
@@ -5864,7 +5864,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="81">
         <v>0</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="81">
         <v>0</v>
@@ -5933,7 +5933,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13" s="81">
         <v>0</v>
@@ -5956,7 +5956,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="81">
         <v>0</v>
@@ -5979,7 +5979,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -6002,7 +6002,7 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B16" s="81">
         <v>0.9</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="B18" s="81">
         <v>0</v>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B19" s="81">
         <v>0</v>
@@ -6094,7 +6094,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="B20" s="81">
         <v>0</v>
@@ -6347,7 +6347,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B31" s="81">
         <v>0</v>
@@ -6556,7 +6556,7 @@
       <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3qgdSrdId0mRBwdkgZDm1k4xfWOipTif6nRG9sSrG80BuIs7KnYTOFBsS7LRkVQdA+55PXw/Jw42dazVkO3nKg==" saltValue="iO4cLbEDcVIDY3vidk2qag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OWy+XcLxbC/CmKFcaxJ27kC+mWlbLW1sEr9LowxJtZVxKIAOnc6VAe5+zhrSH+Vu/DYwyZt5y1oNEmGk8V7q7A==" saltValue="KHuUwtz/+/KMvGq5WoL08w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6599,7 +6599,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>207</v>
@@ -6610,7 +6610,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="80" t="s">
         <v>190</v>
@@ -6619,7 +6619,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>190</v>
@@ -6720,7 +6720,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ExvBzFYBiQmKb5tsGymuXDR9uZ9AkuiEaUgzDmvtVTX9i4LXduamIkhKPec1byx85GXjCEWlMPmHibMJevAZMg==" saltValue="5MHWauqwL1wImUZR/CL2/A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+zdqrs7IAZkpYrPmNZQdON9tcM0M4uLi5yT/6wY18Hvu+0oVs0nDQh5YKXN3VwQTFO324ZxNVbJci4Mgqj/Ztw==" saltValue="5r7lIAWd5oF2MilML128nQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6746,17 +6746,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -6820,7 +6820,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5SmSPH+BpBvRXImE/A/jBl9+ymNGDFjHA/xdsP1Ym7AtMjTqVHN3Tcv1ATmyucegQxBvlh+lVCGpUrTdWYSb6Q==" saltValue="rtBzRnXWov1/6e90u9MQoQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="R+4gOk5bWkeJWjqgTu2WrK+N0Whzij5T/XE2KRKFubgwscDTtuY3gMgf5TJFoB2vSZ7ZepK1QvO229bt5q1PnQ==" saltValue="TUoJKCdlr3uSO8oLkSgwzw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6844,24 +6844,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -6935,7 +6935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CvwtFgXOKzVPYDS0Sz4OLSruuYkZE07XHf+IlDb6rs694HWwm+8WGoMkbseSGtu90IcL0X/1SlY558W7NujwVQ==" saltValue="Kiwm5T7i1mW4S0dZzHxd6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UuhoxEn0080/l6+94wZUeI1uPRuIUs29AHmf0dM+YdAapPjuewUFTHwEXJqf5nfapHPQTr7jhZ2ybXWN6kGjpQ==" saltValue="E5fE0TlPrFBReeMMrejsMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -6969,54 +6969,54 @@
         <v>212</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="87">
         <v>0</v>
@@ -7064,7 +7064,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="87">
         <v>1</v>
@@ -7386,7 +7386,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="87">
         <v>0</v>
@@ -7574,10 +7574,10 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C15" s="88">
         <v>0</v>
@@ -7626,7 +7626,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="88">
         <v>0</v>
@@ -7671,7 +7671,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -7720,7 +7720,7 @@
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" s="88">
         <v>0</v>
@@ -7768,7 +7768,7 @@
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="33" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C19" s="88">
         <v>0</v>
@@ -7955,10 +7955,10 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="58" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C24" s="88">
         <v>0</v>
@@ -8006,7 +8006,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -8054,7 +8054,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C26" s="88">
         <v>0</v>
@@ -8102,7 +8102,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C27" s="88">
         <v>0</v>
@@ -8150,7 +8150,7 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C28" s="88">
         <v>0</v>
@@ -8208,7 +8208,7 @@
         <v>211</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C30" s="87">
         <v>0</v>
@@ -8263,7 +8263,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C31" s="87">
         <v>0</v>
@@ -8318,7 +8318,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C32" s="87">
         <v>0</v>
@@ -8697,7 +8697,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RPjMxCvp4s/hJItNEoriI+0CvHcxdYH/F0T79Xb08ZeVsOWIUZ9q0I4a5MynJ8sgjRGDC9EWa3rd8r/5ZauXKw==" saltValue="13KEwqIOivYr2m0ck7x2lw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PC0ERYx6me7mcLR52pyJEF6e5/mKLBaFaFlt75Nl9dTz7wV+0LdhR/9aNKaYHKnAg77P3Cb+sJxzhXKKxeLIaw==" saltValue="NP6Aa1OhY+Ewf5nB2zYaog==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8735,7 +8735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9xyULWmqUARxzYo5nZCAoMjBAOCrd5mouVZFjRQTGoVZLk2FmwzQB3Siudj0eIcqTToo7A1nDhiJoc7cEdin3A==" saltValue="GD1CK+ePZgaC7QV76utqkg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="onauAoWgTYexgKfG571YyMHWm0hojdIcNd6rsbH0yYvgMtKGtfb8hofQ0WBQq6P2KBXxdfaoho+h1Q5pW/cKtQ==" saltValue="r+jvXfGmhoCvmhkjpJMcBA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8768,10 +8768,10 @@
         <v>215</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>225</v>
@@ -8851,7 +8851,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="38">
         <v>1</v>
@@ -8943,7 +8943,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XPHmiJnKlYA4H89invV3CXafH7unxI+6zhmHIOSdlaBQnkir9rwmly+Yr2eNfF3i3x8x67r19vmVegvB9wYVvQ==" saltValue="wGZD4A5XRGtTcRYlUsaitw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OP0mGTvyMbrbSA742nOnhvoMcDC3D+kB1/JQ4/Co7RMTSCMBQDhednFkej/tyUQ+2sMQwgo0hjZbI3OJap2AMg==" saltValue="FRiVfTeysP5Vgs9C1/0B3A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -8979,54 +8979,54 @@
         <v>212</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J1" s="56" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K1" s="56" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L1" s="56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N1" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O1" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="133">
         <v>0</v>
@@ -9070,7 +9070,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="133">
         <v>1</v>
@@ -9114,7 +9114,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="C4" s="133">
         <v>1</v>
@@ -9158,7 +9158,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="C5" s="133">
         <v>1</v>
@@ -9202,7 +9202,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="C6" s="133">
         <v>1</v>
@@ -9510,7 +9510,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="133">
         <v>0</v>
@@ -9702,10 +9702,10 @@
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C18" s="133">
         <v>0</v>
@@ -9750,7 +9750,7 @@
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
       <c r="B19" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="133">
         <v>0</v>
@@ -9794,7 +9794,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" s="133">
         <v>0</v>
@@ -9838,7 +9838,7 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C21" s="133">
         <v>0</v>
@@ -9882,7 +9882,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="91" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C22" s="133">
         <v>0</v>
@@ -10074,10 +10074,10 @@
     </row>
     <row r="27" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="56" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C27" s="133">
         <v>0</v>
@@ -10122,7 +10122,7 @@
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C28" s="133">
         <v>0</v>
@@ -10167,7 +10167,7 @@
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
       <c r="B29" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C29" s="133">
         <v>0</v>
@@ -10211,7 +10211,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C30" s="133">
         <v>0</v>
@@ -10255,7 +10255,7 @@
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C31" s="133">
         <v>0</v>
@@ -10318,7 +10318,7 @@
         <v>211</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C33" s="133">
         <v>1</v>
@@ -10362,7 +10362,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C34" s="133">
         <v>1</v>
@@ -10406,7 +10406,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C35" s="133">
         <v>1</v>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LnAHcJ/03urLhBCKcD0E9zMGygSPOPautW0XOEEh42xJ3+bdLV9wheL2d4WMc7H29VGwNUa+nBu4VH5tG+IshA==" saltValue="TCH6lZL0gX/a1j52PCKTAg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DiE5jXGSw5deVIDtUGKYICh2TXUwnJj8s3qTNThvsKzy3JgYp9dh1uK5X94/wp9oruKNuJ+4H7WDKiOnczTklA==" saltValue="jpllcoYKm81AZaqnjkjKpQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10791,13 +10791,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>226</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>227</v>
@@ -10806,27 +10806,27 @@
         <v>228</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>229</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="133"/>
       <c r="C2" s="133"/>
@@ -10836,14 +10836,14 @@
       <c r="G2" s="133"/>
       <c r="H2" s="133"/>
       <c r="I2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="133"/>
       <c r="C3" s="133"/>
@@ -10852,7 +10852,7 @@
       <c r="F3" s="133"/>
       <c r="G3" s="133"/>
       <c r="H3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -10860,12 +10860,12 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="133"/>
       <c r="C4" s="133"/>
       <c r="D4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="133"/>
       <c r="F4" s="133"/>
@@ -10877,11 +10877,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="133"/>
       <c r="E5" s="133"/>
@@ -10894,7 +10894,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="133"/>
       <c r="C6" s="133"/>
@@ -10905,26 +10905,26 @@
       <c r="H6" s="133"/>
       <c r="I6" s="133"/>
       <c r="J6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I7" s="133"/>
       <c r="J7" s="133"/>
@@ -10932,18 +10932,18 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I8" s="133"/>
       <c r="J8" s="133"/>
@@ -10951,18 +10951,18 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I9" s="133"/>
       <c r="J9" s="133"/>
@@ -10970,11 +10970,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
@@ -10987,11 +10987,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -11004,11 +11004,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -11021,11 +11021,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -11038,11 +11038,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -11050,18 +11050,18 @@
       <c r="G14" s="133"/>
       <c r="H14" s="133"/>
       <c r="I14" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15" s="133"/>
       <c r="E15" s="133"/>
@@ -11069,28 +11069,28 @@
       <c r="G15" s="133"/>
       <c r="H15" s="133"/>
       <c r="I15" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D16" s="133"/>
       <c r="E16" s="133"/>
       <c r="F16" s="133"/>
       <c r="G16" s="133"/>
       <c r="H16" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I16" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
@@ -11101,7 +11101,7 @@
       </c>
       <c r="B17" s="133"/>
       <c r="C17" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17" s="133"/>
       <c r="E17" s="133"/>
@@ -11114,16 +11114,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="133" t="s">
         <v>7</v>
-      </c>
-      <c r="B18" s="133" t="s">
-        <v>9</v>
       </c>
       <c r="C18" s="133"/>
       <c r="D18" s="133"/>
       <c r="E18" s="133"/>
       <c r="F18" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G18" s="133"/>
       <c r="H18" s="133"/>
@@ -11133,16 +11133,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="133"/>
       <c r="D19" s="133"/>
       <c r="E19" s="133"/>
       <c r="F19" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G19" s="133"/>
       <c r="H19" s="133"/>
@@ -11152,16 +11152,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" s="133"/>
       <c r="D20" s="133"/>
       <c r="E20" s="133"/>
       <c r="F20" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G20" s="133"/>
       <c r="H20" s="133"/>
@@ -11180,10 +11180,10 @@
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
       <c r="H21" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I21" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
@@ -11193,13 +11193,13 @@
         <v>185</v>
       </c>
       <c r="B22" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D22" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E22" s="133"/>
       <c r="F22" s="133"/>
@@ -11215,7 +11215,7 @@
       </c>
       <c r="B23" s="133"/>
       <c r="C23" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D23" s="133"/>
       <c r="E23" s="133"/>
@@ -11223,7 +11223,7 @@
       <c r="G23" s="133"/>
       <c r="H23" s="133"/>
       <c r="I23" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
@@ -11239,7 +11239,7 @@
       <c r="F24" s="133"/>
       <c r="G24" s="133"/>
       <c r="H24" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I24" s="133"/>
       <c r="J24" s="133"/>
@@ -11256,7 +11256,7 @@
       <c r="F25" s="133"/>
       <c r="G25" s="133"/>
       <c r="H25" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I25" s="133"/>
       <c r="J25" s="133"/>
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B26" s="133"/>
       <c r="C26" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D26" s="133"/>
       <c r="E26" s="133"/>
@@ -11285,7 +11285,7 @@
       </c>
       <c r="B27" s="133"/>
       <c r="C27" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D27" s="133"/>
       <c r="E27" s="133"/>
@@ -11293,7 +11293,7 @@
       <c r="G27" s="133"/>
       <c r="H27" s="133"/>
       <c r="I27" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
@@ -11309,7 +11309,7 @@
       <c r="F28" s="133"/>
       <c r="G28" s="133"/>
       <c r="H28" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I28" s="133"/>
       <c r="J28" s="133"/>
@@ -11320,11 +11320,11 @@
         <v>192</v>
       </c>
       <c r="B29" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" s="133"/>
       <c r="D29" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E29" s="133"/>
       <c r="F29" s="133"/>
@@ -11339,13 +11339,13 @@
         <v>206</v>
       </c>
       <c r="B30" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D30" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E30" s="133"/>
       <c r="F30" s="133"/>
@@ -11357,13 +11357,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B31" s="133"/>
       <c r="C31" s="133"/>
       <c r="D31" s="133"/>
       <c r="E31" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F31" s="133"/>
       <c r="G31" s="133"/>
@@ -11382,10 +11382,10 @@
       <c r="E32" s="133"/>
       <c r="F32" s="133"/>
       <c r="G32" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H32" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I32" s="133"/>
       <c r="J32" s="133"/>
@@ -11401,10 +11401,10 @@
       <c r="E33" s="133"/>
       <c r="F33" s="133"/>
       <c r="G33" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H33" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I33" s="133"/>
       <c r="J33" s="133"/>
@@ -11420,10 +11420,10 @@
       <c r="E34" s="133"/>
       <c r="F34" s="133"/>
       <c r="G34" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H34" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I34" s="133"/>
       <c r="J34" s="133"/>
@@ -11439,10 +11439,10 @@
       <c r="E35" s="133"/>
       <c r="F35" s="133"/>
       <c r="G35" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H35" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I35" s="133"/>
       <c r="J35" s="133"/>
@@ -11458,10 +11458,10 @@
       <c r="E36" s="133"/>
       <c r="F36" s="133"/>
       <c r="G36" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H36" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I36" s="133"/>
       <c r="J36" s="133"/>
@@ -11477,10 +11477,10 @@
       <c r="E37" s="133"/>
       <c r="F37" s="133"/>
       <c r="G37" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H37" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I37" s="133"/>
       <c r="J37" s="133"/>
@@ -11497,7 +11497,7 @@
       <c r="F38" s="133"/>
       <c r="G38" s="133"/>
       <c r="H38" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I38" s="133"/>
       <c r="J38" s="133"/>
@@ -11508,24 +11508,24 @@
         <v>200</v>
       </c>
       <c r="B39" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C39" s="133"/>
       <c r="D39" s="133"/>
       <c r="E39" s="133"/>
       <c r="F39" s="133"/>
       <c r="G39" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H39" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I39" s="133"/>
       <c r="J39" s="133"/>
       <c r="K39" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XnToGd3+j6dYvPyfc4JoBb8MAInP3gCJP2SvoeCdOTSWPF5UoinWZt+Wo7JYVMA190APTVUyZtCaMqZspMp82A==" saltValue="1i+P5DxkiqJY7Rvtwa64Rg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kbdxRnrOc7KPkfsf4+RYfCE5vTJ0FmDmyS4lA8uPYZM1az4PR6sCT8eRmBiGm5lmZVc22nwdWNa8Ia9I+9WTRw==" saltValue="qPm3XYkzubhQ1P/FjBq6qw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11564,7 +11564,7 @@
         <v>226</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>227</v>
@@ -11573,48 +11573,48 @@
         <v>228</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>229</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I2" s="133"/>
       <c r="J2" s="133"/>
@@ -11622,28 +11622,28 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -11651,28 +11651,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I4" s="133"/>
       <c r="J4" s="133"/>
@@ -11680,28 +11680,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I5" s="133"/>
       <c r="J5" s="133"/>
@@ -11709,28 +11709,28 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I6" s="133"/>
       <c r="J6" s="133"/>
@@ -11738,95 +11738,95 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
       <c r="F10" s="133"/>
       <c r="G10" s="133"/>
       <c r="H10" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I10" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -11835,19 +11835,19 @@
       <c r="H11" s="133"/>
       <c r="I11" s="133"/>
       <c r="J11" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K11" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -11857,16 +11857,16 @@
       <c r="I12" s="133"/>
       <c r="J12" s="133"/>
       <c r="K12" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -11876,16 +11876,16 @@
       <c r="I13" s="133"/>
       <c r="J13" s="133"/>
       <c r="K13" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -11895,11 +11895,11 @@
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
       <c r="K14" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mEGCXLSsfy8vureuG+8v3L2X/r+Yb5L6i/j4OjL7TVbXZsUT/KmwBXWJ1kW/Svn49oAnv+vnt/eHoAKzuI6uxw==" saltValue="6Lb6n+W/H7cLlfGpCUdeHg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z0Dyx7PrAthvjywthhys1zffhHMih+uX/ptwdMNmm2E8QDRp5XedJejpZQVdFdtozHFTr/oNK7rDsmVzZzA9NA==" saltValue="/0Kjku08PakDoltitBaqvw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11924,31 +11924,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12988,7 +12988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1SlNWD104AD1U+9WvvLbIWL+9y6/y32z4HsHYsVqGWc3goJw44SKf91bAdOx0xNdMrzrYYfcwkOgajuKwJKguQ==" saltValue="MWPZfgF4f3xNS5KvxUT7aw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GFsg3/MVz4sZSu21KmpQtEC6TVZihtvF7Ms3AmixXXnos2SgoVpdzsjabWCEwS4ABOezFqELtowsJwITLXrU1w==" saltValue="2koCgjjMmaP2V2mhTBXZ1g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13023,25 +13023,25 @@
         <v>231</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H1" s="94" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -13049,10 +13049,10 @@
         <v>232</v>
       </c>
       <c r="B2" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D2" s="134">
         <v>1</v>
@@ -13073,7 +13073,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="148"/>
       <c r="C3" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D3" s="134">
         <v>1</v>
@@ -13095,7 +13095,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="148"/>
       <c r="C4" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D4" s="134">
         <v>1</v>
@@ -13116,10 +13116,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D5" s="134">
         <f>5.16</f>
@@ -13141,7 +13141,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="148"/>
       <c r="C6" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D6" s="134">
         <v>5.16</v>
@@ -13162,7 +13162,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="148"/>
       <c r="C7" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D7" s="134">
         <v>1</v>
@@ -13182,10 +13182,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D8" s="134">
         <v>1</v>
@@ -13206,7 +13206,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="148"/>
       <c r="C9" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D9" s="134">
         <v>1</v>
@@ -13227,7 +13227,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="148"/>
       <c r="C10" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D10" s="134">
         <v>1</v>
@@ -13247,10 +13247,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D11" s="134">
         <v>1</v>
@@ -13271,7 +13271,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="148"/>
       <c r="C12" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D12" s="134">
         <v>1</v>
@@ -13292,7 +13292,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="148"/>
       <c r="C13" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D13" s="134">
         <v>1</v>
@@ -13312,10 +13312,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D14" s="134">
         <v>1</v>
@@ -13336,7 +13336,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="148"/>
       <c r="C15" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D15" s="134">
         <v>1</v>
@@ -13357,7 +13357,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="148"/>
       <c r="C16" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D16" s="134">
         <v>1</v>
@@ -13377,10 +13377,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="96" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D17" s="134">
         <v>1.05</v>
@@ -13410,10 +13410,10 @@
         <v>233</v>
       </c>
       <c r="B19" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D19" s="134">
         <v>1</v>
@@ -13434,7 +13434,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="148"/>
       <c r="C20" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D20" s="134">
         <v>1</v>
@@ -13455,7 +13455,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="148"/>
       <c r="C21" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D21" s="134">
         <v>1</v>
@@ -13475,10 +13475,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D22" s="134">
         <v>1</v>
@@ -13499,7 +13499,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="148"/>
       <c r="C23" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D23" s="134">
         <v>1</v>
@@ -13520,7 +13520,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="148"/>
       <c r="C24" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D24" s="134">
         <v>1</v>
@@ -13540,10 +13540,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D25" s="134">
         <v>1</v>
@@ -13564,7 +13564,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="148"/>
       <c r="C26" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D26" s="134">
         <v>1</v>
@@ -13585,7 +13585,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="148"/>
       <c r="C27" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D27" s="134">
         <v>1</v>
@@ -13605,10 +13605,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D28" s="134">
         <v>1</v>
@@ -13629,7 +13629,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="148"/>
       <c r="C29" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D29" s="134">
         <v>1</v>
@@ -13650,7 +13650,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="148"/>
       <c r="C30" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D30" s="134">
         <v>1</v>
@@ -13670,10 +13670,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D31" s="134">
         <v>1</v>
@@ -13694,7 +13694,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="148"/>
       <c r="C32" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D32" s="134">
         <v>1</v>
@@ -13715,7 +13715,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="148"/>
       <c r="C33" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D33" s="134">
         <v>1</v>
@@ -13735,10 +13735,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="96" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D34" s="134">
         <v>1</v>
@@ -13768,10 +13768,10 @@
         <v>234</v>
       </c>
       <c r="B36" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D36" s="134">
         <v>1</v>
@@ -13792,7 +13792,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="148"/>
       <c r="C37" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D37" s="134">
         <v>1</v>
@@ -13813,7 +13813,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="148"/>
       <c r="C38" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D38" s="134">
         <v>1</v>
@@ -13833,10 +13833,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D39" s="134">
         <v>1</v>
@@ -13857,7 +13857,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="148"/>
       <c r="C40" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D40" s="134">
         <v>1</v>
@@ -13878,7 +13878,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="148"/>
       <c r="C41" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D41" s="134">
         <v>1</v>
@@ -13898,10 +13898,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D42" s="134">
         <v>1</v>
@@ -13922,7 +13922,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="148"/>
       <c r="C43" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D43" s="134">
         <v>1</v>
@@ -13943,7 +13943,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="148"/>
       <c r="C44" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D44" s="134">
         <v>1</v>
@@ -13963,10 +13963,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D45" s="134">
         <v>1</v>
@@ -13987,7 +13987,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="148"/>
       <c r="C46" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D46" s="134">
         <v>1</v>
@@ -14008,7 +14008,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="148"/>
       <c r="C47" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D47" s="134">
         <v>1</v>
@@ -14028,10 +14028,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D48" s="134">
         <v>1</v>
@@ -14052,7 +14052,7 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B49" s="148"/>
       <c r="C49" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D49" s="134">
         <v>1</v>
@@ -14073,7 +14073,7 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B50" s="148"/>
       <c r="C50" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D50" s="134">
         <v>1</v>
@@ -14093,10 +14093,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B51" s="98" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D51" s="134">
         <v>1.05</v>
@@ -14131,25 +14131,25 @@
         <v>231</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G54" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H54" s="94" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -14157,10 +14157,10 @@
         <v>236</v>
       </c>
       <c r="B55" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D55" s="134">
         <f>D2*0.9</f>
@@ -14186,7 +14186,7 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B56" s="148"/>
       <c r="C56" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D56" s="134">
         <f t="shared" ref="D56:H56" si="1">D3*0.9</f>
@@ -14212,7 +14212,7 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B57" s="148"/>
       <c r="C57" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D57" s="134">
         <f t="shared" ref="D57:H57" si="2">D4*0.9</f>
@@ -14237,10 +14237,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B58" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D58" s="134">
         <f t="shared" ref="D58:H58" si="3">D5*0.9</f>
@@ -14266,7 +14266,7 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B59" s="148"/>
       <c r="C59" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D59" s="134">
         <f t="shared" ref="D59:H59" si="4">D6*0.9</f>
@@ -14292,7 +14292,7 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B60" s="148"/>
       <c r="C60" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D60" s="134">
         <f t="shared" ref="D60:H60" si="5">D7*0.9</f>
@@ -14317,10 +14317,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B61" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D61" s="134">
         <f t="shared" ref="D61:H61" si="6">D8*0.9</f>
@@ -14346,7 +14346,7 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B62" s="148"/>
       <c r="C62" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D62" s="134">
         <f t="shared" ref="D62:H62" si="7">D9*0.9</f>
@@ -14372,7 +14372,7 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B63" s="148"/>
       <c r="C63" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D63" s="134">
         <f t="shared" ref="D63:H63" si="8">D10*0.9</f>
@@ -14397,10 +14397,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B64" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D64" s="134">
         <f t="shared" ref="D64:H64" si="9">D11*0.9</f>
@@ -14426,7 +14426,7 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B65" s="148"/>
       <c r="C65" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D65" s="134">
         <f t="shared" ref="D65:H65" si="10">D12*0.9</f>
@@ -14452,7 +14452,7 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B66" s="148"/>
       <c r="C66" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D66" s="134">
         <f t="shared" ref="D66:H66" si="11">D13*0.9</f>
@@ -14477,10 +14477,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B67" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D67" s="134">
         <f t="shared" ref="D67:H67" si="12">D14*0.9</f>
@@ -14506,7 +14506,7 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B68" s="148"/>
       <c r="C68" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D68" s="134">
         <f t="shared" ref="D68:H68" si="13">D15*0.9</f>
@@ -14532,7 +14532,7 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B69" s="148"/>
       <c r="C69" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D69" s="134">
         <f t="shared" ref="D69:H69" si="14">D16*0.9</f>
@@ -14557,10 +14557,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B70" s="138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D70" s="134">
         <f t="shared" ref="D70:H70" si="15">D17*0.9</f>
@@ -14595,10 +14595,10 @@
         <v>237</v>
       </c>
       <c r="B72" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D72" s="134">
         <f>D19*0.9</f>
@@ -14624,7 +14624,7 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B73" s="148"/>
       <c r="C73" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D73" s="134">
         <f t="shared" ref="D73:D87" si="17">D20*0.9</f>
@@ -14650,7 +14650,7 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B74" s="148"/>
       <c r="C74" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D74" s="134">
         <f t="shared" si="17"/>
@@ -14675,10 +14675,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B75" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D75" s="134">
         <f t="shared" si="17"/>
@@ -14704,7 +14704,7 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B76" s="148"/>
       <c r="C76" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D76" s="134">
         <f t="shared" si="17"/>
@@ -14730,7 +14730,7 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B77" s="148"/>
       <c r="C77" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D77" s="134">
         <f t="shared" si="17"/>
@@ -14755,10 +14755,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B78" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D78" s="134">
         <f t="shared" si="17"/>
@@ -14784,7 +14784,7 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B79" s="148"/>
       <c r="C79" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D79" s="134">
         <f t="shared" si="17"/>
@@ -14810,7 +14810,7 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B80" s="148"/>
       <c r="C80" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D80" s="134">
         <f t="shared" si="17"/>
@@ -14835,10 +14835,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B81" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C81" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D81" s="134">
         <f t="shared" si="17"/>
@@ -14864,7 +14864,7 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B82" s="148"/>
       <c r="C82" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D82" s="134">
         <f t="shared" si="17"/>
@@ -14890,7 +14890,7 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B83" s="148"/>
       <c r="C83" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D83" s="134">
         <f t="shared" si="17"/>
@@ -14915,10 +14915,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B84" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D84" s="134">
         <f t="shared" si="17"/>
@@ -14944,7 +14944,7 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B85" s="148"/>
       <c r="C85" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D85" s="134">
         <f t="shared" si="17"/>
@@ -14970,7 +14970,7 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B86" s="148"/>
       <c r="C86" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D86" s="134">
         <f t="shared" si="17"/>
@@ -14995,10 +14995,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B87" s="138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C87" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D87" s="134">
         <f t="shared" si="17"/>
@@ -15033,10 +15033,10 @@
         <v>238</v>
       </c>
       <c r="B89" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D89" s="134">
         <f>D36*0.9</f>
@@ -15062,7 +15062,7 @@
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B90" s="148"/>
       <c r="C90" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D90" s="134">
         <f t="shared" ref="D90:D104" si="34">D37*0.9</f>
@@ -15088,7 +15088,7 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B91" s="148"/>
       <c r="C91" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D91" s="134">
         <f t="shared" si="34"/>
@@ -15113,10 +15113,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B92" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C92" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D92" s="134">
         <f t="shared" si="34"/>
@@ -15142,7 +15142,7 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B93" s="148"/>
       <c r="C93" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D93" s="134">
         <f t="shared" si="34"/>
@@ -15168,7 +15168,7 @@
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B94" s="148"/>
       <c r="C94" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D94" s="134">
         <f t="shared" si="34"/>
@@ -15193,10 +15193,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B95" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D95" s="134">
         <f t="shared" si="34"/>
@@ -15222,7 +15222,7 @@
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B96" s="148"/>
       <c r="C96" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D96" s="134">
         <f t="shared" si="34"/>
@@ -15248,7 +15248,7 @@
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B97" s="148"/>
       <c r="C97" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D97" s="134">
         <f t="shared" si="34"/>
@@ -15273,10 +15273,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B98" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C98" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D98" s="134">
         <f t="shared" si="34"/>
@@ -15302,7 +15302,7 @@
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B99" s="148"/>
       <c r="C99" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D99" s="134">
         <f t="shared" si="34"/>
@@ -15328,7 +15328,7 @@
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B100" s="148"/>
       <c r="C100" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D100" s="134">
         <f t="shared" si="34"/>
@@ -15353,10 +15353,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B101" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D101" s="134">
         <f t="shared" si="34"/>
@@ -15382,7 +15382,7 @@
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B102" s="148"/>
       <c r="C102" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D102" s="134">
         <f t="shared" si="34"/>
@@ -15408,7 +15408,7 @@
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B103" s="148"/>
       <c r="C103" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D103" s="134">
         <f t="shared" si="34"/>
@@ -15433,10 +15433,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B104" s="98" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C104" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D104" s="134">
         <f t="shared" si="34"/>
@@ -15476,25 +15476,25 @@
         <v>231</v>
       </c>
       <c r="B107" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E107" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F107" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G107" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H107" s="94" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -15502,10 +15502,10 @@
         <v>240</v>
       </c>
       <c r="B108" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C108" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D108" s="134">
         <f>D2*1.05</f>
@@ -15531,7 +15531,7 @@
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B109" s="148"/>
       <c r="C109" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D109" s="134">
         <f t="shared" ref="D109:D112" si="51">D3*1.05</f>
@@ -15557,7 +15557,7 @@
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B110" s="148"/>
       <c r="C110" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D110" s="134">
         <f t="shared" si="51"/>
@@ -15582,10 +15582,10 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B111" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C111" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D111" s="134">
         <f t="shared" si="51"/>
@@ -15611,7 +15611,7 @@
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B112" s="148"/>
       <c r="C112" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D112" s="134">
         <f t="shared" si="51"/>
@@ -15637,7 +15637,7 @@
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B113" s="148"/>
       <c r="C113" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D113" s="134">
         <f t="shared" ref="D113:H113" si="56">D7*1.05</f>
@@ -15662,10 +15662,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B114" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C114" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D114" s="134">
         <f t="shared" ref="D114:H114" si="57">D8*1.05</f>
@@ -15691,7 +15691,7 @@
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B115" s="148"/>
       <c r="C115" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D115" s="134">
         <f t="shared" ref="D115:H115" si="58">D9*1.05</f>
@@ -15717,7 +15717,7 @@
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B116" s="148"/>
       <c r="C116" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D116" s="134">
         <f t="shared" ref="D116:H116" si="59">D10*1.05</f>
@@ -15742,10 +15742,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C117" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D117" s="134">
         <f t="shared" ref="D117:H117" si="60">D11*1.05</f>
@@ -15771,7 +15771,7 @@
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B118" s="148"/>
       <c r="C118" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D118" s="134">
         <f t="shared" ref="D118:H118" si="61">D12*1.05</f>
@@ -15797,7 +15797,7 @@
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B119" s="148"/>
       <c r="C119" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D119" s="134">
         <f t="shared" ref="D119:H119" si="62">D13*1.05</f>
@@ -15822,10 +15822,10 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B120" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D120" s="134">
         <f t="shared" ref="D120:H120" si="63">D14*1.05</f>
@@ -15851,7 +15851,7 @@
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B121" s="148"/>
       <c r="C121" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D121" s="134">
         <f t="shared" ref="D121:H121" si="64">D15*1.05</f>
@@ -15877,7 +15877,7 @@
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B122" s="148"/>
       <c r="C122" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D122" s="134">
         <f t="shared" ref="D122:H122" si="65">D16*1.05</f>
@@ -15902,10 +15902,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B123" s="138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D123" s="134">
         <f t="shared" ref="D123:H123" si="66">D17*1.05</f>
@@ -15940,10 +15940,10 @@
         <v>241</v>
       </c>
       <c r="B125" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D125" s="134">
         <f>D19*1.05</f>
@@ -15969,7 +15969,7 @@
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B126" s="148"/>
       <c r="C126" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D126" s="134">
         <f t="shared" ref="D126:H126" si="68">D20*1.05</f>
@@ -15995,7 +15995,7 @@
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B127" s="148"/>
       <c r="C127" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D127" s="134">
         <f t="shared" ref="D127:H127" si="69">D21*1.05</f>
@@ -16020,10 +16020,10 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B128" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D128" s="134">
         <f t="shared" ref="D128:H128" si="70">D22*1.05</f>
@@ -16049,7 +16049,7 @@
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B129" s="148"/>
       <c r="C129" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D129" s="134">
         <f t="shared" ref="D129:H129" si="71">D23*1.05</f>
@@ -16075,7 +16075,7 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B130" s="148"/>
       <c r="C130" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D130" s="134">
         <f t="shared" ref="D130:H130" si="72">D24*1.05</f>
@@ -16100,10 +16100,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B131" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C131" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D131" s="134">
         <f t="shared" ref="D131:H131" si="73">D25*1.05</f>
@@ -16129,7 +16129,7 @@
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B132" s="148"/>
       <c r="C132" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D132" s="134">
         <f t="shared" ref="D132:H132" si="74">D26*1.05</f>
@@ -16155,7 +16155,7 @@
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B133" s="148"/>
       <c r="C133" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D133" s="134">
         <f t="shared" ref="D133:H133" si="75">D27*1.05</f>
@@ -16180,10 +16180,10 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B134" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D134" s="134">
         <f t="shared" ref="D134:H134" si="76">D28*1.05</f>
@@ -16209,7 +16209,7 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B135" s="148"/>
       <c r="C135" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D135" s="134">
         <f t="shared" ref="D135:H135" si="77">D29*1.05</f>
@@ -16235,7 +16235,7 @@
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B136" s="148"/>
       <c r="C136" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D136" s="134">
         <f t="shared" ref="D136:H136" si="78">D30*1.05</f>
@@ -16260,10 +16260,10 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B137" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C137" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D137" s="134">
         <f t="shared" ref="D137:H137" si="79">D31*1.05</f>
@@ -16289,7 +16289,7 @@
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B138" s="148"/>
       <c r="C138" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D138" s="134">
         <f t="shared" ref="D138:H138" si="80">D32*1.05</f>
@@ -16315,7 +16315,7 @@
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B139" s="148"/>
       <c r="C139" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D139" s="134">
         <f t="shared" ref="D139:H139" si="81">D33*1.05</f>
@@ -16340,10 +16340,10 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B140" s="138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C140" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D140" s="134">
         <f t="shared" ref="D140:H140" si="82">D34*1.05</f>
@@ -16378,10 +16378,10 @@
         <v>242</v>
       </c>
       <c r="B142" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D142" s="134">
         <f>D36*1.05</f>
@@ -16407,7 +16407,7 @@
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B143" s="148"/>
       <c r="C143" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D143" s="134">
         <f t="shared" ref="D143:H143" si="84">D37*1.05</f>
@@ -16433,7 +16433,7 @@
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B144" s="148"/>
       <c r="C144" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D144" s="134">
         <f t="shared" ref="D144:H144" si="85">D38*1.05</f>
@@ -16458,10 +16458,10 @@
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B145" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C145" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D145" s="134">
         <f t="shared" ref="D145:H145" si="86">D39*1.05</f>
@@ -16487,7 +16487,7 @@
     <row r="146" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B146" s="148"/>
       <c r="C146" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D146" s="134">
         <f t="shared" ref="D146:H146" si="87">D40*1.05</f>
@@ -16513,7 +16513,7 @@
     <row r="147" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B147" s="148"/>
       <c r="C147" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D147" s="134">
         <f t="shared" ref="D147:H147" si="88">D41*1.05</f>
@@ -16538,10 +16538,10 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D148" s="134">
         <f t="shared" ref="D148:H148" si="89">D42*1.05</f>
@@ -16567,7 +16567,7 @@
     <row r="149" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B149" s="148"/>
       <c r="C149" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D149" s="134">
         <f t="shared" ref="D149:H149" si="90">D43*1.05</f>
@@ -16593,7 +16593,7 @@
     <row r="150" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B150" s="148"/>
       <c r="C150" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D150" s="134">
         <f t="shared" ref="D150:H150" si="91">D44*1.05</f>
@@ -16618,10 +16618,10 @@
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B151" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D151" s="134">
         <f t="shared" ref="D151:H151" si="92">D45*1.05</f>
@@ -16647,7 +16647,7 @@
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" s="148"/>
       <c r="C152" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D152" s="134">
         <f t="shared" ref="D152:H152" si="93">D46*1.05</f>
@@ -16673,7 +16673,7 @@
     <row r="153" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B153" s="148"/>
       <c r="C153" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D153" s="134">
         <f t="shared" ref="D153:H153" si="94">D47*1.05</f>
@@ -16698,10 +16698,10 @@
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B154" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D154" s="134">
         <f t="shared" ref="D154:H154" si="95">D48*1.05</f>
@@ -16727,7 +16727,7 @@
     <row r="155" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B155" s="148"/>
       <c r="C155" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D155" s="134">
         <f t="shared" ref="D155:H155" si="96">D49*1.05</f>
@@ -16753,7 +16753,7 @@
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="148"/>
       <c r="C156" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D156" s="134">
         <f t="shared" ref="D156:H156" si="97">D50*1.05</f>
@@ -16778,10 +16778,10 @@
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B157" s="98" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D157" s="134">
         <f t="shared" ref="D157:H157" si="98">D51*1.05</f>
@@ -16805,7 +16805,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Cd7ChFXeHhNLsmtZuJvnYmbaX7ERlui7PYwqwjS/LmTAukzbrYMDh3N6wMm8bcj5U2AEzuWtxrWPniB/6X8sUA==" saltValue="quFqTlz42tfLGqpSmMikQw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pxp2a9378M5uDjsQWqzAxKvbGDhz162FZxc50TLbj6pXIfNOgANeWkO8pmMPiLtO5bmhPPV8qTLMbB6WDaWAXg==" saltValue="O0J0Lje5dgFUD6sn0Mj6OA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
@@ -16890,16 +16890,16 @@
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16914,7 +16914,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C4" s="135">
         <v>1</v>
@@ -16931,7 +16931,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C5" s="135">
         <v>1</v>
@@ -16948,7 +16948,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C6" s="135">
         <v>1</v>
@@ -16965,7 +16965,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C7" s="135">
         <v>1</v>
@@ -17051,7 +17051,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="113" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C14" s="135">
         <v>1</v>
@@ -17069,7 +17069,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="113" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C15" s="135">
         <v>1</v>
@@ -17107,7 +17107,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="117" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C18" s="135">
         <v>1</v>
@@ -17125,7 +17125,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="117" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C19" s="135">
         <v>1</v>
@@ -17143,7 +17143,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="117" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C20" s="135">
         <v>1</v>
@@ -17161,7 +17161,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="117" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C21" s="135">
         <v>1</v>
@@ -17179,7 +17179,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="117" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C22" s="135">
         <v>1</v>
@@ -17196,7 +17196,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="117" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C23" s="135">
         <v>1</v>
@@ -17213,7 +17213,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="117" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C24" s="135">
         <v>1</v>
@@ -17230,7 +17230,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="117" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C25" s="135">
         <v>1</v>
@@ -17266,16 +17266,16 @@
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="101"/>
       <c r="C29" s="102" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F29" s="103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17290,7 +17290,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="107" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C31" s="139">
         <f>C4*0.7</f>
@@ -17311,7 +17311,7 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="107" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C32" s="139">
         <f t="shared" ref="C32:F32" si="1">C5*0.7</f>
@@ -17332,7 +17332,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="107" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C33" s="139">
         <f t="shared" ref="C33:F33" si="2">C6*0.7</f>
@@ -17353,7 +17353,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="107" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C34" s="139">
         <f t="shared" ref="C34:F34" si="3">C7*0.7</f>
@@ -17501,7 +17501,7 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="117" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C45" s="139">
         <f>C18*0.7</f>
@@ -17522,7 +17522,7 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="117" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C46" s="139">
         <f t="shared" ref="C46:F46" si="9">C19*0.7</f>
@@ -17543,7 +17543,7 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="117" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C47" s="139">
         <f t="shared" ref="C47:F47" si="10">C20*0.7</f>
@@ -17564,7 +17564,7 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="117" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C48" s="139">
         <f t="shared" ref="C48:F48" si="11">C21*0.7</f>
@@ -17585,7 +17585,7 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="117" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C49" s="139">
         <f t="shared" ref="C49:F49" si="12">C22*0.7</f>
@@ -17606,7 +17606,7 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="117" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C50" s="139">
         <f t="shared" ref="C50:F50" si="13">C23*0.7</f>
@@ -17627,7 +17627,7 @@
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="117" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C51" s="139">
         <f t="shared" ref="C51:F51" si="14">C24*0.7</f>
@@ -17648,7 +17648,7 @@
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="117" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C52" s="139">
         <f t="shared" ref="C52:F52" si="15">C25*0.7</f>
@@ -17685,16 +17685,16 @@
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="101"/>
       <c r="C56" s="102" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D56" s="103" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E56" s="103" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F56" s="103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17709,7 +17709,7 @@
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="107" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C58" s="139">
         <f>C4*1.3</f>
@@ -17730,7 +17730,7 @@
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="107" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C59" s="139">
         <f t="shared" ref="C59:F59" si="17">C5*1.3</f>
@@ -17751,7 +17751,7 @@
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="107" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C60" s="139">
         <f t="shared" ref="C60:F60" si="18">C6*1.3</f>
@@ -17772,7 +17772,7 @@
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="107" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C61" s="139">
         <f t="shared" ref="C61:F61" si="19">C7*1.3</f>
@@ -17920,7 +17920,7 @@
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="117" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C72" s="139">
         <f>C18*1.3</f>
@@ -17941,7 +17941,7 @@
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="117" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C73" s="139">
         <f t="shared" ref="C73:F73" si="25">C19*1.3</f>
@@ -17962,7 +17962,7 @@
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="117" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C74" s="139">
         <f t="shared" ref="C74:F74" si="26">C20*1.3</f>
@@ -17983,7 +17983,7 @@
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="117" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C75" s="139">
         <f t="shared" ref="C75:F75" si="27">C21*1.3</f>
@@ -18004,7 +18004,7 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="117" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C76" s="139">
         <f t="shared" ref="C76:F76" si="28">C22*1.3</f>
@@ -18025,7 +18025,7 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="117" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C77" s="139">
         <f t="shared" ref="C77:F77" si="29">C23*1.3</f>
@@ -18046,7 +18046,7 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="117" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C78" s="139">
         <f t="shared" ref="C78:F78" si="30">C24*1.3</f>
@@ -18067,7 +18067,7 @@
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="117" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C79" s="139">
         <f t="shared" ref="C79:F79" si="31">C25*1.3</f>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iAsLQ112QSJcKucTwpZrxUScXorxmDuM64VxnwrO34x8Q95BgpSU3yYAio2Rw3iDuKf2UkUmdVwrO5tsiUECSw==" saltValue="rfnB5BwNBt9XfVsy1nCFyw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Zv3hfqY5m424rFlsrbJc8Ylso4Z/xfaReHE+wnNpRC0l+9Y8BpNWREpLlXcNXEDV0NV45/ZYkQfweVo+IQPPag==" saltValue="iavw0SDyZFmM8CkjEegZSg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -18134,19 +18134,19 @@
         <v>266</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G2" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H2" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I2" s="120"/>
       <c r="J2" s="120"/>
@@ -18160,10 +18160,10 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" s="135">
         <v>1</v>
@@ -18275,10 +18275,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" s="135">
         <v>1</v>
@@ -18390,10 +18390,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11" s="135">
         <v>1</v>
@@ -18505,10 +18505,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" s="135">
         <v>1</v>
@@ -18620,10 +18620,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="135">
         <v>1</v>
@@ -18735,10 +18735,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="135">
         <v>1</v>
@@ -18864,19 +18864,19 @@
         <v>270</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F29" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G29" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H29" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I29" s="120"/>
       <c r="J29" s="120"/>
@@ -18890,10 +18890,10 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" s="135">
         <v>1</v>
@@ -19005,10 +19005,10 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" s="135">
         <v>1</v>
@@ -19120,10 +19120,10 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D38" s="135">
         <v>1</v>
@@ -19235,10 +19235,10 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D42" s="135">
         <v>1</v>
@@ -19350,10 +19350,10 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="135">
         <v>1</v>
@@ -19465,10 +19465,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" s="135">
         <v>1</v>
@@ -19589,7 +19589,7 @@
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="121" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B56" s="94" t="s">
         <v>265</v>
@@ -19598,16 +19598,16 @@
         <v>272</v>
       </c>
       <c r="D56" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E56" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F56" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G56" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H56" s="120"/>
       <c r="M56" s="120"/>
@@ -19618,7 +19618,7 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C57" s="43" t="s">
         <v>273</v>
@@ -19665,7 +19665,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C59" s="43" t="s">
         <v>273</v>
@@ -19712,7 +19712,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C61" s="43" t="s">
         <v>273</v>
@@ -19768,7 +19768,7 @@
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="121" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B65" s="94" t="s">
         <v>265</v>
@@ -19777,19 +19777,19 @@
         <v>276</v>
       </c>
       <c r="D65" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E65" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F65" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G65" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H65" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I65" s="120"/>
       <c r="J65" s="120"/>
@@ -19803,10 +19803,10 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D66" s="135">
         <v>1</v>
@@ -19834,7 +19834,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D67" s="136">
         <v>1.35</v>
@@ -19862,7 +19862,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D68" s="136">
         <v>1.35</v>
@@ -19890,7 +19890,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D69" s="136">
         <v>5.4</v>
@@ -19918,10 +19918,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D70" s="135">
         <v>1</v>
@@ -19949,7 +19949,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D71" s="136">
         <v>1.35</v>
@@ -19977,7 +19977,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D72" s="136">
         <v>1.35</v>
@@ -20005,7 +20005,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D73" s="136">
         <v>5.4</v>
@@ -20033,10 +20033,10 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D74" s="135">
         <v>1</v>
@@ -20064,7 +20064,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D75" s="136">
         <v>1.35</v>
@@ -20092,7 +20092,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D76" s="136">
         <v>1.35</v>
@@ -20120,7 +20120,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D77" s="136">
         <v>5.4</v>
@@ -20148,10 +20148,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D78" s="135">
         <v>1</v>
@@ -20179,7 +20179,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D79" s="136">
         <v>1</v>
@@ -20207,7 +20207,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D80" s="136">
         <v>1</v>
@@ -20235,7 +20235,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D81" s="136">
         <v>1</v>
@@ -20263,10 +20263,10 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D82" s="135">
         <v>1</v>
@@ -20294,7 +20294,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D83" s="136">
         <v>1</v>
@@ -20322,7 +20322,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D84" s="136">
         <v>1</v>
@@ -20350,7 +20350,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D85" s="136">
         <v>1</v>
@@ -20378,10 +20378,10 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D86" s="135">
         <v>1</v>
@@ -20409,7 +20409,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D87" s="136">
         <v>1</v>
@@ -20437,7 +20437,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D88" s="136">
         <v>1</v>
@@ -20465,7 +20465,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D89" s="136">
         <v>1</v>
@@ -20493,10 +20493,10 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D90" s="135">
         <v>1</v>
@@ -20524,7 +20524,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D91" s="136">
         <v>1</v>
@@ -20552,7 +20552,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D92" s="136">
         <v>1</v>
@@ -20580,7 +20580,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D93" s="136">
         <v>1</v>
@@ -20608,10 +20608,10 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D94" s="135">
         <v>1</v>
@@ -20639,7 +20639,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D95" s="136">
         <v>1</v>
@@ -20667,7 +20667,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D96" s="136">
         <v>1</v>
@@ -20695,7 +20695,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D97" s="136">
         <v>1</v>
@@ -20723,10 +20723,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D98" s="135">
         <v>1</v>
@@ -20754,7 +20754,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D99" s="136">
         <v>1</v>
@@ -20782,7 +20782,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D100" s="136">
         <v>1</v>
@@ -20810,7 +20810,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D101" s="136">
         <v>1</v>
@@ -20843,28 +20843,28 @@
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="121" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B104" s="126" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C104" s="123" t="s">
         <v>276</v>
       </c>
       <c r="D104" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E104" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F104" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G104" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H104" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I104" s="120"/>
       <c r="J104" s="120"/>
@@ -20879,7 +20879,7 @@
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D105" s="135">
         <v>1</v>
@@ -20907,7 +20907,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D106" s="136">
         <v>1.26</v>
@@ -20935,7 +20935,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D107" s="136">
         <v>1.68</v>
@@ -20963,7 +20963,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D108" s="136">
         <v>2.65</v>
@@ -21018,28 +21018,28 @@
         <v>266</v>
       </c>
       <c r="D112" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E112" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F112" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G112" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H112" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="40"/>
       <c r="B113" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C113" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" s="139">
         <f>D3*0.8</f>
@@ -21139,10 +21139,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C117" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D117" s="139">
         <f t="shared" ref="D117:H117" si="4">D7*0.8</f>
@@ -21242,10 +21242,10 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B121" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C121" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D121" s="139">
         <f t="shared" ref="D121:H121" si="8">D11*0.8</f>
@@ -21345,10 +21345,10 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B125" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C125" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D125" s="139">
         <f t="shared" ref="D125:H125" si="12">D15*0.8</f>
@@ -21448,10 +21448,10 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B129" s="36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C129" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D129" s="139">
         <f t="shared" ref="D129:H129" si="16">D19*0.8</f>
@@ -21551,10 +21551,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B133" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C133" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D133" s="139">
         <f t="shared" ref="D133:H133" si="20">D23*0.8</f>
@@ -21675,28 +21675,28 @@
         <v>270</v>
       </c>
       <c r="D139" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E139" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F139" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G139" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H139" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="40"/>
       <c r="B140" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C140" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D140" s="139">
         <f>D30*0.7</f>
@@ -21796,10 +21796,10 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B144" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C144" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D144" s="139">
         <f t="shared" ref="D144:H144" si="28">D34*0.7</f>
@@ -21899,10 +21899,10 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C148" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D148" s="139">
         <f t="shared" ref="D148:H148" si="32">D38*0.7</f>
@@ -22002,10 +22002,10 @@
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C152" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D152" s="139">
         <f t="shared" ref="D152:H152" si="36">D42*0.7</f>
@@ -22105,10 +22105,10 @@
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C156" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D156" s="139">
         <f t="shared" ref="D156:H156" si="40">D46*0.7</f>
@@ -22208,10 +22208,10 @@
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B160" s="35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C160" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D160" s="139">
         <f t="shared" ref="D160:H160" si="44">D50*0.7</f>
@@ -22327,7 +22327,7 @@
     </row>
     <row r="166" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A166" s="121" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B166" s="94" t="s">
         <v>265</v>
@@ -22336,23 +22336,23 @@
         <v>272</v>
       </c>
       <c r="D166" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E166" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F166" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G166" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H166" s="120"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="40"/>
       <c r="B167" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C167" s="43" t="s">
         <v>273</v>
@@ -22399,7 +22399,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B169" s="35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C169" s="43" t="s">
         <v>273</v>
@@ -22446,7 +22446,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B171" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C171" s="43" t="s">
         <v>273</v>
@@ -22509,7 +22509,7 @@
     </row>
     <row r="175" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A175" s="121" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B175" s="94" t="s">
         <v>265</v>
@@ -22518,28 +22518,28 @@
         <v>276</v>
       </c>
       <c r="D175" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E175" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F175" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G175" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H175" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="125"/>
       <c r="B176" s="35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C176" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D176" s="139">
         <f>D66*0.7</f>
@@ -22563,7 +22563,7 @@
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C177" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D177" s="139">
         <f t="shared" ref="D177:G177" si="55">D67*0.7</f>
@@ -22587,7 +22587,7 @@
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C178" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D178" s="139">
         <f t="shared" ref="D178:G178" si="56">D68*0.7</f>
@@ -22611,7 +22611,7 @@
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C179" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D179" s="139">
         <f t="shared" ref="D179:G179" si="57">D69*0.7</f>
@@ -22635,10 +22635,10 @@
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B180" s="35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C180" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D180" s="139">
         <f t="shared" ref="D180:G180" si="58">D70*0.7</f>
@@ -22662,7 +22662,7 @@
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C181" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D181" s="139">
         <f t="shared" ref="D181:G181" si="59">D71*0.7</f>
@@ -22686,7 +22686,7 @@
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C182" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D182" s="139">
         <f t="shared" ref="D182:G182" si="60">D72*0.7</f>
@@ -22710,7 +22710,7 @@
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C183" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D183" s="139">
         <f t="shared" ref="D183:G183" si="61">D73*0.7</f>
@@ -22734,10 +22734,10 @@
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B184" s="35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C184" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D184" s="139">
         <f t="shared" ref="D184:G184" si="62">D74*0.7</f>
@@ -22761,7 +22761,7 @@
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C185" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D185" s="139">
         <f t="shared" ref="D185:G185" si="63">D75*0.7</f>
@@ -22785,7 +22785,7 @@
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C186" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D186" s="139">
         <f t="shared" ref="D186:G186" si="64">D76*0.7</f>
@@ -22809,7 +22809,7 @@
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C187" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D187" s="139">
         <f t="shared" ref="D187:G187" si="65">D77*0.7</f>
@@ -22833,10 +22833,10 @@
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B188" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C188" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D188" s="139">
         <f t="shared" ref="D188:G188" si="66">D78*0.7</f>
@@ -22860,7 +22860,7 @@
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C189" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D189" s="139">
         <f t="shared" ref="D189:G189" si="67">D79*0.7</f>
@@ -22884,7 +22884,7 @@
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C190" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D190" s="139">
         <f t="shared" ref="D190:G190" si="68">D80*0.7</f>
@@ -22908,7 +22908,7 @@
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C191" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D191" s="139">
         <f t="shared" ref="D191:G191" si="69">D81*0.7</f>
@@ -22932,10 +22932,10 @@
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B192" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C192" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D192" s="139">
         <f t="shared" ref="D192:G192" si="70">D82*0.7</f>
@@ -22959,7 +22959,7 @@
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C193" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D193" s="139">
         <f t="shared" ref="D193:G193" si="71">D83*0.7</f>
@@ -22983,7 +22983,7 @@
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C194" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D194" s="139">
         <f t="shared" ref="D194:G194" si="72">D84*0.7</f>
@@ -23007,7 +23007,7 @@
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C195" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D195" s="139">
         <f t="shared" ref="D195:G195" si="73">D85*0.7</f>
@@ -23031,10 +23031,10 @@
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B196" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C196" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D196" s="139">
         <f t="shared" ref="D196:G196" si="74">D86*0.7</f>
@@ -23058,7 +23058,7 @@
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C197" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D197" s="139">
         <f t="shared" ref="D197:G197" si="75">D87*0.7</f>
@@ -23082,7 +23082,7 @@
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C198" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D198" s="139">
         <f t="shared" ref="D198:G198" si="76">D88*0.7</f>
@@ -23106,7 +23106,7 @@
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C199" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D199" s="139">
         <f t="shared" ref="D199:G199" si="77">D89*0.7</f>
@@ -23130,10 +23130,10 @@
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B200" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C200" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D200" s="139">
         <f t="shared" ref="D200:G200" si="78">D90*0.7</f>
@@ -23157,7 +23157,7 @@
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C201" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D201" s="139">
         <f t="shared" ref="D201:G201" si="79">D91*0.7</f>
@@ -23181,7 +23181,7 @@
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C202" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D202" s="139">
         <f t="shared" ref="D202:G202" si="80">D92*0.7</f>
@@ -23205,7 +23205,7 @@
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C203" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D203" s="139">
         <f t="shared" ref="D203:G203" si="81">D93*0.7</f>
@@ -23229,10 +23229,10 @@
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B204" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C204" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D204" s="139">
         <f t="shared" ref="D204:G204" si="82">D94*0.7</f>
@@ -23256,7 +23256,7 @@
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C205" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D205" s="139">
         <f t="shared" ref="D205:G205" si="83">D95*0.7</f>
@@ -23280,7 +23280,7 @@
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C206" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D206" s="139">
         <f t="shared" ref="D206:G206" si="84">D96*0.7</f>
@@ -23304,7 +23304,7 @@
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C207" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D207" s="139">
         <f t="shared" ref="D207:G207" si="85">D97*0.7</f>
@@ -23328,10 +23328,10 @@
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B208" s="35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C208" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D208" s="139">
         <f t="shared" ref="D208:G208" si="86">D98*0.7</f>
@@ -23355,7 +23355,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C209" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D209" s="139">
         <f t="shared" ref="D209:G209" si="87">D99*0.7</f>
@@ -23379,7 +23379,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C210" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D210" s="139">
         <f t="shared" ref="D210:G210" si="88">D100*0.7</f>
@@ -23403,7 +23403,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C211" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D211" s="139">
         <f t="shared" ref="D211:G211" si="89">D101*0.7</f>
@@ -23439,35 +23439,35 @@
     </row>
     <row r="214" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A214" s="121" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B214" s="126" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C214" s="123" t="s">
         <v>276</v>
       </c>
       <c r="D214" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E214" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F214" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G214" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H214" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="40"/>
       <c r="B215" s="36"/>
       <c r="C215" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D215" s="139">
         <f>D105*0.7</f>
@@ -23491,7 +23491,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C216" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D216" s="139">
         <f t="shared" ref="D216:G216" si="91">D106*0.7</f>
@@ -23515,7 +23515,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C217" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D217" s="139">
         <f t="shared" ref="D217:G217" si="92">D107*0.7</f>
@@ -23539,7 +23539,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C218" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D218" s="139">
         <f t="shared" ref="D218:G218" si="93">D108*0.7</f>
@@ -23591,29 +23591,29 @@
         <v>266</v>
       </c>
       <c r="D222" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E222" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F222" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G222" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H222" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I222" s="120"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="40"/>
       <c r="B223" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C223" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D223" s="139">
         <f>D3*1.2</f>
@@ -23717,10 +23717,10 @@
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B227" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C227" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D227" s="139">
         <f t="shared" ref="D227:H227" si="98">D7*1.2</f>
@@ -23824,10 +23824,10 @@
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B231" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C231" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D231" s="139">
         <f t="shared" ref="D231:H231" si="102">D11*1.2</f>
@@ -23931,10 +23931,10 @@
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B235" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C235" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D235" s="139">
         <f t="shared" ref="D235:H235" si="106">D15*1.2</f>
@@ -24038,10 +24038,10 @@
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B239" s="36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C239" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D239" s="139">
         <f t="shared" ref="D239:H239" si="110">D19*1.2</f>
@@ -24145,10 +24145,10 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B243" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C243" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D243" s="139">
         <f t="shared" ref="D243:H243" si="114">D23*1.2</f>
@@ -24274,29 +24274,29 @@
         <v>270</v>
       </c>
       <c r="D249" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E249" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F249" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G249" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H249" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I249" s="120"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="40"/>
       <c r="B250" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C250" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D250" s="139">
         <f>D30*1.2</f>
@@ -24400,10 +24400,10 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B254" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C254" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D254" s="139">
         <f t="shared" ref="D254:H254" si="122">D34*1.2</f>
@@ -24507,10 +24507,10 @@
     </row>
     <row r="258" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B258" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C258" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D258" s="139">
         <f t="shared" ref="D258:H258" si="126">D38*1.2</f>
@@ -24614,10 +24614,10 @@
     </row>
     <row r="262" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B262" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C262" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D262" s="139">
         <f t="shared" ref="D262:H262" si="130">D42*1.2</f>
@@ -24721,10 +24721,10 @@
     </row>
     <row r="266" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B266" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C266" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D266" s="139">
         <f t="shared" ref="D266:H266" si="134">D46*1.2</f>
@@ -24828,10 +24828,10 @@
     </row>
     <row r="270" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B270" s="35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C270" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D270" s="139">
         <f t="shared" ref="D270:H270" si="138">D50*1.2</f>
@@ -24952,7 +24952,7 @@
     </row>
     <row r="276" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A276" s="121" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B276" s="94" t="s">
         <v>265</v>
@@ -24961,16 +24961,16 @@
         <v>272</v>
       </c>
       <c r="D276" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E276" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F276" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G276" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H276" s="120"/>
       <c r="I276" s="36"/>
@@ -24978,7 +24978,7 @@
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="40"/>
       <c r="B277" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C277" s="43" t="s">
         <v>273</v>
@@ -25025,7 +25025,7 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B279" s="35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C279" s="43" t="s">
         <v>273</v>
@@ -25072,7 +25072,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B281" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C281" s="43" t="s">
         <v>273</v>
@@ -25134,9 +25134,9 @@
       <c r="H284" s="100"/>
       <c r="I284" s="100"/>
     </row>
-    <row r="285" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A285" s="121" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B285" s="94" t="s">
         <v>265</v>
@@ -25145,29 +25145,29 @@
         <v>276</v>
       </c>
       <c r="D285" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E285" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F285" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G285" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H285" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I285" s="120"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="125"/>
       <c r="B286" s="35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C286" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D286" s="139">
         <f>D66*1.2</f>
@@ -25192,7 +25192,7 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C287" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D287" s="139">
         <f t="shared" ref="D287:G287" si="149">D67*1.2</f>
@@ -25217,7 +25217,7 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C288" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D288" s="139">
         <f t="shared" ref="D288:G288" si="150">D68*1.2</f>
@@ -25242,7 +25242,7 @@
     </row>
     <row r="289" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C289" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D289" s="139">
         <f t="shared" ref="D289:G289" si="151">D69*1.2</f>
@@ -25267,10 +25267,10 @@
     </row>
     <row r="290" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B290" s="35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C290" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D290" s="139">
         <f t="shared" ref="D290:G290" si="152">D70*1.2</f>
@@ -25295,7 +25295,7 @@
     </row>
     <row r="291" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C291" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D291" s="139">
         <f t="shared" ref="D291:G291" si="153">D71*1.2</f>
@@ -25320,7 +25320,7 @@
     </row>
     <row r="292" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C292" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D292" s="139">
         <f t="shared" ref="D292:G292" si="154">D72*1.2</f>
@@ -25345,7 +25345,7 @@
     </row>
     <row r="293" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C293" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D293" s="139">
         <f t="shared" ref="D293:G293" si="155">D73*1.2</f>
@@ -25370,10 +25370,10 @@
     </row>
     <row r="294" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B294" s="35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C294" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D294" s="139">
         <f t="shared" ref="D294:G294" si="156">D74*1.2</f>
@@ -25398,7 +25398,7 @@
     </row>
     <row r="295" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C295" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D295" s="139">
         <f t="shared" ref="D295:G295" si="157">D75*1.2</f>
@@ -25423,7 +25423,7 @@
     </row>
     <row r="296" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C296" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D296" s="139">
         <f t="shared" ref="D296:G296" si="158">D76*1.2</f>
@@ -25448,7 +25448,7 @@
     </row>
     <row r="297" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C297" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D297" s="139">
         <f t="shared" ref="D297:G297" si="159">D77*1.2</f>
@@ -25473,10 +25473,10 @@
     </row>
     <row r="298" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B298" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C298" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D298" s="139">
         <f t="shared" ref="D298:G298" si="160">D78*1.2</f>
@@ -25501,7 +25501,7 @@
     </row>
     <row r="299" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C299" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D299" s="139">
         <f t="shared" ref="D299:G299" si="161">D79*1.2</f>
@@ -25526,7 +25526,7 @@
     </row>
     <row r="300" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C300" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D300" s="139">
         <f t="shared" ref="D300:G300" si="162">D80*1.2</f>
@@ -25551,7 +25551,7 @@
     </row>
     <row r="301" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C301" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D301" s="139">
         <f t="shared" ref="D301:G301" si="163">D81*1.2</f>
@@ -25576,10 +25576,10 @@
     </row>
     <row r="302" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B302" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C302" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D302" s="139">
         <f t="shared" ref="D302:G302" si="164">D82*1.2</f>
@@ -25604,7 +25604,7 @@
     </row>
     <row r="303" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C303" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D303" s="139">
         <f t="shared" ref="D303:G303" si="165">D83*1.2</f>
@@ -25629,7 +25629,7 @@
     </row>
     <row r="304" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C304" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D304" s="139">
         <f t="shared" ref="D304:G304" si="166">D84*1.2</f>
@@ -25654,7 +25654,7 @@
     </row>
     <row r="305" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C305" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D305" s="139">
         <f t="shared" ref="D305:G305" si="167">D85*1.2</f>
@@ -25679,10 +25679,10 @@
     </row>
     <row r="306" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B306" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C306" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D306" s="139">
         <f t="shared" ref="D306:G306" si="168">D86*1.2</f>
@@ -25707,7 +25707,7 @@
     </row>
     <row r="307" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C307" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D307" s="139">
         <f t="shared" ref="D307:G307" si="169">D87*1.2</f>
@@ -25732,7 +25732,7 @@
     </row>
     <row r="308" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C308" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D308" s="139">
         <f t="shared" ref="D308:G308" si="170">D88*1.2</f>
@@ -25757,7 +25757,7 @@
     </row>
     <row r="309" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C309" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D309" s="139">
         <f t="shared" ref="D309:G309" si="171">D89*1.2</f>
@@ -25782,10 +25782,10 @@
     </row>
     <row r="310" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B310" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C310" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D310" s="139">
         <f t="shared" ref="D310:G310" si="172">D90*1.2</f>
@@ -25810,7 +25810,7 @@
     </row>
     <row r="311" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C311" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D311" s="139">
         <f t="shared" ref="D311:G311" si="173">D91*1.2</f>
@@ -25835,7 +25835,7 @@
     </row>
     <row r="312" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C312" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D312" s="139">
         <f t="shared" ref="D312:G312" si="174">D92*1.2</f>
@@ -25860,7 +25860,7 @@
     </row>
     <row r="313" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C313" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D313" s="139">
         <f t="shared" ref="D313:G313" si="175">D93*1.2</f>
@@ -25885,10 +25885,10 @@
     </row>
     <row r="314" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B314" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C314" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D314" s="139">
         <f t="shared" ref="D314:G314" si="176">D94*1.2</f>
@@ -25913,7 +25913,7 @@
     </row>
     <row r="315" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C315" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D315" s="139">
         <f t="shared" ref="D315:G315" si="177">D95*1.2</f>
@@ -25938,7 +25938,7 @@
     </row>
     <row r="316" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C316" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D316" s="139">
         <f t="shared" ref="D316:G316" si="178">D96*1.2</f>
@@ -25963,7 +25963,7 @@
     </row>
     <row r="317" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C317" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D317" s="139">
         <f t="shared" ref="D317:G317" si="179">D97*1.2</f>
@@ -25988,10 +25988,10 @@
     </row>
     <row r="318" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B318" s="35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C318" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D318" s="139">
         <f t="shared" ref="D318:G318" si="180">D98*1.2</f>
@@ -26016,7 +26016,7 @@
     </row>
     <row r="319" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C319" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D319" s="139">
         <f t="shared" ref="D319:G319" si="181">D99*1.2</f>
@@ -26041,7 +26041,7 @@
     </row>
     <row r="320" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C320" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D320" s="139">
         <f t="shared" ref="D320:G320" si="182">D100*1.2</f>
@@ -26066,7 +26066,7 @@
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C321" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D321" s="139">
         <f t="shared" ref="D321:G321" si="183">D101*1.2</f>
@@ -26102,30 +26102,30 @@
       <c r="H323" s="100"/>
       <c r="I323" s="100"/>
     </row>
-    <row r="324" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A324" s="121" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B324" s="126" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C324" s="123" t="s">
         <v>276</v>
       </c>
       <c r="D324" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E324" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F324" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G324" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H324" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I324" s="120"/>
     </row>
@@ -26133,7 +26133,7 @@
       <c r="A325" s="40"/>
       <c r="B325" s="36"/>
       <c r="C325" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D325" s="139">
         <f>D105*1.2</f>
@@ -26158,7 +26158,7 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C326" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D326" s="139">
         <f t="shared" ref="D326:G326" si="185">D106*1.2</f>
@@ -26183,7 +26183,7 @@
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C327" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D327" s="139">
         <f t="shared" ref="D327:G327" si="186">D107*1.2</f>
@@ -26208,7 +26208,7 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C328" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D328" s="139">
         <f t="shared" ref="D328:G328" si="187">D108*1.2</f>
@@ -26232,7 +26232,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wFGsaUUPDgLqq6ju/JFvXtEHyJLk32vuYq9wXJ9AV1IU+g4QtncTp/K9C1Tl1cq9Wwj+W5cQtMwYlwgXk8i0vA==" saltValue="++OIM/HqHteHj+SIzWDrFg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XSo6tiSGVhKjvxfAX5fe1jMzJe24KhAUGclNMFqu8Xlok1mMH/g43iRtLw+7hBTSjleTQkHdhGC5l35OEvahYQ==" saltValue="pldPQUbUSfCdcDFQBwIWYQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26275,19 +26275,19 @@
       </c>
       <c r="B2" s="119"/>
       <c r="C2" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26295,7 +26295,7 @@
         <v>280</v>
       </c>
       <c r="C3" s="136" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="136">
         <v>45</v>
@@ -26505,7 +26505,7 @@
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="125" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B17" s="113" t="s">
         <v>285</v>
@@ -26534,21 +26534,21 @@
     </row>
     <row r="20" spans="1:7" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F20" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="113" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="136">
         <v>1.52</v>
@@ -26585,19 +26585,19 @@
       </c>
       <c r="B25" s="119"/>
       <c r="C25" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -26605,7 +26605,7 @@
         <v>289</v>
       </c>
       <c r="C26" s="136" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D26" s="136">
         <f t="shared" ref="D26:G27" si="0">D3*0.9</f>
@@ -26868,7 +26868,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="125" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B40" s="113" t="s">
         <v>299</v>
@@ -26909,16 +26909,16 @@
       <c r="A43" s="104"/>
       <c r="B43" s="104"/>
       <c r="C43" s="56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D43" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E43" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F43" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G43" s="104"/>
     </row>
@@ -26965,19 +26965,19 @@
       </c>
       <c r="B48" s="119"/>
       <c r="C48" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F48" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G48" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -26985,7 +26985,7 @@
         <v>302</v>
       </c>
       <c r="C49" s="136" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D49" s="136">
         <f t="shared" ref="D49:G50" si="9">D3*1.05</f>
@@ -27248,7 +27248,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="125" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B63" s="113" t="s">
         <v>312</v>
@@ -27289,16 +27289,16 @@
       <c r="A66" s="104"/>
       <c r="B66" s="104"/>
       <c r="C66" s="56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D66" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E66" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F66" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G66" s="104"/>
     </row>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UBYzwZtQHCTyNgOLUaWvJB45/wgM2LkRQ8ZA8bVsFww/TjO8VtS8haC5mh99HqDnE+N6NBtcfBmsVNEJQleHeg==" saltValue="oMvxRytSR74WtBFGjAbZ4A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iSvtsc8GpEjvq71JmEOuT+KYhBHAF7FlaryvQadTyV1+uPETGIXcmoXKHRCI8ItJB160u5abet0+4S1junzhjQ==" saltValue="RrYI+gPcaOtaoksGeOz8mA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27356,25 +27356,25 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F1" s="119" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="90" t="s">
         <v>317</v>
@@ -27412,7 +27412,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" s="90" t="s">
         <v>317</v>
@@ -27450,7 +27450,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="90" t="s">
         <v>317</v>
@@ -27488,7 +27488,7 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="90" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B8" s="90" t="s">
         <v>317</v>
@@ -27607,25 +27607,25 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F16" s="119" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="90" t="s">
         <v>317</v>
@@ -27671,7 +27671,7 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19" s="90" t="s">
         <v>317</v>
@@ -27717,7 +27717,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21" s="90" t="s">
         <v>317</v>
@@ -27763,7 +27763,7 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="90" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B23" s="90" t="s">
         <v>317</v>
@@ -27906,25 +27906,25 @@
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B31" s="40"/>
       <c r="C31" s="40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F31" s="119" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B32" s="90" t="s">
         <v>317</v>
@@ -27970,7 +27970,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B34" s="90" t="s">
         <v>317</v>
@@ -28016,7 +28016,7 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B36" s="90" t="s">
         <v>317</v>
@@ -28062,7 +28062,7 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="90" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B38" s="90" t="s">
         <v>317</v>
@@ -28199,7 +28199,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NcOLHUViuwUEqW0Xq/9VNxydtSBSBZrz2144cJgPdvxaKlTOjUacM3+u71s/1GwxUuuiQzXMD3JM3KpIUVhrJQ==" saltValue="KWSjqLZaEvbLO9GD13qdCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ELN08HGGC8FrSLMAHDy/2Tll/fvJA5MKTvwiEu6hrxgUkB+fszuZfCT97sCkULIi3HsZAB12B1DAO0q4MQb5pA==" saltValue="zstMclSJk176lCkUrnO1uA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28231,43 +28231,43 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H1" s="103" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I1" s="103" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J1" s="103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K1" s="103" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L1" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M1" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N1" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O1" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -28277,7 +28277,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="136">
         <v>0.53</v>
@@ -28321,7 +28321,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="136">
         <v>1</v>
@@ -28365,7 +28365,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -28409,7 +28409,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" s="136">
         <v>1</v>
@@ -28453,7 +28453,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -28497,7 +28497,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -28541,7 +28541,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -28585,7 +28585,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C10" s="136">
         <v>1</v>
@@ -28855,7 +28855,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B18" s="90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C18" s="136">
         <v>1</v>
@@ -28899,7 +28899,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="136">
         <v>1</v>
@@ -28943,7 +28943,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B20" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="136">
         <v>1</v>
@@ -29038,43 +29038,43 @@
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D24" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E24" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F24" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G24" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H24" s="103" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I24" s="103" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J24" s="103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K24" s="103" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L24" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M24" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N24" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O24" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -29084,7 +29084,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C26" s="136">
         <f>C3*0.9</f>
@@ -29141,7 +29141,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" s="136">
         <f t="shared" ref="C27:O27" si="1">C4*0.9</f>
@@ -29198,7 +29198,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B28" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C28" s="136">
         <f t="shared" ref="C28:O28" si="2">C5*0.9</f>
@@ -29255,7 +29255,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B29" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C29" s="136">
         <f t="shared" ref="C29:O29" si="3">C6*0.9</f>
@@ -29312,7 +29312,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B30" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C30" s="136">
         <f t="shared" ref="C30:O30" si="4">C7*0.9</f>
@@ -29369,7 +29369,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C31" s="136">
         <f t="shared" ref="C31:O31" si="5">C8*0.9</f>
@@ -29426,7 +29426,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B32" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C32" s="136">
         <f t="shared" ref="C32:O32" si="6">C9*0.9</f>
@@ -29483,7 +29483,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B33" s="59" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C33" s="136">
         <f t="shared" ref="C33:O33" si="7">C10*0.9</f>
@@ -29831,7 +29831,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B41" s="90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C41" s="136">
         <f>C18*0.9</f>
@@ -29888,7 +29888,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B42" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C42" s="136">
         <f t="shared" ref="C42:O42" si="13">C19*0.9</f>
@@ -29945,7 +29945,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B43" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C43" s="136">
         <f t="shared" ref="C43:O43" si="14">C20*0.9</f>
@@ -30066,43 +30066,43 @@
       <c r="A47" s="40"/>
       <c r="B47" s="40"/>
       <c r="C47" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D47" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E47" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F47" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G47" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H47" s="103" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I47" s="103" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J47" s="103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K47" s="103" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L47" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M47" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N47" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O47" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -30112,7 +30112,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B49" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C49" s="136">
         <f>C3*1.05</f>
@@ -30169,7 +30169,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B50" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C50" s="136">
         <f t="shared" ref="C50:O50" si="17">C4*1.05</f>
@@ -30226,7 +30226,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B51" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C51" s="136">
         <f t="shared" ref="C51:O51" si="18">C5*1.05</f>
@@ -30283,7 +30283,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B52" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C52" s="136">
         <f t="shared" ref="C52:O52" si="19">C6*1.05</f>
@@ -30340,7 +30340,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B53" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C53" s="136">
         <f t="shared" ref="C53:O53" si="20">C7*1.05</f>
@@ -30397,7 +30397,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B54" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C54" s="136">
         <f t="shared" ref="C54:O54" si="21">C8*1.05</f>
@@ -30454,7 +30454,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B55" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C55" s="136">
         <f t="shared" ref="C55:O55" si="22">C9*1.05</f>
@@ -30511,7 +30511,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B56" s="59" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C56" s="136">
         <f t="shared" ref="C56:O56" si="23">C10*1.05</f>
@@ -30859,7 +30859,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B64" s="90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C64" s="136">
         <f>C18*1.05</f>
@@ -30916,7 +30916,7 @@
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C65" s="136">
         <f t="shared" ref="C65:O65" si="29">C19*1.05</f>
@@ -30973,7 +30973,7 @@
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C66" s="136">
         <f t="shared" ref="C66:O66" si="30">C20*1.05</f>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hMdheoXN8ne5PrDvOjOoFgRayp10qhl32Is1Zz4BwX3uocGVJxHpLiKXjJ3il6ejDoAmhzPQntgvk6bxBacjNg==" saltValue="oudg5mNq2IF7EhPMpblEsQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IoWyltSsNTbHKndm60WwO4FtZbxS20sfzWRBr9c6er0zFRVU8Eg987JZLlTu7MNBKvFAld2lLnylogXoEGNYaQ==" saltValue="TUe0gvFwb1usmdoWR+cpQw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31118,19 +31118,19 @@
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -31140,7 +31140,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -31171,7 +31171,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -31198,19 +31198,19 @@
       <c r="A8" s="40"/>
       <c r="B8" s="119"/>
       <c r="C8" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -31220,7 +31220,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="136">
         <f>C3*0.9</f>
@@ -31256,7 +31256,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="136">
         <f>C5*0.9</f>
@@ -31288,19 +31288,19 @@
       <c r="A15" s="40"/>
       <c r="B15" s="119"/>
       <c r="C15" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -31310,7 +31310,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" s="136">
         <f>C3*1.05</f>
@@ -31346,7 +31346,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" s="136">
         <f>C5*1.05</f>
@@ -31370,7 +31370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DENBTnT4wG8fwKfXd7S7ZMP/jfKCvMRyVzaPYm4ELt0zmF+3OLcrWo9gH+GrIFint50ItkVILlTV7yecPoO4Zg==" saltValue="kRRv8/LxxX0iTaeim89dSw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eH9vBUH1BdhcGXu9f0GjM83ypqAg22D6AA/szzpup5I0CDjA+uUlxdPJ4hAOVACnWPg7USqjk8zkpB+EsNn6ZQ==" saltValue="P5+xB5sRSbvx2njCkI+3wg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -31405,28 +31405,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>333</v>
       </c>
       <c r="C1" s="125" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -31434,7 +31434,7 @@
         <v>193</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C2" s="52" t="s">
         <v>334</v>
@@ -31764,7 +31764,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>209</v>
@@ -31856,10 +31856,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C21" s="52" t="s">
         <v>334</v>
@@ -31904,10 +31904,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C23" s="52" t="s">
         <v>334</v>
@@ -31950,10 +31950,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C25" s="52" t="s">
         <v>334</v>
@@ -31999,7 +31999,7 @@
         <v>197</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C27" s="52" t="s">
         <v>334</v>
@@ -32065,7 +32065,7 @@
         <v>198</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C30" s="52" t="s">
         <v>334</v>
@@ -32131,7 +32131,7 @@
         <v>196</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C33" s="52" t="s">
         <v>334</v>
@@ -32197,7 +32197,7 @@
         <v>195</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C36" s="52" t="s">
         <v>334</v>
@@ -32263,7 +32263,7 @@
         <v>194</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C39" s="52" t="s">
         <v>334</v>
@@ -32329,7 +32329,7 @@
         <v>200</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C42" s="52" t="s">
         <v>334</v>
@@ -32392,7 +32392,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C45" s="52" t="s">
         <v>334</v>
@@ -32458,7 +32458,7 @@
         <v>191</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C48" s="52" t="s">
         <v>334</v>
@@ -32504,7 +32504,7 @@
         <v>199</v>
       </c>
       <c r="B50" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C50" s="52" t="s">
         <v>334</v>
@@ -32550,7 +32550,7 @@
         <v>184</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C52" s="52" t="s">
         <v>334</v>
@@ -32600,28 +32600,28 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B56" s="40" t="s">
         <v>333</v>
       </c>
       <c r="C56" s="125" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F56" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -32629,7 +32629,7 @@
         <v>193</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C57" s="52" t="s">
         <v>334</v>
@@ -33034,7 +33034,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B72" s="52" t="s">
         <v>209</v>
@@ -33143,10 +33143,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B76" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C76" s="52" t="s">
         <v>334</v>
@@ -33199,10 +33199,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B78" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C78" s="52" t="s">
         <v>334</v>
@@ -33255,10 +33255,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B80" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C80" s="52" t="s">
         <v>334</v>
@@ -33314,7 +33314,7 @@
         <v>197</v>
       </c>
       <c r="B82" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C82" s="52" t="s">
         <v>334</v>
@@ -33395,7 +33395,7 @@
         <v>198</v>
       </c>
       <c r="B85" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C85" s="52" t="s">
         <v>334</v>
@@ -33476,7 +33476,7 @@
         <v>196</v>
       </c>
       <c r="B88" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C88" s="52" t="s">
         <v>334</v>
@@ -33557,7 +33557,7 @@
         <v>195</v>
       </c>
       <c r="B91" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C91" s="52" t="s">
         <v>334</v>
@@ -33638,7 +33638,7 @@
         <v>194</v>
       </c>
       <c r="B94" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C94" s="52" t="s">
         <v>334</v>
@@ -33719,7 +33719,7 @@
         <v>200</v>
       </c>
       <c r="B97" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C97" s="52" t="s">
         <v>334</v>
@@ -33797,7 +33797,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B100" s="52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C100" s="52" t="s">
         <v>334</v>
@@ -33878,7 +33878,7 @@
         <v>191</v>
       </c>
       <c r="B103" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C103" s="52" t="s">
         <v>334</v>
@@ -33934,7 +33934,7 @@
         <v>199</v>
       </c>
       <c r="B105" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C105" s="52" t="s">
         <v>334</v>
@@ -33990,7 +33990,7 @@
         <v>184</v>
       </c>
       <c r="B107" s="52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C107" s="52" t="s">
         <v>334</v>
@@ -34050,28 +34050,28 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B111" s="40" t="s">
         <v>333</v>
       </c>
       <c r="C111" s="125" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E111" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F111" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G111" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H111" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -34079,7 +34079,7 @@
         <v>193</v>
       </c>
       <c r="B112" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C112" s="52" t="s">
         <v>334</v>
@@ -34484,7 +34484,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B127" s="52" t="s">
         <v>209</v>
@@ -34593,10 +34593,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B131" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C131" s="52" t="s">
         <v>334</v>
@@ -34649,10 +34649,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B133" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C133" s="52" t="s">
         <v>334</v>
@@ -34705,10 +34705,10 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B135" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C135" s="52" t="s">
         <v>334</v>
@@ -34764,7 +34764,7 @@
         <v>197</v>
       </c>
       <c r="B137" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C137" s="52" t="s">
         <v>334</v>
@@ -34845,7 +34845,7 @@
         <v>198</v>
       </c>
       <c r="B140" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C140" s="52" t="s">
         <v>334</v>
@@ -34926,7 +34926,7 @@
         <v>196</v>
       </c>
       <c r="B143" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C143" s="52" t="s">
         <v>334</v>
@@ -35007,7 +35007,7 @@
         <v>195</v>
       </c>
       <c r="B146" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C146" s="52" t="s">
         <v>334</v>
@@ -35088,7 +35088,7 @@
         <v>194</v>
       </c>
       <c r="B149" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C149" s="52" t="s">
         <v>334</v>
@@ -35169,7 +35169,7 @@
         <v>200</v>
       </c>
       <c r="B152" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C152" s="52" t="s">
         <v>334</v>
@@ -35247,7 +35247,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B155" s="52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C155" s="52" t="s">
         <v>334</v>
@@ -35328,7 +35328,7 @@
         <v>191</v>
       </c>
       <c r="B158" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C158" s="52" t="s">
         <v>334</v>
@@ -35384,7 +35384,7 @@
         <v>199</v>
       </c>
       <c r="B160" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C160" s="52" t="s">
         <v>334</v>
@@ -35440,7 +35440,7 @@
         <v>184</v>
       </c>
       <c r="B162" s="52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C162" s="52" t="s">
         <v>334</v>
@@ -35492,7 +35492,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yGMFmpL8gnWFUfQzh9o6Sz50W6iIa2+tFG/Kl3UxWdpSWhtSgNZZ4eUcPfZO7kbZYbx1YLCJeQUk5uI1V2L9Jw==" saltValue="Ovz9Ari9CZ+88rjFLrwQtQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0ry55HF6sb2c/EQ7llJk/gLdfxE9thT8q35Kd7aVIzo8nYOTIggetBZ3v/8od1yw19tMUKQHEicd+uKVkTgWdQ==" saltValue="TaOOGyGfF2rEJBfapqVP9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -35523,32 +35523,32 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="119" t="s">
         <v>333</v>
       </c>
       <c r="C1" s="119"/>
       <c r="D1" s="40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>334</v>
@@ -35590,7 +35590,7 @@
         <v>188</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>334</v>
@@ -35633,7 +35633,7 @@
         <v>187</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>334</v>
@@ -35678,31 +35678,31 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10" s="119" t="s">
         <v>333</v>
       </c>
       <c r="C10" s="119"/>
       <c r="D10" s="40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>334</v>
@@ -35750,7 +35750,7 @@
         <v>188</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C13" s="43" t="s">
         <v>334</v>
@@ -35799,7 +35799,7 @@
         <v>187</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>334</v>
@@ -35850,31 +35850,31 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="119" t="s">
         <v>333</v>
       </c>
       <c r="C19" s="119"/>
       <c r="D19" s="40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>334</v>
@@ -35922,7 +35922,7 @@
         <v>188</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C22" s="43" t="s">
         <v>334</v>
@@ -35971,7 +35971,7 @@
         <v>187</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>334</v>
@@ -36016,7 +36016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VNc7qz+vLvY0Oc4odshCE0xS4uiLSm/6SQHGRgjRlnD8xLIFLYFOU2tQxZ1qovdLOF6dL2N/Nw53rl1i452liw==" saltValue="k2YA0KIrvkVOM2f8DHzqkw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3W8072cT3vwanitmv6hcEdmybiQsQwWOsOaF3eVuXVWSmrps9t2hSLPQUrVjL+pIj7v4kw3qJ06EiVMiJmg8qA==" saltValue="Bo8Y3pW6b4J2pmimAcneqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36055,13 +36055,13 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -36070,7 +36070,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -36078,7 +36078,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C4" s="75">
         <v>0.1966</v>
@@ -36086,7 +36086,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C5" s="75">
         <v>6.2100000000000002E-2</v>
@@ -36094,7 +36094,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C6" s="75">
         <v>0.29289999999999999</v>
@@ -36102,7 +36102,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C7" s="75">
         <v>0.24709999999999999</v>
@@ -36110,7 +36110,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -36118,7 +36118,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C9" s="75">
         <v>0.13200000000000001</v>
@@ -36126,7 +36126,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C10" s="75">
         <v>6.1800000000000001E-2</v>
@@ -36134,7 +36134,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -36154,28 +36154,28 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -36192,7 +36192,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C15" s="75">
         <v>0.20660000000000001</v>
@@ -36209,7 +36209,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C16" s="75">
         <v>2.1100000000000001E-2</v>
@@ -36226,7 +36226,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C17" s="75">
         <v>7.4999999999999997E-3</v>
@@ -36243,7 +36243,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C18" s="75">
         <v>8.6199999999999999E-2</v>
@@ -36260,7 +36260,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C19" s="75">
         <v>2.86E-2</v>
@@ -36277,7 +36277,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C20" s="75">
         <v>1.5299999999999999E-2</v>
@@ -36294,7 +36294,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C21" s="75">
         <v>0.13589999999999999</v>
@@ -36311,7 +36311,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C22" s="75">
         <v>0.36199999999999999</v>
@@ -36328,7 +36328,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -36360,13 +36360,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -36376,7 +36376,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -36384,7 +36384,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -36392,7 +36392,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -36400,7 +36400,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -36416,7 +36416,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -36424,7 +36424,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -36432,7 +36432,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -36440,7 +36440,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -36448,7 +36448,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -36456,7 +36456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8d+yXOh8aDLwmNcFO0b2KVHKk3Zm8ZEqeSFBH/Bc6GaFaKgIV5/AbPIuxJrqM/HRnjHYTevHxr8vWT4pI1Jt3w==" saltValue="3/y1IdUzSgjFJ2Vy61JVPA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iVrNdvPWpTl/Ww3LIzsGbtyANVbJ2TZ13RmRpDjUkKxtvgbIB76u08utx4iy/HoHqccwlgIYq738EqnraCWt+w==" saltValue="Vrv7/udcJG5zvXlUVXBQwg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36486,30 +36486,30 @@
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -36535,7 +36535,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -36561,7 +36561,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C4" s="77">
         <v>8.7000000000000008E-2</v>
@@ -36582,7 +36582,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C5" s="77">
         <v>4.5999999999999999E-2</v>
@@ -36618,10 +36618,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C8" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -36646,7 +36646,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C9" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -36671,7 +36671,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C10" s="77">
         <v>5.3999999999999999E-2</v>
@@ -36691,7 +36691,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C11" s="77">
         <v>0.04</v>
@@ -36725,51 +36725,51 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>129</v>
-      </c>
       <c r="L13" s="23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C14" s="78">
         <v>0.1</v>
@@ -36813,7 +36813,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C15" s="76">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
@@ -36883,7 +36883,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SY+EhD9iyMpuO1T4cBowD1JA3ELMYCbiNJvEXnF9UreRSsSxPTde7nKDYJ8mdTvkq1N2FQ5HrlzmVkYpaWT7xA==" saltValue="NC/44gopiz3jD1ROhNivqA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="a++awAL42gZtcKJ7KqacZ2ME6MWptLFBYJTqZFKYTbcKv5vWL52ua47iLpNYfqMeKHu38gG5T7TGA0bwOSPttw==" saltValue="If77I4LAJijNc/szR/uIfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -36913,30 +36913,30 @@
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C2" s="77">
         <v>0.84</v>
@@ -36956,7 +36956,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C3" s="77">
         <v>9.1999999999999998E-2</v>
@@ -36976,7 +36976,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C4" s="77">
         <v>5.8000000000000003E-2</v>
@@ -36996,7 +36996,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C5" s="76">
         <f>1-SUM(C2:C4)</f>
@@ -37020,7 +37020,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="b+31yXWvq1utPGsbSBsZ7alNLtXQatiG5Ly/ji92x9WDqJDNqXXZWegBtgwKei76xmCCCVQV0DRpn1PPLJiJZg==" saltValue="9nZQuHgBjIZWQTTFdTnowg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="m38Jht372S+mYKLyksuwrkVxfIyj8D3YtCR7iLk5b3F3MZ/uxi1VUtNZAtOri9ntLVOdvCfEitEWwATyxuW0Bg==" saltValue="yozT2V/VhInes7X+GaiKvg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37045,10 +37045,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1">
         <v>2010</v>
@@ -37080,10 +37080,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -37100,10 +37100,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -37120,10 +37120,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -37137,7 +37137,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -37151,7 +37151,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -37165,10 +37165,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -37182,7 +37182,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -37196,10 +37196,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -37213,7 +37213,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -37226,7 +37226,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dHDeYA7ATfLT2pgL1TGJCoVSle0PRzYXJ2EjyIRTjBD12oaGAKJhX2R/3IM0Cq5YNdyDIfneQm2rn2OepeGztw==" saltValue="ngRuBukaazXerTCxP09JXg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RpUZMlYeCyS1BgmB/VuqqWJILe4f+jMR7xN/jZxAgNZT9vYEPTXGMyimOjgtE0aJq4bRrX05UCmoUwG+qah1uw==" saltValue="sSEgUIpqOIYJ4tieaRU5XA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37249,15 +37249,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B2" s="147">
         <v>10</v>
@@ -37265,7 +37265,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B3" s="147">
         <v>10</v>
@@ -37273,7 +37273,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B4" s="147">
         <v>50</v>
@@ -37281,7 +37281,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="146" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B5" s="147">
         <v>100</v>
@@ -37289,7 +37289,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="146" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B6" s="147">
         <v>5</v>
@@ -37297,14 +37297,14 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="146" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B7" s="147">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+CKbQKuM1He3HtLybVDdmMfhwLPY4jNyWjmNO9zaIk7lkrr+GyorNNm7047FPkiuwhAF5hfdlHAzC8QFXhvHIA==" saltValue="7I+gsaMmgTJe/G7RvGQPmQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="n2Jftw9ucOw8JS+wI3JKVW+yO3hvPdWhBZGgVOwT/yxKMGmahlhIWawUC7aJr/vxo0fHBsF/vYxf6kpRLa4IkQ==" saltValue="AVk3AJ4xKp5JrkhpDnNvpw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37330,27 +37330,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="51" t="s">
         <v>155</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -37362,7 +37362,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C3" s="80" t="b">
         <v>1</v>
@@ -37376,7 +37376,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C4" s="80" t="b">
         <v>1</v>
@@ -37390,7 +37390,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C5" s="80" t="b">
         <v>1</v>
@@ -37404,7 +37404,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C6" s="80" t="b">
         <v>1</v>
@@ -37418,7 +37418,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="44"/>
@@ -37426,10 +37426,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="b">
@@ -37443,7 +37443,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -37455,7 +37455,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -37467,7 +37467,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -37479,7 +37479,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -37491,24 +37491,24 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
       <c r="E14" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37518,11 +37518,11 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37532,11 +37532,11 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E18" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37546,11 +37546,11 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37560,11 +37560,11 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37574,14 +37574,14 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lT/ddI1fPZ6gRo1ICxCTTYNO7PqDFd4v6rgOCEUw9XTkAJJ/HIstAe+cljH1STnHGAPm+l65iXNZcvWqj4nexA==" saltValue="Xe2GY47OneM7cVG4CPUwtQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nJUS4wHjjQYVT2zI1O/M2Kzz7pIHd9zvzKqPuTgaEXprTJ/RPCaPFKkwnT+sMUJmmTYMdYFlv2kTn1digOhGjQ==" saltValue="ZNki6zuBXqrcOVq8VIQIxw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37608,44 +37608,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="D1" s="61" t="s">
         <v>163</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>162</v>
-      </c>
       <c r="C2" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PBHiFYrAMadDHQeehBn+8mXAqC8qGzTNttF7smxD+f5oib1x3+4VdkR3lcqaCa18xBedReHzxybjzpkUZFLlbw==" saltValue="s8acDK6bTQb0yLpvjYNVnw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yaFBF317BA72z38jcKbpwkeubLGgDKh/4Kr76g2HUOdCahC4+vEMPQLWJ2N7zVRQZ3Yup/Qe+mcrXFYIymsP4w==" saltValue="/pvUStRrGaCsyuuDk/VFkg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_testing_input.xlsx
+++ b/inputs/fr/demo_testing_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0EBB043-FD20-474D-B372-C0A44FF4DC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABB177DB-8E86-4C22-98BF-E588AF0370EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="15435" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="8970" windowWidth="28800" windowHeight="15435" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Perte économique" sheetId="74" r:id="rId7"/>
     <sheet name="Paquets ANJE" sheetId="55" r:id="rId8"/>
     <sheet name="Traitement de la MAS" sheetId="60" r:id="rId9"/>
-    <sheet name="Coût et couverture du programme" sheetId="56" r:id="rId10"/>
+    <sheet name="Coûts et couvertures des prgms" sheetId="56" r:id="rId10"/>
     <sheet name="Dépendances du programme" sheetId="58" r:id="rId11"/>
     <sheet name="Programmes de référence" sheetId="59" state="hidden" r:id="rId12"/>
     <sheet name="Incidence des conditions" sheetId="7" r:id="rId13"/>
@@ -5624,7 +5624,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qv+ilQY2wgjRv5H5cVbrkI+jbz0mlxF+GxbUWTwFVIk5C5uaxQfacFrO2WzCycZQyw4D/V4gw2eCrX7OMsDNiA==" saltValue="a9Z/+aHR5nz0/KQtPFv4tw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YxNJpIF331JUqNshKY0tHTnWQBM9VE+bo9ZwV/jep2D7A0diaC1Ix/G5q/4KcEgO2eecVPZaXOtdjQQJ5ujoVg==" saltValue="eI1uIbtzQswUHN2MvdRdfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6556,7 +6556,7 @@
       <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OWy+XcLxbC/CmKFcaxJ27kC+mWlbLW1sEr9LowxJtZVxKIAOnc6VAe5+zhrSH+Vu/DYwyZt5y1oNEmGk8V7q7A==" saltValue="KHuUwtz/+/KMvGq5WoL08w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DmoXq1ipCVnmobSFOQQiPFi5Oiqus3Seb6etw8XRnKV92VHHDaqiRnTHKCrE/hUB2SRTlxSKxqoJqVQjZG7JWA==" saltValue="br5uf9/sprLKoqvolJeAVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6720,7 +6720,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+zdqrs7IAZkpYrPmNZQdON9tcM0M4uLi5yT/6wY18Hvu+0oVs0nDQh5YKXN3VwQTFO324ZxNVbJci4Mgqj/Ztw==" saltValue="5r7lIAWd5oF2MilML128nQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uh1FbPB5aQpnr9goXPnWTqm98VibbRmq/M4pMyMW1m+gl05bgRpw5z6mWBFAdLH+jqLfhKylJwuSO2T8dVAevA==" saltValue="6/aU7rGKe8RoSbC0iXG+jQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6820,7 +6820,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="R+4gOk5bWkeJWjqgTu2WrK+N0Whzij5T/XE2KRKFubgwscDTtuY3gMgf5TJFoB2vSZ7ZepK1QvO229bt5q1PnQ==" saltValue="TUoJKCdlr3uSO8oLkSgwzw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GP+Gxdfr1HRtiM3q8A1OhqY4uwXAOdeb418iCfNrMpuY+HI8H1y179cwxoUXQ/92CkeqOWcGMSb5Lo6KcXHMfw==" saltValue="GRGywyJrnU5dFTlFduh6Mg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6935,7 +6935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UuhoxEn0080/l6+94wZUeI1uPRuIUs29AHmf0dM+YdAapPjuewUFTHwEXJqf5nfapHPQTr7jhZ2ybXWN6kGjpQ==" saltValue="E5fE0TlPrFBReeMMrejsMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YlI9h4BEdDm8YhcgbvyK2wUsJMmFYduUl3xfK0CRK91dQfBaA7WwYrJGBXtHAaj5L6JIRB+z9jb0OeRy2ibIJA==" saltValue="XzgTc+jECJ8Nvg/dywQlYw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -8697,7 +8697,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PC0ERYx6me7mcLR52pyJEF6e5/mKLBaFaFlt75Nl9dTz7wV+0LdhR/9aNKaYHKnAg77P3Cb+sJxzhXKKxeLIaw==" saltValue="NP6Aa1OhY+Ewf5nB2zYaog==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2jrF3vDYm5WkLlNOjnAwGoYsxzqhRM2hFw8VztpE6VdawSjwDWsKVOjqLET0BPQcdmhdR/4zzFSO7MQxV9SCRA==" saltValue="CDOY2pVir+MaA4Ua/XVmRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8735,7 +8735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="onauAoWgTYexgKfG571YyMHWm0hojdIcNd6rsbH0yYvgMtKGtfb8hofQ0WBQq6P2KBXxdfaoho+h1Q5pW/cKtQ==" saltValue="r+jvXfGmhoCvmhkjpJMcBA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AiAvDHVqPDQQNCXaG9Li172yxCeNYwi5a12+2DsJkKYQCiulvLXjlVrTSS00dZjXN5+srZcwRckddjlFdPOq8Q==" saltValue="BNCe8XpLwCkFkEDt8+95fQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8943,7 +8943,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OP0mGTvyMbrbSA742nOnhvoMcDC3D+kB1/JQ4/Co7RMTSCMBQDhednFkej/tyUQ+2sMQwgo0hjZbI3OJap2AMg==" saltValue="FRiVfTeysP5Vgs9C1/0B3A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MvcJk/pNrL8EvxF5qA4WAvscvfEnH7loeoYhJo6deoL5WqfO9G4qNoz80HzVT/Mc8EtbzJlq6fnEUT5qMSTeGA==" saltValue="UvTrl/4YYdgB86/5mifhww==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DiE5jXGSw5deVIDtUGKYICh2TXUwnJj8s3qTNThvsKzy3JgYp9dh1uK5X94/wp9oruKNuJ+4H7WDKiOnczTklA==" saltValue="jpllcoYKm81AZaqnjkjKpQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FWTptzJriNAz7KQhkfZ62O1orMbycW2Y+BybAw2ExNGI1ug/JJYmINBEUpbJtsHzRY1xkq8vVIqT8NxDgl6saw==" saltValue="r1lQbMFrEKXTDBu6+WOcqA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11525,7 +11525,7 @@
       <c r="K39" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kbdxRnrOc7KPkfsf4+RYfCE5vTJ0FmDmyS4lA8uPYZM1az4PR6sCT8eRmBiGm5lmZVc22nwdWNa8Ia9I+9WTRw==" saltValue="qPm3XYkzubhQ1P/FjBq6qw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rdOnzlm5ylM13QK9k+uqCPinucdrmd/Ik61gbx7w7yHV31yUxtYC9Nl+kW7DoEdTBL1epWG+POOsKxLiQ7/CpA==" saltValue="aHQ6afx/XyiblL2o158veQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11899,7 +11899,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Z0Dyx7PrAthvjywthhys1zffhHMih+uX/ptwdMNmm2E8QDRp5XedJejpZQVdFdtozHFTr/oNK7rDsmVzZzA9NA==" saltValue="/0Kjku08PakDoltitBaqvw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="g0G1hlHFfJbc4tA/+U0vFlCbD9oatBp1O4Rtt/RMTmE/MAJKu0J+IsKKvwKVLANlaMUq+zmZp1Oo8/G+M30/CQ==" saltValue="UgaAOu81IB9GYQ7BMHwd8A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12988,7 +12988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GFsg3/MVz4sZSu21KmpQtEC6TVZihtvF7Ms3AmixXXnos2SgoVpdzsjabWCEwS4ABOezFqELtowsJwITLXrU1w==" saltValue="2koCgjjMmaP2V2mhTBXZ1g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xfbKdiD5AaF1sHDDhfyxKbmldGYIenNXP9ackHiXbFORrYkMCP/w1+RUV9ebAGvv40GEI1DuPNM+fEpWWnJjJg==" saltValue="jztAXDCK/t5jcmPL2quy7w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -16805,7 +16805,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pxp2a9378M5uDjsQWqzAxKvbGDhz162FZxc50TLbj6pXIfNOgANeWkO8pmMPiLtO5bmhPPV8qTLMbB6WDaWAXg==" saltValue="O0J0Lje5dgFUD6sn0Mj6OA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8wDjVPiZpBTVzUSxTskTs8E3/hV+k9VXdQMwxLXerXnXPjkgzjJbS6BY9WMjF9sre/mzryJGYo0/Bu851lCTlw==" saltValue="THuq3NnyNy+5Q2sGw64ZAg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Zv3hfqY5m424rFlsrbJc8Ylso4Z/xfaReHE+wnNpRC0l+9Y8BpNWREpLlXcNXEDV0NV45/ZYkQfweVo+IQPPag==" saltValue="iavw0SDyZFmM8CkjEegZSg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FWaL+KxHmutTzRu26+XR8IRxOHe64o84A3ZZ+MY0AsKXpZrDmwUBWCW+9/orJjNGrdcO5W9Qfnvs/w2tOOuipA==" saltValue="BvaCaJiLAOh08El/bzilzg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -25134,7 +25134,7 @@
       <c r="H284" s="100"/>
       <c r="I284" s="100"/>
     </row>
-    <row r="285" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A285" s="121" t="s">
         <v>128</v>
       </c>
@@ -26102,7 +26102,7 @@
       <c r="H323" s="100"/>
       <c r="I323" s="100"/>
     </row>
-    <row r="324" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A324" s="121" t="s">
         <v>87</v>
       </c>
@@ -26232,7 +26232,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XSo6tiSGVhKjvxfAX5fe1jMzJe24KhAUGclNMFqu8Xlok1mMH/g43iRtLw+7hBTSjleTQkHdhGC5l35OEvahYQ==" saltValue="pldPQUbUSfCdcDFQBwIWYQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Fo/wRHhbZCzR4FVc/czddG5vWyVH2wM7NG56XcVkyWQUnt/zzJy8NUOt0ecMNgpAxYlJn5phXJ6t8gjj0lIk+g==" saltValue="xGZ2R3DvYqj68IOtjSDkYQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iSvtsc8GpEjvq71JmEOuT+KYhBHAF7FlaryvQadTyV1+uPETGIXcmoXKHRCI8ItJB160u5abet0+4S1junzhjQ==" saltValue="RrYI+gPcaOtaoksGeOz8mA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9ubca5Smkw5YGV2DD+ng9ftA30vzs3bDSkJvcBA5AvOMf7d+C1ELJiSAgZkaBWlU1x8cqpOeEyikkRsxKQT5qg==" saltValue="T4aDWeNAjsJQeYyTJQ0tjQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28199,7 +28199,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ELN08HGGC8FrSLMAHDy/2Tll/fvJA5MKTvwiEu6hrxgUkB+fszuZfCT97sCkULIi3HsZAB12B1DAO0q4MQb5pA==" saltValue="zstMclSJk176lCkUrnO1uA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z0FqG14ArhZgu+FVs/s1VBtDkVUXjiVWfJ/0dSJA97JjdnJE+gtSXBbV8QTRou2UKvwosFkO/nrzt5kiE2auzA==" saltValue="1sBJaFtk8Az7qNL9eOl0hQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IoWyltSsNTbHKndm60WwO4FtZbxS20sfzWRBr9c6er0zFRVU8Eg987JZLlTu7MNBKvFAld2lLnylogXoEGNYaQ==" saltValue="TUe0gvFwb1usmdoWR+cpQw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="V2hhfg/FafNfCsnM5Yf3C0m8cm8Uu/2F2T7lH+0kNCMsC+646l9fsDBR9SQVKV44D+UBvBJjmSTrT1xYGVLntQ==" saltValue="pIczRamQUpbufmeDGgLOnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31370,7 +31370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eH9vBUH1BdhcGXu9f0GjM83ypqAg22D6AA/szzpup5I0CDjA+uUlxdPJ4hAOVACnWPg7USqjk8zkpB+EsNn6ZQ==" saltValue="P5+xB5sRSbvx2njCkI+3wg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+9aUU4ypZDgd+S5esm9lxtDW6FNJWj6zKuak41twmD4hQOM3Z+B0/OA6NzvdnrSYQav9ya5J6Mxe+/zBOupcoA==" saltValue="12FELxz8gRuu4jsOr6oeZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -35492,7 +35492,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0ry55HF6sb2c/EQ7llJk/gLdfxE9thT8q35Kd7aVIzo8nYOTIggetBZ3v/8od1yw19tMUKQHEicd+uKVkTgWdQ==" saltValue="TaOOGyGfF2rEJBfapqVP9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fsBYm4F0V8mbaFMuAAkjh4erXfhztzf79Y8r0L1VJhLPzNPOGLobphhse+QIwZPEainZjYjzo60rmMtAcPI76w==" saltValue="Pd/odov8VT4yiaai3WIdZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -36016,7 +36016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3W8072cT3vwanitmv6hcEdmybiQsQwWOsOaF3eVuXVWSmrps9t2hSLPQUrVjL+pIj7v4kw3qJ06EiVMiJmg8qA==" saltValue="Bo8Y3pW6b4J2pmimAcneqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YyEPMCkLwR32DZijXjO4Q40u8V43cMNHDcfWaS+J+t1v6QIfEXFw6ybwod9nSkPsirP3oLlOAptzNNnIYs5PDQ==" saltValue="82lj5zQAQyf2wb3LTEN5Og==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36456,7 +36456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iVrNdvPWpTl/Ww3LIzsGbtyANVbJ2TZ13RmRpDjUkKxtvgbIB76u08utx4iy/HoHqccwlgIYq738EqnraCWt+w==" saltValue="Vrv7/udcJG5zvXlUVXBQwg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hilFqQiYtm/rSzGvsQCn417ql3Qw5eAzL+qP2eenf7K1JnuLoNawTxW7vrog2G4evJZgKqCVfYaDVoE9lxIkIQ==" saltValue="qihai6oRupP7MTTyR6dQew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36883,7 +36883,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="a++awAL42gZtcKJ7KqacZ2ME6MWptLFBYJTqZFKYTbcKv5vWL52ua47iLpNYfqMeKHu38gG5T7TGA0bwOSPttw==" saltValue="If77I4LAJijNc/szR/uIfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kmFMvDe0Oei8Psf8yV9cOtCuw5i3lLC6Y2w3ddXkoxogZd/a8/enioxOWoRLofZJt2A8xqui5nxce93oqj22Mg==" saltValue="nUcpDDyFPd4BjMk9mSbmmQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -37020,7 +37020,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="m38Jht372S+mYKLyksuwrkVxfIyj8D3YtCR7iLk5b3F3MZ/uxi1VUtNZAtOri9ntLVOdvCfEitEWwATyxuW0Bg==" saltValue="yozT2V/VhInes7X+GaiKvg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4I8eTlMxFlDIRXeOTgA2zCgG7XvBiJ24+k0J+XHR5CM+/hVtQBZ83oV5nidRGv4RYdPrFl2PqDVgkJZKomhU/g==" saltValue="syg+vuvArG+L0sBJK1oHGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37226,7 +37226,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RpUZMlYeCyS1BgmB/VuqqWJILe4f+jMR7xN/jZxAgNZT9vYEPTXGMyimOjgtE0aJq4bRrX05UCmoUwG+qah1uw==" saltValue="sSEgUIpqOIYJ4tieaRU5XA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2S/+lShsbnQNVBqzu5bz4tsf6TmQG/3Rw0t3WIzZgm9YtjQNrtHtIhqlnfF28/V5xlHdB2I0CKWR937ri5MzGA==" saltValue="9yf/pDE4+wJFI0fDYsQcgA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37304,7 +37304,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="n2Jftw9ucOw8JS+wI3JKVW+yO3hvPdWhBZGgVOwT/yxKMGmahlhIWawUC7aJr/vxo0fHBsF/vYxf6kpRLa4IkQ==" saltValue="AVk3AJ4xKp5JrkhpDnNvpw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="i/vy4Mgi/fIsZs2/ArbKocMgi55LYqK4H++l7ba3CHTpISMTaGsGKkyHNTUrs9UrQG3wXJmyr4EgzaG500tOgg==" saltValue="httNIawiCwhAmEawevjeGA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37581,7 +37581,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nJUS4wHjjQYVT2zI1O/M2Kzz7pIHd9zvzKqPuTgaEXprTJ/RPCaPFKkwnT+sMUJmmTYMdYFlv2kTn1digOhGjQ==" saltValue="ZNki6zuBXqrcOVq8VIQIxw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="is09MC70IHXg6+Qi7fUA0+eqcjUujyYpubjWkjWmxVnGTgMvemkLbfcONWJZfcUq/MLnCU4ZiCruGQhmUumkiw==" saltValue="FZPhs9Nw6Swt/ar8vTsQog==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37645,7 +37645,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yaFBF317BA72z38jcKbpwkeubLGgDKh/4Kr76g2HUOdCahC4+vEMPQLWJ2N7zVRQZ3Yup/Qe+mcrXFYIymsP4w==" saltValue="/pvUStRrGaCsyuuDk/VFkg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EuT+m0fQHxqDLQRN0Xnv7PGLu0CcOhOj9zdK+owEXLaVy3Mzn2RJ9VNNfrOoG+bIyepQWEhwgnnTJw06LfWPiw==" saltValue="dW5m2LOp1bes/C6f4zai6w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_testing_input.xlsx
+++ b/inputs/fr/demo_testing_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Covid-India-UP\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDB567A-5255-4E3D-8B42-5275EA488C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43F345C5-A999-4AEA-BA76-256BD4EE51BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36" yWindow="24" windowWidth="23004" windowHeight="12336" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -1198,9 +1198,6 @@
     <t>Linéaire (coût marginal constant) [par défaut].</t>
   </si>
   <si>
-    <t>Courbe avec coût marginal croissant</t>
-  </si>
-  <si>
     <t>Coût à l'unité (US$)</t>
   </si>
   <si>
@@ -1229,6 +1226,9 @@
   </si>
   <si>
     <t>Groupe général de la population</t>
+  </si>
+  <si>
+    <t>Courbe avec coût marginal croissant</t>
   </si>
   <si>
     <t>Courbe avec coût marginal décroissant</t>
@@ -5156,14 +5156,14 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
@@ -5624,7 +5624,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XMDtWOAhg9+1Ca5c811+7dWZ4zspddRlUqxPpHQ8oIRTt8YZ+iBBpG9H1WjuGmj535R5Z0tC6c+RIt0lGyojVQ==" saltValue="7fKNvEvIwU0y0tHtBgZDHg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UZKDvHjMDY3qUrWTAn1tjuBMdkrN48WZmrBhcsocw6feW7Flxk2MNGpo5Om8VnOPXrDisC2NGS0i3v6U1be40Q==" saltValue="BrSRUrXEfRr6lt2kmRYuqg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5638,8 +5638,8 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G39"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5648,13 +5648,13 @@
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
     <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="36.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>160</v>
       </c>
@@ -5666,16 +5666,16 @@
         <v>166</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E1" s="53" t="s">
         <v>167</v>
       </c>
       <c r="F1" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="53" t="s">
         <v>204</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6324,7 +6324,7 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B30" s="81">
         <v>0</v>
@@ -6556,7 +6556,7 @@
       <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZPTUTt7Z30xV61ck1POfj5BqgZilHKquYrK9VboV2zjkpla1+PJxnI/qSXdNqHxTIC8XEIliFwH06AUPX3oJsQ==" saltValue="eLS/kBdKDGV7KeXsO/BqvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vrTACms7ZZsoxK0jcyZSrPcfti9HxiHl0jhz/QSbBKnhoIUePQYx4pIjtGHHHfUo1mBysExOEKBGfQqbxX2E2w==" saltValue="cLUwB7vtXEIGeSab9briZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6602,10 +6602,10 @@
         <v>160</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>207</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6720,7 +6720,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xP7SX6wGP1XOLEHySSe2u7Y9wm/dY1OfRlGTpJdpuiroCOnv/4lnhmbm7pW1pba+D0cDZVST29GNl3x70klMZg==" saltValue="pE96oqE53o/RYkx36pQsQg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LdRd2Z+ZkhXiRFy7kQnbnvyR12ggm/OUu5cIhu+eaJ54yZddGPxWjZNijZPdewWRK2gONdopGRehMkU/I9IZNw==" saltValue="gcxyWJjuWBbbU4ZqG2Kvyg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6820,7 +6820,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="x/z00w05OE2YcznLw1d1T/BmVlcM2VYNjTpb6ruAf8etY1iWTQ8N0Qx8prBMhStaMvx2tDxC+Eo0v71mJPLnPg==" saltValue="jE87YXToOQJKXGelV8danw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VqH5JbbSih6BCI8lOMWlDSsEbG/Qfpgjs3MvXQlVY2ajjnSuoC9uCpoyZBZHko46jOT6RFrGXDwm6A8hhFgXVg==" saltValue="qQ9Y5pqSiGcmoOGoeHa2qg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6886,7 +6886,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="26">
         <f>frac_mam_1month * 2.6</f>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B4" s="26">
         <f>frac_sam_1month * 2.6</f>
@@ -6935,7 +6935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VsgSTAOX6U/DVyyc/++6yEUcgpSGBlLXOpYDPAvwq/cv0viFEBJuUaR4hbVUowaY5S4TMeA4q3rR96ZmlgUTpg==" saltValue="OgfOpD5FUo8r7PEmxFoSLw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BuOsbFt3m0FWYhGE6T3yDpo+DV00eCFfMnuBE1IWjRlTmgKnO2AjI0nD1WDtOEggmzVfrwo2nle/M8EE93Sb7g==" saltValue="vMj0CNsIid09T2ApVdUg7A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -6966,7 +6966,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>160</v>
@@ -7340,7 +7340,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" s="87">
         <v>0</v>
@@ -8205,7 +8205,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>173</v>
@@ -8697,7 +8697,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vFp6RCKAjWAa59e6E0xlrzeO9UKE5Re4EByoRNqqmiwSwwatEUcvIRJUvd4dPh3ZJfShEM8ghWqIaehtJq7tUA==" saltValue="2dDavVc/Eqt6HezkVh4GPg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OLsLvhjGIJZFlUE2YhqYk1iyBg7KWcjgXs9NnX48kO96gNLyhpqJDMWECqPuRJHZey1sZTTb75sZzU3bEM43xA==" saltValue="JgngqEO+6pmCx3Dc/OUgHg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8721,7 +8721,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -8735,7 +8735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AcYh/t7quHcC9hdxDtdA/Z+I/LDw9cTaqNjiJIc+R5e7vmhgfHUvX0WM6Ss3bOHbKoLv3TUOpZL5hpS1BbqIDw==" saltValue="fgxUIa5Gtt5sDZZTNXArRw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="x/GKEm8Us4XHkv0D12ZiygKJXrq/h05tORZgOYsTQWVOPRVY3r4WIS/upFF3C+b2eUEfwaSQcTw8rSv+mlJASA==" saltValue="EssjF9hAV6XHWW6ts+lWvw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8753,7 +8753,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
     <col min="3" max="4" width="11.44140625" style="35"/>
     <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
@@ -8943,7 +8943,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OqRgqv3aCEKvf5TuRgrPbvl7CEAqHCqOXwuSn1oFekiQVDNOXiHM7ltsZYeAWdpEVHF9CP7MJ2oJ3iuQQkKEfw==" saltValue="JAUMyXPGzFHhpCW7aJQcKA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="D96Sjvb0LwTzZhLsICIPqIyoA21RK7k6oSPrdulxYKO0h0nDYXZwRwFiKOnJ2ZtakEqg9cUWbmz+T93Zgyh+jg==" saltValue="r2AxSpk1QXTeL7hH9qwR7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -8963,20 +8963,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="16.109375" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="89" t="s">
         <v>160</v>
@@ -9466,7 +9466,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" s="133">
         <v>0</v>
@@ -10072,7 +10072,7 @@
       <c r="N26" s="129"/>
       <c r="O26" s="129"/>
     </row>
-    <row r="27" spans="1:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="56" t="s">
         <v>75</v>
       </c>
@@ -10315,7 +10315,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B33" s="52" t="s">
         <v>173</v>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sdaGMlj01a0rB8FBK1iF7teAnILeNKHBhc4uNPcTX2PIrT3wvJ9ymx8Fhlmb9ttH8TPXk4rrqzRaM1f+8FKg3g==" saltValue="7d3DxHN0B+aaYMiu9IxZZg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Zonw6v0x43OnVUqAkSzDtvBcxpBL4zJBbFgTqlnn2FgalZ1aGY8eywzumkGAVRzAIU08OcCRiS0J4SpuNbftPA==" saltValue="jiBh1wJRH+U8NCeDSjIY3g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10774,19 +10774,19 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.88671875" style="35"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -11336,7 +11336,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B30" s="133" t="s">
         <v>7</v>
@@ -11525,7 +11525,7 @@
       <c r="K39" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dRLyvCBuNmGxjVNFrJa3ip6v0EwSLaFWv37S70C3C0W1HBnF/EwFleyURhNEUMEvzwWihJDXb1obtAL6uZWXcQ==" saltValue="C3BKLPeaKL2y0dj3XFg1Lg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8i39Xk3/w/G01pqWDLeIuMvCxLGjpedWd+2h+Ks+pS1LUPkL1uf+WjJcFcJD534lB+2AJAIcvPSb3SIKtMs6dQ==" saltValue="aHMlifQS1xZkVV4wfxpEBw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11541,19 +11541,19 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.88671875" style="35"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -11899,7 +11899,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="s2ARnj6ndq1z/3bpFAtm69wXALm2C9wiWC4Gup2NwVALP7778oTZCnIiNZD174uHSNi9Oh7KkOdl3NUaDcCuOA==" saltValue="/zi9lhwJfUSmHhJivfkzVA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LUDp6WbPbhWYtrZuY4SyJOMMLyCeIc4xb3whstLST5qdI3/skjQLeP4gBNhbPozA82lT36QXt5VXLvAQbr9aHQ==" saltValue="47UhKJuYzR4D3O9phZW3fQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12988,7 +12988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LazENytQKTQT4FZs+CQf8pckZRafNn08Oo5ORLjd2qLXrL1WWiPB+BnbGRNq4j0ex0sj8/4ayQpHqBZK4tLF0g==" saltValue="6A/D//T6pMz8c6ovGX6Zrw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+Z+JHjtQnj9+lIY6mWL+8ATWfEA4KoF+2WuQss0RmQ0TECtQbMMmFQJDBIHlqQ+dH1llXznC/hpL7uXK3llWIw==" saltValue="L3yrLg7C8SjgmhGIfaYE9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13010,12 +13010,12 @@
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.88671875" style="35"/>
+    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -16805,7 +16805,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ujgXL6Ojgw0qdjQGnw+jYKfrLXAWvagoF3hzycNu9Rr3TgAazWyC1vcvn72CD09kOlzEjHipJ+O9QKmo/IYFUg==" saltValue="LdAG6sbsVKlYtyDxd7YjoA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YLqrqWvMz2ryPbI3YDoqnJHgI+44dRcyqEiIRI+ckDu02Sj67PWDHC8s74HSIy6VpJsr0Kww/sHQ0c4gAMFiqw==" saltValue="w5qxja6nDzEDOgksvCSqNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -16876,7 +16876,7 @@
   <cols>
     <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
     <col min="7" max="16384" width="16.109375" style="35"/>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GegpM+mNWzuDyw2u9yBA9I55NDST+NwfsNxE0ImLqqFg3KurAPCUdpRJidiT8KB4nti7/laPs5sQwRjXSRsD3g==" saltValue="NBNkfsbzxRd+Mt0zdcOSBg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ymtbkx//rdsu8AHsUi5WeKZN9gN8rC8YImw4TkWAsG5bjT0xF9kvtVv2EtbXWNW+iYSreoDi1iJBhrRzLrB/sg==" saltValue="LQe03vCnigEgePwpGwpZXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -18107,15 +18107,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.88671875" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.88671875" style="35"/>
+    <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.25">
@@ -18590,7 +18590,7 @@
       <c r="O17" s="118"/>
       <c r="P17" s="118"/>
     </row>
-    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>269</v>
       </c>
@@ -18949,7 +18949,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C32" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -18977,7 +18977,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D33" s="136">
         <v>1</v>
@@ -19064,7 +19064,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D36" s="136">
         <v>1</v>
@@ -19092,7 +19092,7 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C37" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D37" s="136">
         <v>1</v>
@@ -19179,7 +19179,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C40" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D40" s="136">
         <v>1</v>
@@ -19207,7 +19207,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D41" s="136">
         <v>1</v>
@@ -19294,7 +19294,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D44" s="136">
         <v>1</v>
@@ -19322,7 +19322,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D45" s="136">
         <v>1</v>
@@ -19409,7 +19409,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C48" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D48" s="136">
         <v>1</v>
@@ -19437,7 +19437,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C49" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D49" s="136">
         <v>1</v>
@@ -19524,7 +19524,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C52" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D52" s="136">
         <v>1</v>
@@ -19552,7 +19552,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C53" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D53" s="136">
         <v>1</v>
@@ -21746,7 +21746,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C142" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D142" s="139">
         <f t="shared" ref="D142:H142" si="26">D32*0.7</f>
@@ -21771,7 +21771,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C143" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D143" s="139">
         <f t="shared" ref="D143:H143" si="27">D33*0.7</f>
@@ -21849,7 +21849,7 @@
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C146" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D146" s="139">
         <f t="shared" ref="D146:H146" si="30">D36*0.7</f>
@@ -21874,7 +21874,7 @@
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C147" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D147" s="139">
         <f t="shared" ref="D147:H147" si="31">D37*0.7</f>
@@ -21952,7 +21952,7 @@
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C150" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D150" s="139">
         <f t="shared" ref="D150:H150" si="34">D40*0.7</f>
@@ -21977,7 +21977,7 @@
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C151" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D151" s="139">
         <f t="shared" ref="D151:H151" si="35">D41*0.7</f>
@@ -22055,7 +22055,7 @@
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C154" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D154" s="139">
         <f t="shared" ref="D154:H154" si="38">D44*0.7</f>
@@ -22080,7 +22080,7 @@
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C155" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D155" s="139">
         <f t="shared" ref="D155:H155" si="39">D45*0.7</f>
@@ -22158,7 +22158,7 @@
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C158" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D158" s="139">
         <f t="shared" ref="D158:H158" si="42">D48*0.7</f>
@@ -22183,7 +22183,7 @@
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C159" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D159" s="139">
         <f t="shared" ref="D159:H159" si="43">D49*0.7</f>
@@ -22261,7 +22261,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C162" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D162" s="139">
         <f t="shared" ref="D162:H162" si="46">D52*0.7</f>
@@ -22286,7 +22286,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C163" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D163" s="139">
         <f t="shared" ref="D163:H163" si="47">D53*0.7</f>
@@ -24348,7 +24348,7 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C252" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D252" s="139">
         <f t="shared" ref="D252:H252" si="120">D32*1.2</f>
@@ -24374,7 +24374,7 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C253" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D253" s="139">
         <f t="shared" ref="D253:H253" si="121">D33*1.2</f>
@@ -24455,7 +24455,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C256" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D256" s="139">
         <f t="shared" ref="D256:H256" si="124">D36*1.2</f>
@@ -24481,7 +24481,7 @@
     </row>
     <row r="257" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C257" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D257" s="139">
         <f t="shared" ref="D257:H257" si="125">D37*1.2</f>
@@ -24562,7 +24562,7 @@
     </row>
     <row r="260" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C260" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D260" s="139">
         <f t="shared" ref="D260:H260" si="128">D40*1.2</f>
@@ -24588,7 +24588,7 @@
     </row>
     <row r="261" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C261" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D261" s="139">
         <f t="shared" ref="D261:H261" si="129">D41*1.2</f>
@@ -24669,7 +24669,7 @@
     </row>
     <row r="264" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C264" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D264" s="139">
         <f t="shared" ref="D264:H264" si="132">D44*1.2</f>
@@ -24695,7 +24695,7 @@
     </row>
     <row r="265" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C265" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D265" s="139">
         <f t="shared" ref="D265:H265" si="133">D45*1.2</f>
@@ -24776,7 +24776,7 @@
     </row>
     <row r="268" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C268" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D268" s="139">
         <f t="shared" ref="D268:H268" si="136">D48*1.2</f>
@@ -24802,7 +24802,7 @@
     </row>
     <row r="269" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C269" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D269" s="139">
         <f t="shared" ref="D269:H269" si="137">D49*1.2</f>
@@ -24883,7 +24883,7 @@
     </row>
     <row r="272" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C272" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D272" s="139">
         <f t="shared" ref="D272:H272" si="140">D52*1.2</f>
@@ -24909,7 +24909,7 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C273" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D273" s="139">
         <f t="shared" ref="D273:H273" si="141">D53*1.2</f>
@@ -26232,7 +26232,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZewB2oxmSnC2hZqSwtSaScam0Xnyzlnza5U1xcvUex3qg4jtbsabKdcwIfkGcIpq4pWfC+0foT1xbPHBaCxu0A==" saltValue="NOvQ/tu88cGcBGLMC76ZRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3uEtZ1SmebVEw1wDkTAKwYJ2L47Emjb2CBiSHtEu1wH53pFYCzaKYI+uRQTutp3DUBZgFWM+8dIGkbgnOkASiw==" saltValue="pVduBLUQhM9Ze43Ab6wbvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26252,16 +26252,16 @@
       <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.88671875" style="35"/>
+    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26378,7 +26378,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="117" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Gj0+K9OzFu1Fs8fjDC94XDE7WdGEjsZNjBKPIwZjuni+Dml45yRY5xYOO3hnx35M3LcvNeVULW1EqpkHMqyRyQ==" saltValue="Sj2ITYY+UTs6yJlMG/LHpQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sMsOZQkStbLqJeh0bgYz/9bmfMZNGzTxRwzmvYDorYx6a9QKFz2zNd/ZjUsYYnSF8xDDr3wyZmljsQUIw30Rlw==" saltValue="YrtmTew3oD0CSLAEFYlyKw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27347,9 +27347,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
     <col min="2" max="6" width="16.109375" style="35"/>
-    <col min="7" max="7" width="17.109375" style="35" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
     <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
     <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
@@ -28199,7 +28199,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="feKSV1iHFTA2eo2dk0j4a795YdZzhMAAIj9C7zDcd2f0lVOkwnudmCq5MOss8GYYe1TqqPJfeWUoEqdudDCuPQ==" saltValue="BWBkZh4ngkD49QMWQWOKPw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="d8Lh6xaqQXBx8CxWMt0Jidt4fv2RNpNXcqiu6ZEGY8ZtfJJhAO8qg5KMI1hSqwIu5d8zi00nW+5+TOZPeMS7Nw==" saltValue="ud3EoZK/lz5MPfHvVPJqlQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28219,12 +28219,12 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.88671875" style="35"/>
+    <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28715,7 +28715,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="59" t="s">
         <v>189</v>
       </c>
@@ -28805,7 +28805,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C15" s="136">
         <v>1</v>
@@ -29034,7 +29034,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="103" t="s">
@@ -29768,7 +29768,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B38" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C38" s="136">
         <f t="shared" si="11"/>
@@ -30062,7 +30062,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="40"/>
       <c r="C47" s="103" t="s">
@@ -30796,7 +30796,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B61" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C61" s="136">
         <f t="shared" si="27"/>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Brx7JfCJuKhvSzGCNnTJUuCkTzMOFZSioKVnzpKlmnXmrPvW6zhEEBhM0XGqBOtFhao4X626PNyFSllvut8k6Q==" saltValue="7rpLo9TryMVBdb7fy+2neQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8RdRsE3oeL0qPwg2qCa0f8T+dBB1HGa+QkzxSQzoo1qNbnvyKvhW4OgvNFymUXAxibj9Ap+o0D/QJiLi61+82Q==" saltValue="PF2D/uuhUMR6UGBDn1hFaw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31106,12 +31106,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="35" customWidth="1"/>
     <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.88671875" style="35"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -31370,7 +31370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="i02fVAHRjsaxcljRuXO487jA9c2+AsLswYxrZDKzV2f7wGqPzBQw9Gf/cFkhIZb5FVRCc5BlMCbkuBIMXOMWRQ==" saltValue="CXCUcvtOBo6tdy95bXxX4w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UQQDoPlM9LEhyw8ee4wLsvYYGMd/gvqhxuXxWdkifze+4XGoxp0qXCSaj9EexwZUUN6xcxR/1t5JcwBeDofWSw==" saltValue="lFjMlHnefW4xHfbzGLW4/g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -31390,17 +31390,17 @@
       <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" style="35"/>
+    <col min="7" max="7" width="12.77734375" style="35"/>
     <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.88671875" style="35"/>
+    <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -31500,7 +31500,7 @@
         <v>192</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C5" s="52" t="s">
         <v>334</v>
@@ -31543,7 +31543,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C7" s="52" t="s">
         <v>334</v>
@@ -31589,7 +31589,7 @@
         <v>185</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C9" s="52" t="s">
         <v>334</v>
@@ -31632,7 +31632,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C11" s="52" t="s">
         <v>334</v>
@@ -31675,10 +31675,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C13" s="52" t="s">
         <v>334</v>
@@ -31721,7 +31721,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C15" s="52" t="s">
         <v>334</v>
@@ -31767,7 +31767,7 @@
         <v>170</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C17" s="52" t="s">
         <v>334</v>
@@ -31811,7 +31811,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>334</v>
@@ -32710,7 +32710,7 @@
         <v>192</v>
       </c>
       <c r="B60" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C60" s="52" t="s">
         <v>334</v>
@@ -32763,7 +32763,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C62" s="52" t="s">
         <v>334</v>
@@ -32819,7 +32819,7 @@
         <v>185</v>
       </c>
       <c r="B64" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C64" s="52" t="s">
         <v>334</v>
@@ -32872,7 +32872,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C66" s="52" t="s">
         <v>334</v>
@@ -32925,10 +32925,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B68" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C68" s="52" t="s">
         <v>334</v>
@@ -32981,7 +32981,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C70" s="52" t="s">
         <v>334</v>
@@ -33037,7 +33037,7 @@
         <v>170</v>
       </c>
       <c r="B72" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C72" s="52" t="s">
         <v>334</v>
@@ -33090,7 +33090,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C74" s="52" t="s">
         <v>334</v>
@@ -34160,7 +34160,7 @@
         <v>192</v>
       </c>
       <c r="B115" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C115" s="52" t="s">
         <v>334</v>
@@ -34213,7 +34213,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C117" s="52" t="s">
         <v>334</v>
@@ -34269,7 +34269,7 @@
         <v>185</v>
       </c>
       <c r="B119" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C119" s="52" t="s">
         <v>334</v>
@@ -34322,7 +34322,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B121" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C121" s="52" t="s">
         <v>334</v>
@@ -34375,10 +34375,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B123" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C123" s="52" t="s">
         <v>334</v>
@@ -34431,7 +34431,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C125" s="52" t="s">
         <v>334</v>
@@ -34487,7 +34487,7 @@
         <v>170</v>
       </c>
       <c r="B127" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C127" s="52" t="s">
         <v>334</v>
@@ -34540,7 +34540,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B129" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C129" s="52" t="s">
         <v>334</v>
@@ -35492,7 +35492,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6izwyItBY0yBQqvvBJL1J+KBlCqUwJDZgdnFNLbvWRaGmY48jWB6LD6nn9KhanXxVTPrJuSNxjVRqGtoflCuSg==" saltValue="dOK80ZdkIM7A93O7czR86g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Xt0BPShq5/LjHePTWAUxwNB0MsV8wYeA+2PKG3DAAS1gDswg7n2c/JcQtlbFTlcn2Y4dwjQ9aoVyPTmGbepzAg==" saltValue="s+c6fpFH7jcCY+q7CQ4R8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -35512,13 +35512,13 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.109375" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.88671875" style="35"/>
+    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -36016,7 +36016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PSK83u9ApLYBU69IyELf/w0xQXL8WjKI+EUGY2m1EVh8qhGEKTWnLWsrA2CDzUaroBQOn5wEGsEhH4UPzfeBuA==" saltValue="yPK8wOhqMKIK8kdMWOkIuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JpoOxLktiYnju4/yybSW+3gDYIfxQHxVIX8YYQB76TkZexuhzknr09lBKwWHoIu66J3VVhAyWykcyyA4KdiZQA==" saltValue="Ml9DaQpMBT3AhlPB3e4BbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36038,7 +36038,7 @@
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -36456,7 +36456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Nf42zQ3+tn3/b67ZadES67UQNo+quQ4Sv3jCciectDkxqNf2DAcf/rgJrb8WBzk3aRmKYeZB6Snko2CA0WJpTw==" saltValue="BKQMt6UaZLXlmSAi7iDtBw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="T5dXRqAwzIYM2L7cCQO+8VeF4FhYdBqpdrFnYwHr/GDFXOoLDI3bm/XdeU2mLxalGacF1bOoJvC7LwzhayIMWA==" saltValue="gVASYZDi1jdQVA86A4/jKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36883,7 +36883,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uiut6JRSoNEfYgSOfmtsGK736hlL60ZsTgQM67i/UAR+THbMlVv3niJ2nwC2K3gQ+QTm3S4wal/3XWzjpUedlA==" saltValue="6JYrmzGMtuscDkQXCoiAeA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="atf2x1UpwbhMDaejRIF5xJPzimZP55v5YUx//SXfwuwOcuHnKpBFfR0o24Mz3JJ9P+4xAKtNEdruJoclKCBIZQ==" saltValue="vUlsVovximb9lQeI7rrJWg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -37020,7 +37020,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0c1GGEUIIglJeXQtndTbpaajj9dQVgd/VU7IkSmLRKChrH4titFeOj9uB+mzSbd7+9zC2CY6JSf4k1APUjReRA==" saltValue="QHT64Ntdif0rM6x7LMovFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fSP5ZU7bcU+hCKtaie5V0hdxi0d80ZOnEeaUWvhS0y09QqEit+K5v1DQ+BClDfMzsY2UgCO/mEhiTvbuByPJWg==" saltValue="O40H3zAwUDQnlkeP2yFEJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37226,7 +37226,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="abGRTu/1oEbRe3H7lY1iQba2AFwQoUZW/ihLI/l0NJWvRN3yOoD56hmTNcc6FvbnMuhlTFE0ULmSRrSVs2Ju9A==" saltValue="3N/R16EcF8tznmM5XHLF/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2nnwA6h3EFXHxu9jsvxjqZPigzGmUfU4o9DX2Rrs/YLWCZJKxsXOSiDaMwP+ZVnhxLVvBVt5RWQbr0wtOuFwuQ==" saltValue="6d6mygsGd6xJr3FKpTT04Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37244,7 +37244,7 @@
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -37304,7 +37304,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8FOADPyxdy6cfbCQkRPybRuIUYyCKsBaZuMJzNiXwrtUfvGMZsjMgsERYmZh5VMiy2WlJF1Z5JBBHsbLFZsuKw==" saltValue="ds4USt1SCuo37mFbvWVY8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GjwxeeLfyGHaMzHMnXrzZLi3ykDsrn9eHW6++lrUUUm3x8p5KplyvjJ49daI5g93yf2Z9+I0IF9XIehKvjKFAA==" saltValue="hODGkRv0LK/UKbx9sdzZbA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37581,7 +37581,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="P51kUbv2BqJLpsdVNuX9q4cs2pvP+bwz2ypjT9W+ZTbK0N/iI579FygNdwFvAmX1LlMTK+etIuRj3/I0gMCJpQ==" saltValue="wXIWosGlhV11Sb8GBDdazQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fxIlI0HFe/Q0zRfB7hI9AiKgjsAwrnfSfh6uI5+dsQvR5XluCBBMKbcCq0ReBKa5svnJATdPmiAF7PjrH6Qbhw==" saltValue="5J58PXQr2u7w52Z0vAribw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37600,7 +37600,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
@@ -37645,7 +37645,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EwIZSZmo43p1idxGrynHA5qAxnrcV61F/+tPwDq1oy3exiwmA1i1ZhTDWhvwxqtDHIv/B7XmQ+OrODfCfTEChg==" saltValue="36UlxBc24sEAruMgQDd6xQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IR8qPBrH9r9wQxyykk4VM9xrftQNYCQkU7luZfyQctPJWC/ODacLGf36s/8r+A0vv25GElBEPhyd0bo/LAvMXA==" saltValue="4rmemTGqmsO2CbboNUolSQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_testing_input.xlsx
+++ b/inputs/fr/demo_testing_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Covid-India-UP\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43F345C5-A999-4AEA-BA76-256BD4EE51BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF5A2A98-4ACA-4420-BD9A-4BE8E906CBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36" yWindow="24" windowWidth="23004" windowHeight="12336" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5624,7 +5624,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UZKDvHjMDY3qUrWTAn1tjuBMdkrN48WZmrBhcsocw6feW7Flxk2MNGpo5Om8VnOPXrDisC2NGS0i3v6U1be40Q==" saltValue="BrSRUrXEfRr6lt2kmRYuqg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hZweEGT9UCICUXXrbmctB2yHd8VBP+BS3PcG1/1JzZPjMQwXLzByZoSic2kCjmSQxqj2l+lBOGs7LBXqjPQxow==" saltValue="lUWgqy9zj8hCFPZeNdZ/LA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6556,7 +6556,7 @@
       <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vrTACms7ZZsoxK0jcyZSrPcfti9HxiHl0jhz/QSbBKnhoIUePQYx4pIjtGHHHfUo1mBysExOEKBGfQqbxX2E2w==" saltValue="cLUwB7vtXEIGeSab9briZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WbvB8PYcqcDHCzhkFrAXyb7qL/FGT/BVZrtM7u1D6Vts0k/ke8nVe+kJgBjog1fv///oZZAYV6/EM1zUnk4G8g==" saltValue="ZlNhWDwVKd6OvHbdR4M4dA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6720,7 +6720,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LdRd2Z+ZkhXiRFy7kQnbnvyR12ggm/OUu5cIhu+eaJ54yZddGPxWjZNijZPdewWRK2gONdopGRehMkU/I9IZNw==" saltValue="gcxyWJjuWBbbU4ZqG2Kvyg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="o/yP+/tcd10sR+5C95gC4vYJ+r/pzXwiL/7S6Ls96dxiz0AUjUQ/F2VRLmajBn6QTNp1xQZLfAfgiVojy2nU8A==" saltValue="Proh8JWG3jLtmRu3bVxxkQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6820,7 +6820,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VqH5JbbSih6BCI8lOMWlDSsEbG/Qfpgjs3MvXQlVY2ajjnSuoC9uCpoyZBZHko46jOT6RFrGXDwm6A8hhFgXVg==" saltValue="qQ9Y5pqSiGcmoOGoeHa2qg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ox4LAZhgnWklI/ge/gxNfNzf2FAj4TJ6rYpg7Hzrp/DvdpZmTE7Zm/tcdecTgikl6U80oZ9fIKROELXiVbx1FA==" saltValue="AfjFeOjj82lC+tvlK8o8yw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6935,7 +6935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BuOsbFt3m0FWYhGE6T3yDpo+DV00eCFfMnuBE1IWjRlTmgKnO2AjI0nD1WDtOEggmzVfrwo2nle/M8EE93Sb7g==" saltValue="vMj0CNsIid09T2ApVdUg7A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WaJGAn8ivRwK3opkXJ/ZrHxR/M8OAjEYnCJWw3LSDiL5gszRH67SiJdxUwvPEdXEFwo6uxu+CUetuc/GjAfLww==" saltValue="+HfWovbdq6XM1gxsvtgr4A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -8697,7 +8697,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OLsLvhjGIJZFlUE2YhqYk1iyBg7KWcjgXs9NnX48kO96gNLyhpqJDMWECqPuRJHZey1sZTTb75sZzU3bEM43xA==" saltValue="JgngqEO+6pmCx3Dc/OUgHg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jPKDL/6MknwgPESue+AiMnhPWLLCJ+zhfA+Y/lR47kQP9tREBJ2rOfwaZt2eY2xSOQUMcievUZo+0W2dvTjeVg==" saltValue="PXDWVh8/EVQEP5fG1CB4Lg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8735,7 +8735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="x/GKEm8Us4XHkv0D12ZiygKJXrq/h05tORZgOYsTQWVOPRVY3r4WIS/upFF3C+b2eUEfwaSQcTw8rSv+mlJASA==" saltValue="EssjF9hAV6XHWW6ts+lWvw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aaVV5QcL3pQaeUeKcKNqxI9GiLm+xLUpazWZUxPpFYUbwq5pX+ijdMRdfdCsHNEwS/UHx8Z7pS78tuh6ehXVxw==" saltValue="rAK/RRIp8pnxdsFDP36pug==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8943,7 +8943,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="D96Sjvb0LwTzZhLsICIPqIyoA21RK7k6oSPrdulxYKO0h0nDYXZwRwFiKOnJ2ZtakEqg9cUWbmz+T93Zgyh+jg==" saltValue="r2AxSpk1QXTeL7hH9qwR7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ijvmTC32ATmSk3kDPuIoe4884GnO49uHu0qVcvohyhfJlhRSnQGV4uvVCIAFyBajNeML9YpXBaHVJcmW/WaVmg==" saltValue="WkHINMTF0S45YgoYBPE/kQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Zonw6v0x43OnVUqAkSzDtvBcxpBL4zJBbFgTqlnn2FgalZ1aGY8eywzumkGAVRzAIU08OcCRiS0J4SpuNbftPA==" saltValue="jiBh1wJRH+U8NCeDSjIY3g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="k5PcH8b5ju3/YqUAHLvKXEiELVFVxCvMrw4XhWBKDEwT4VG5VC/jOhBL3MIP1MLtgU0D054OBlvHnwO4ss/gxQ==" saltValue="V+8+PFOUIx4qfRuxPqLuFA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11525,7 +11525,7 @@
       <c r="K39" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8i39Xk3/w/G01pqWDLeIuMvCxLGjpedWd+2h+Ks+pS1LUPkL1uf+WjJcFcJD534lB+2AJAIcvPSb3SIKtMs6dQ==" saltValue="aHMlifQS1xZkVV4wfxpEBw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="R+1qJ8JkbYCjPlw5YUkp4XlnDIAR3RQJvav/bYCyIXUXsI1dSOCIuD+JdXdKft9QofNfI2IE0K5zvLMspxgfcg==" saltValue="79MZnXS/VGZWe3j5023rLw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11899,7 +11899,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LUDp6WbPbhWYtrZuY4SyJOMMLyCeIc4xb3whstLST5qdI3/skjQLeP4gBNhbPozA82lT36QXt5VXLvAQbr9aHQ==" saltValue="47UhKJuYzR4D3O9phZW3fQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="S/ZfotvhbCMDOQ7D1xk9C6juGL3hbGlRrY+NbXWfpz4j2M/cIZ1jvhmeocSHvJQwwxsTkCHZ32HyKM2V86nLXA==" saltValue="urCreobxyBiaP+DbZ6LI9w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12988,7 +12988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+Z+JHjtQnj9+lIY6mWL+8ATWfEA4KoF+2WuQss0RmQ0TECtQbMMmFQJDBIHlqQ+dH1llXznC/hpL7uXK3llWIw==" saltValue="L3yrLg7C8SjgmhGIfaYE9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZDlqLmDz2RsWgM5m9k5p8QzDKgkyWFmLw8Zgj03pkrdWL0BRAUoNDwYGpNmR2gk0nMwDvRwmQMUyXnChiEYeKA==" saltValue="1ho0KJat/VIyPvVOObP24g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -16805,7 +16805,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YLqrqWvMz2ryPbI3YDoqnJHgI+44dRcyqEiIRI+ckDu02Sj67PWDHC8s74HSIy6VpJsr0Kww/sHQ0c4gAMFiqw==" saltValue="w5qxja6nDzEDOgksvCSqNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="O0bCk/Wkp1q/ZJB1uXWPa5Efh/fLAcOP25UdtaOLb4O8Y2hst4GIqm44MZtg+Ztu8IeLWVCPmIsZpvnoIXaDEA==" saltValue="TUJdXiQivU4UmiDAKzXPZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ymtbkx//rdsu8AHsUi5WeKZN9gN8rC8YImw4TkWAsG5bjT0xF9kvtVv2EtbXWNW+iYSreoDi1iJBhrRzLrB/sg==" saltValue="LQe03vCnigEgePwpGwpZXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HYKwcPkUJwxnCBCMpR3XZJWN3ERUt/IBJQSR3f69BqxBEfptFFtwiHy00FoWs9oQB8T/s7Z6Jd9wKgDTc0cMxQ==" saltValue="CqAsCbGgEsyqDGfAokxhmA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26232,7 +26232,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3uEtZ1SmebVEw1wDkTAKwYJ2L47Emjb2CBiSHtEu1wH53pFYCzaKYI+uRQTutp3DUBZgFWM+8dIGkbgnOkASiw==" saltValue="pVduBLUQhM9Ze43Ab6wbvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="W65acQ4sLKqXXrQgTGEWR1XWpcmxbwKTfwPbZ+t/3u9+2Iy7GgTMI7DAAnSCV/P51bOfAszoUEk+TAVvv6wVLw==" saltValue="3Gjm3VoLs207lL1S3gRhRg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sMsOZQkStbLqJeh0bgYz/9bmfMZNGzTxRwzmvYDorYx6a9QKFz2zNd/ZjUsYYnSF8xDDr3wyZmljsQUIw30Rlw==" saltValue="YrtmTew3oD0CSLAEFYlyKw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="m3tdhqrY6EikT/ywt6+3ykmv0uDXR6rE6IUgm9dSp3E7WKONx1Nf4K0wehZN9WcaDmdlkjjHKTGM/djV4Ru8mA==" saltValue="GxbKeSc/Mf85HcsAGddOPg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28199,7 +28199,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="d8Lh6xaqQXBx8CxWMt0Jidt4fv2RNpNXcqiu6ZEGY8ZtfJJhAO8qg5KMI1hSqwIu5d8zi00nW+5+TOZPeMS7Nw==" saltValue="ud3EoZK/lz5MPfHvVPJqlQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2C4DuVwV1jWaC/dIocv6xLkhUNivvDQSgdoWNa/FUVfEVsOREiGDFKb1MHvorado4D6Ae6Qzl8AyBBsYPhHW/Q==" saltValue="Ml10vhLyX84iNmBY6jqfGg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8RdRsE3oeL0qPwg2qCa0f8T+dBB1HGa+QkzxSQzoo1qNbnvyKvhW4OgvNFymUXAxibj9Ap+o0D/QJiLi61+82Q==" saltValue="PF2D/uuhUMR6UGBDn1hFaw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oXydhj9yROKWr2oUWnShZwY07Wylf1XuXHpye5sC2FzIXogz4R0LJjVA6qJT5RbphYZrsRltsbFLO3cgnz8zNg==" saltValue="mfjrBv3W9Ir3WaIyswnWSA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31370,7 +31370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UQQDoPlM9LEhyw8ee4wLsvYYGMd/gvqhxuXxWdkifze+4XGoxp0qXCSaj9EexwZUUN6xcxR/1t5JcwBeDofWSw==" saltValue="lFjMlHnefW4xHfbzGLW4/g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Zxbe9lYoJSu30RyTDJH+9tAO4XpWLLSOUln3WhnucUFKWGrCC131ba/fjW6D/UIzOenv7cNPgM3612/l4OK8BQ==" saltValue="j+CnKJSs3IILoUYIov+Ybw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -35492,7 +35492,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Xt0BPShq5/LjHePTWAUxwNB0MsV8wYeA+2PKG3DAAS1gDswg7n2c/JcQtlbFTlcn2Y4dwjQ9aoVyPTmGbepzAg==" saltValue="s+c6fpFH7jcCY+q7CQ4R8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QOPrhEBk0A/CrOY1a+8eVbVgBsOZO6qkMmIwEJV1fm7C7oYe/2yaU3JdAPsMmJMuiEs5GIu2j8pbBqyfaYnU1g==" saltValue="Ee2Jv35a/1jeUlVLXYVa+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -36016,7 +36016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JpoOxLktiYnju4/yybSW+3gDYIfxQHxVIX8YYQB76TkZexuhzknr09lBKwWHoIu66J3VVhAyWykcyyA4KdiZQA==" saltValue="Ml9DaQpMBT3AhlPB3e4BbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="s+pfad7sM31zM9XI44YjV06rlzOSsRmUhbtVJQ96m8A/FIRkHilEJs48KBK1FO4WbcICwhyATFSKWC6ifpFTng==" saltValue="r4gfl5D1q52EQKt+dHyw/g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36456,7 +36456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="T5dXRqAwzIYM2L7cCQO+8VeF4FhYdBqpdrFnYwHr/GDFXOoLDI3bm/XdeU2mLxalGacF1bOoJvC7LwzhayIMWA==" saltValue="gVASYZDi1jdQVA86A4/jKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6Cn2jjul1ybTVP1S0FSf6QqKh3qZneqVt8m0PFC8Dft5cnnWvoZNk7G+7kvmATkLnJwM8JthD3tmdr5JVLfS/w==" saltValue="u5H8FKsRM8atp9Kn2rekhg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36883,7 +36883,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="atf2x1UpwbhMDaejRIF5xJPzimZP55v5YUx//SXfwuwOcuHnKpBFfR0o24Mz3JJ9P+4xAKtNEdruJoclKCBIZQ==" saltValue="vUlsVovximb9lQeI7rrJWg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7HIZWfb5nDDAYsXPtkCkdJwwXA+hG+BEuRB8JUH5gaxXLDfRph09VMM4jej0w7/qRS2Ms7o7JTqOclZ+d7tuPg==" saltValue="8e85TTy1yoSqTc3zebKh1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -37020,7 +37020,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fSP5ZU7bcU+hCKtaie5V0hdxi0d80ZOnEeaUWvhS0y09QqEit+K5v1DQ+BClDfMzsY2UgCO/mEhiTvbuByPJWg==" saltValue="O40H3zAwUDQnlkeP2yFEJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iby46Y0+EPuvldwU/r1M+RRW5tzoSB9HxyBPXJdqJuD18Mbsj4kKeoBj2ZK6SyWG0O/zuSvqukTALZmyWFfpfA==" saltValue="5SoOEUxA0VYcTpRAf2T+AA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37226,7 +37226,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2nnwA6h3EFXHxu9jsvxjqZPigzGmUfU4o9DX2Rrs/YLWCZJKxsXOSiDaMwP+ZVnhxLVvBVt5RWQbr0wtOuFwuQ==" saltValue="6d6mygsGd6xJr3FKpTT04Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fYaA8NgNuSXE81JdDpD7sJqmdz5RtWinDRi33MaLoHVYSmDgs/2bVsTDnL0auhrZo8GbtwhbUzNe6+HXTeyh7w==" saltValue="BjvjyXByu7PDbRdeSiRHJg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37304,7 +37304,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GjwxeeLfyGHaMzHMnXrzZLi3ykDsrn9eHW6++lrUUUm3x8p5KplyvjJ49daI5g93yf2Z9+I0IF9XIehKvjKFAA==" saltValue="hODGkRv0LK/UKbx9sdzZbA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NVHGGvDGC9K/B70R1MEenWgNi1YxqT4YkptV57TfUMtGWDSEDBM7jGL7RkCzNtLfaHR+vHWnR/fr/QdCg7Dhtw==" saltValue="Dp8IEHp106DTEF+tT/qVbg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37581,7 +37581,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fxIlI0HFe/Q0zRfB7hI9AiKgjsAwrnfSfh6uI5+dsQvR5XluCBBMKbcCq0ReBKa5svnJATdPmiAF7PjrH6Qbhw==" saltValue="5J58PXQr2u7w52Z0vAribw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lq6L6Z0C8vCXpftpLECPmCFNNBpgs/mEi1Bb8s5Y4kVQmaYYFSMBq7PvpjP3y1R4Th9+BS4xGS3V4OlE8+Ep7w==" saltValue="M7LowQv+rN2c/2EWMlOzXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37645,7 +37645,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IR8qPBrH9r9wQxyykk4VM9xrftQNYCQkU7luZfyQctPJWC/ODacLGf36s/8r+A0vv25GElBEPhyd0bo/LAvMXA==" saltValue="4rmemTGqmsO2CbboNUolSQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="07TPIex3YyHE4XAcBJFK0PthuglhnD5XJNB+ME9IWZCejryFG7gFS3wjI1c1XaoU/r5SCk9juCR8+PmSSX0r2A==" saltValue="MZFRfMQ2yxuBzODQuAmxEg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_testing_input.xlsx
+++ b/inputs/fr/demo_testing_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F608A0C1-3BEB-4CF1-A087-74FDFED0B8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D1BB8B-8692-4D2F-920B-847A6E7555E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -2909,15 +2909,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="728">
@@ -5093,18 +5093,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="38.7265625" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="8"/>
+    <col min="1" max="1" width="27.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -5115,14 +5115,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
@@ -5131,7 +5131,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
@@ -5140,7 +5140,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -5209,7 +5209,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
@@ -5252,7 +5252,7 @@
       <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="116">
+      <c r="C20" s="115">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
         <v>0</v>
       </c>
@@ -5340,17 +5340,17 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="115">
+      <c r="C33" s="114">
         <f>SUM(C29:C32)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -5454,7 +5454,7 @@
       <c r="B48" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="116">
+      <c r="C48" s="115">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
         <v>0.495</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5578,19 +5578,19 @@
       <selection activeCell="F2" sqref="F2:G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="40" customWidth="1"/>
     <col min="2" max="2" width="20" style="28" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="36.26953125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="36.21875" style="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="14.453125" style="28"/>
+    <col min="7" max="7" width="22.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>160</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>157</v>
       </c>
@@ -6518,19 +6518,19 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="28"/>
+    <col min="2" max="2" width="47.77734375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -6671,13 +6671,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1796875" style="28" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="28"/>
+    <col min="1" max="1" width="30.21875" style="28" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -6770,7 +6770,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -6885,19 +6885,19 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>211</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>86</v>
       </c>
@@ -7505,7 +7505,7 @@
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>100</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>169</v>
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>180</v>
@@ -7650,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>181</v>
@@ -7886,7 +7886,7 @@
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>75</v>
       </c>
@@ -8136,7 +8136,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>210</v>
       </c>
@@ -8644,7 +8644,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
@@ -8683,16 +8683,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7265625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="28" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="28"/>
-    <col min="5" max="5" width="17.453125" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="28"/>
+    <col min="1" max="1" width="33.77734375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="28" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="28"/>
+    <col min="5" max="5" width="17.44140625" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>216</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>217</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>218</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>219</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>220</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>3</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>221</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>222</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>223</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>224</v>
       </c>
@@ -8890,20 +8890,20 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.81640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" style="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="43" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.1796875" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.26953125" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.81640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.1796875" style="43"/>
+    <col min="6" max="7" width="13.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.77734375" style="43" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.21875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>211</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>86</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="40" t="s">
         <v>171</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="40" t="s">
         <v>157</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="40" t="s">
         <v>158</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="40" t="s">
         <v>159</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="40" t="s">
         <v>184</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="40" t="s">
         <v>185</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="40" t="s">
         <v>189</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="40" t="s">
         <v>191</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="40" t="s">
         <v>192</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
         <v>205</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="40" t="s">
         <v>161</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="40" t="s">
         <v>193</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="40" t="s">
         <v>199</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="40" t="s">
         <v>200</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="40"/>
       <c r="C17" s="99"/>
       <c r="D17" s="99"/>
@@ -9629,7 +9629,7 @@
       <c r="N17" s="99"/>
       <c r="O17" s="99"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>100</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" s="40" t="s">
         <v>169</v>
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="73" t="s">
         <v>180</v>
       </c>
@@ -9765,7 +9765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="73" t="s">
         <v>181</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="74" t="s">
         <v>182</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="40" t="s">
         <v>187</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="40" t="s">
         <v>188</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="40" t="s">
         <v>190</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="40"/>
       <c r="C26" s="99"/>
       <c r="D26" s="99"/>
@@ -10001,7 +10001,7 @@
       <c r="N26" s="99"/>
       <c r="O26" s="99"/>
     </row>
-    <row r="27" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
         <v>75</v>
       </c>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="P27" s="75"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="46" t="s">
         <v>176</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
       <c r="B29" s="46" t="s">
         <v>177</v>
@@ -10138,7 +10138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="46" t="s">
         <v>178</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="46" t="s">
         <v>179</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="40"/>
       <c r="C32" s="100"/>
       <c r="D32" s="100"/>
@@ -10242,7 +10242,7 @@
       <c r="N32" s="99"/>
       <c r="O32" s="99"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
         <v>210</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="40" t="s">
         <v>174</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="40" t="s">
         <v>175</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="40" t="s">
         <v>183</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="40" t="s">
         <v>186</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="40" t="s">
         <v>194</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="40" t="s">
         <v>195</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="40" t="s">
         <v>196</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="40" t="s">
         <v>197</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="40" t="s">
         <v>198</v>
       </c>
@@ -10702,22 +10702,21 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="58.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -11469,22 +11468,21 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="16.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>230</v>
       </c>
@@ -11843,14 +11841,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="8" customWidth="1"/>
-    <col min="2" max="9" width="16.81640625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="8"/>
+    <col min="1" max="1" width="8.44140625" style="8" customWidth="1"/>
+    <col min="2" max="9" width="16.77734375" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>76</v>
       </c>
@@ -12938,15 +12936,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.1796875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="48.21875" style="28" customWidth="1"/>
     <col min="2" max="2" width="15" style="28" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="12.7265625" style="28"/>
+    <col min="3" max="3" width="14.77734375" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>231</v>
       </c>
@@ -12972,11 +12970,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -12999,7 +12997,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="114"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="28" t="s">
         <v>154</v>
       </c>
@@ -13021,7 +13019,7 @@
       <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="114"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="28" t="s">
         <v>155</v>
       </c>
@@ -13043,7 +13041,7 @@
       <c r="J4" s="76"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="28" t="s">
@@ -13067,7 +13065,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="114"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="28" t="s">
         <v>154</v>
       </c>
@@ -13088,7 +13086,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="114"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="28" t="s">
         <v>155</v>
       </c>
@@ -13109,7 +13107,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="28" t="s">
@@ -13132,7 +13130,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="114"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="28" t="s">
         <v>154</v>
       </c>
@@ -13153,7 +13151,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="114"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="28" t="s">
         <v>155</v>
       </c>
@@ -13174,7 +13172,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -13197,7 +13195,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="114"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="28" t="s">
         <v>154</v>
       </c>
@@ -13218,7 +13216,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="114"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="28" t="s">
         <v>155</v>
       </c>
@@ -13239,7 +13237,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -13262,7 +13260,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="114"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="28" t="s">
         <v>154</v>
       </c>
@@ -13283,7 +13281,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="114"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="28" t="s">
         <v>155</v>
       </c>
@@ -13303,7 +13301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="77" t="s">
         <v>156</v>
       </c>
@@ -13333,11 +13331,11 @@
       <c r="G18" s="101"/>
       <c r="H18" s="101"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C19" s="28" t="s">
@@ -13360,7 +13358,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="114"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="28" t="s">
         <v>154</v>
       </c>
@@ -13381,7 +13379,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="114"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="28" t="s">
         <v>155</v>
       </c>
@@ -13402,7 +13400,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="114" t="s">
+      <c r="B22" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C22" s="28" t="s">
@@ -13425,7 +13423,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="114"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="28" t="s">
         <v>154</v>
       </c>
@@ -13446,7 +13444,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="114"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="28" t="s">
         <v>155</v>
       </c>
@@ -13467,7 +13465,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -13490,7 +13488,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="114"/>
+      <c r="B26" s="117"/>
       <c r="C26" s="28" t="s">
         <v>154</v>
       </c>
@@ -13511,7 +13509,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="114"/>
+      <c r="B27" s="117"/>
       <c r="C27" s="28" t="s">
         <v>155</v>
       </c>
@@ -13532,7 +13530,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="114" t="s">
+      <c r="B28" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="28" t="s">
@@ -13555,7 +13553,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="114"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="28" t="s">
         <v>154</v>
       </c>
@@ -13576,7 +13574,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="114"/>
+      <c r="B30" s="117"/>
       <c r="C30" s="28" t="s">
         <v>155</v>
       </c>
@@ -13597,7 +13595,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="114" t="s">
+      <c r="B31" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -13620,7 +13618,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="114"/>
+      <c r="B32" s="117"/>
       <c r="C32" s="28" t="s">
         <v>154</v>
       </c>
@@ -13641,7 +13639,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="114"/>
+      <c r="B33" s="117"/>
       <c r="C33" s="28" t="s">
         <v>155</v>
       </c>
@@ -13661,7 +13659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="77" t="s">
         <v>156</v>
       </c>
@@ -13691,11 +13689,11 @@
       <c r="G35" s="101"/>
       <c r="H35" s="101"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="78" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="114" t="s">
+      <c r="B36" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="28" t="s">
@@ -13718,7 +13716,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="114"/>
+      <c r="B37" s="117"/>
       <c r="C37" s="28" t="s">
         <v>154</v>
       </c>
@@ -13739,7 +13737,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="114"/>
+      <c r="B38" s="117"/>
       <c r="C38" s="28" t="s">
         <v>155</v>
       </c>
@@ -13760,7 +13758,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="114" t="s">
+      <c r="B39" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C39" s="28" t="s">
@@ -13783,7 +13781,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="114"/>
+      <c r="B40" s="117"/>
       <c r="C40" s="28" t="s">
         <v>154</v>
       </c>
@@ -13804,7 +13802,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="114"/>
+      <c r="B41" s="117"/>
       <c r="C41" s="28" t="s">
         <v>155</v>
       </c>
@@ -13825,7 +13823,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="114" t="s">
+      <c r="B42" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="28" t="s">
@@ -13848,7 +13846,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="114"/>
+      <c r="B43" s="117"/>
       <c r="C43" s="28" t="s">
         <v>154</v>
       </c>
@@ -13869,7 +13867,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="114"/>
+      <c r="B44" s="117"/>
       <c r="C44" s="28" t="s">
         <v>155</v>
       </c>
@@ -13890,7 +13888,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="114" t="s">
+      <c r="B45" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C45" s="28" t="s">
@@ -13913,7 +13911,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="114"/>
+      <c r="B46" s="117"/>
       <c r="C46" s="28" t="s">
         <v>154</v>
       </c>
@@ -13934,7 +13932,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="114"/>
+      <c r="B47" s="117"/>
       <c r="C47" s="28" t="s">
         <v>155</v>
       </c>
@@ -13955,7 +13953,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="114" t="s">
+      <c r="B48" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C48" s="28" t="s">
@@ -13978,7 +13976,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="114"/>
+      <c r="B49" s="117"/>
       <c r="C49" s="28" t="s">
         <v>154</v>
       </c>
@@ -13999,7 +13997,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="114"/>
+      <c r="B50" s="117"/>
       <c r="C50" s="28" t="s">
         <v>155</v>
       </c>
@@ -14019,7 +14017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="77" t="s">
         <v>156</v>
       </c>
@@ -14042,7 +14040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="107" t="s">
         <v>235</v>
       </c>
@@ -14054,7 +14052,7 @@
       <c r="G53" s="107"/>
       <c r="H53" s="107"/>
     </row>
-    <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>231</v>
       </c>
@@ -14080,11 +14078,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="B55" s="114" t="s">
+      <c r="B55" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C55" s="28" t="s">
@@ -14112,7 +14110,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="114"/>
+      <c r="B56" s="117"/>
       <c r="C56" s="28" t="s">
         <v>154</v>
       </c>
@@ -14138,7 +14136,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="114"/>
+      <c r="B57" s="117"/>
       <c r="C57" s="28" t="s">
         <v>155</v>
       </c>
@@ -14164,7 +14162,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="114" t="s">
+      <c r="B58" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="28" t="s">
@@ -14192,7 +14190,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="114"/>
+      <c r="B59" s="117"/>
       <c r="C59" s="28" t="s">
         <v>154</v>
       </c>
@@ -14218,7 +14216,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="114"/>
+      <c r="B60" s="117"/>
       <c r="C60" s="28" t="s">
         <v>155</v>
       </c>
@@ -14244,7 +14242,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="114" t="s">
+      <c r="B61" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C61" s="28" t="s">
@@ -14272,7 +14270,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="114"/>
+      <c r="B62" s="117"/>
       <c r="C62" s="28" t="s">
         <v>154</v>
       </c>
@@ -14298,7 +14296,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="114"/>
+      <c r="B63" s="117"/>
       <c r="C63" s="28" t="s">
         <v>155</v>
       </c>
@@ -14324,7 +14322,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="114" t="s">
+      <c r="B64" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C64" s="28" t="s">
@@ -14352,7 +14350,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="114"/>
+      <c r="B65" s="117"/>
       <c r="C65" s="28" t="s">
         <v>154</v>
       </c>
@@ -14378,7 +14376,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="114"/>
+      <c r="B66" s="117"/>
       <c r="C66" s="28" t="s">
         <v>155</v>
       </c>
@@ -14404,7 +14402,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="114" t="s">
+      <c r="B67" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="28" t="s">
@@ -14432,7 +14430,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="114"/>
+      <c r="B68" s="117"/>
       <c r="C68" s="28" t="s">
         <v>154</v>
       </c>
@@ -14458,7 +14456,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="114"/>
+      <c r="B69" s="117"/>
       <c r="C69" s="28" t="s">
         <v>155</v>
       </c>
@@ -14483,7 +14481,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="77" t="s">
         <v>156</v>
       </c>
@@ -14518,11 +14516,11 @@
       <c r="G71" s="101"/>
       <c r="H71" s="101"/>
     </row>
-    <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="B72" s="114" t="s">
+      <c r="B72" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C72" s="28" t="s">
@@ -14550,7 +14548,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="114"/>
+      <c r="B73" s="117"/>
       <c r="C73" s="28" t="s">
         <v>154</v>
       </c>
@@ -14576,7 +14574,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="114"/>
+      <c r="B74" s="117"/>
       <c r="C74" s="28" t="s">
         <v>155</v>
       </c>
@@ -14602,7 +14600,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="114" t="s">
+      <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C75" s="28" t="s">
@@ -14630,7 +14628,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="114"/>
+      <c r="B76" s="117"/>
       <c r="C76" s="28" t="s">
         <v>154</v>
       </c>
@@ -14656,7 +14654,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="114"/>
+      <c r="B77" s="117"/>
       <c r="C77" s="28" t="s">
         <v>155</v>
       </c>
@@ -14682,7 +14680,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="114" t="s">
+      <c r="B78" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C78" s="28" t="s">
@@ -14710,7 +14708,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="114"/>
+      <c r="B79" s="117"/>
       <c r="C79" s="28" t="s">
         <v>154</v>
       </c>
@@ -14736,7 +14734,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="114"/>
+      <c r="B80" s="117"/>
       <c r="C80" s="28" t="s">
         <v>155</v>
       </c>
@@ -14762,7 +14760,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="114" t="s">
+      <c r="B81" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C81" s="28" t="s">
@@ -14790,7 +14788,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="114"/>
+      <c r="B82" s="117"/>
       <c r="C82" s="28" t="s">
         <v>154</v>
       </c>
@@ -14816,7 +14814,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="114"/>
+      <c r="B83" s="117"/>
       <c r="C83" s="28" t="s">
         <v>155</v>
       </c>
@@ -14842,7 +14840,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="114" t="s">
+      <c r="B84" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C84" s="28" t="s">
@@ -14870,7 +14868,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="114"/>
+      <c r="B85" s="117"/>
       <c r="C85" s="28" t="s">
         <v>154</v>
       </c>
@@ -14896,7 +14894,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="114"/>
+      <c r="B86" s="117"/>
       <c r="C86" s="28" t="s">
         <v>155</v>
       </c>
@@ -14921,7 +14919,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" s="77" t="s">
         <v>156</v>
       </c>
@@ -14956,11 +14954,11 @@
       <c r="G88" s="101"/>
       <c r="H88" s="101"/>
     </row>
-    <row r="89" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="78" t="s">
         <v>238</v>
       </c>
-      <c r="B89" s="114" t="s">
+      <c r="B89" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C89" s="28" t="s">
@@ -14988,7 +14986,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="114"/>
+      <c r="B90" s="117"/>
       <c r="C90" s="28" t="s">
         <v>154</v>
       </c>
@@ -15014,7 +15012,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="114"/>
+      <c r="B91" s="117"/>
       <c r="C91" s="28" t="s">
         <v>155</v>
       </c>
@@ -15040,7 +15038,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="114" t="s">
+      <c r="B92" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C92" s="28" t="s">
@@ -15068,7 +15066,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="114"/>
+      <c r="B93" s="117"/>
       <c r="C93" s="28" t="s">
         <v>154</v>
       </c>
@@ -15094,7 +15092,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="114"/>
+      <c r="B94" s="117"/>
       <c r="C94" s="28" t="s">
         <v>155</v>
       </c>
@@ -15120,7 +15118,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="114" t="s">
+      <c r="B95" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C95" s="28" t="s">
@@ -15148,7 +15146,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="114"/>
+      <c r="B96" s="117"/>
       <c r="C96" s="28" t="s">
         <v>154</v>
       </c>
@@ -15174,7 +15172,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="114"/>
+      <c r="B97" s="117"/>
       <c r="C97" s="28" t="s">
         <v>155</v>
       </c>
@@ -15200,7 +15198,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="114" t="s">
+      <c r="B98" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C98" s="28" t="s">
@@ -15228,7 +15226,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="114"/>
+      <c r="B99" s="117"/>
       <c r="C99" s="28" t="s">
         <v>154</v>
       </c>
@@ -15254,7 +15252,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="114"/>
+      <c r="B100" s="117"/>
       <c r="C100" s="28" t="s">
         <v>155</v>
       </c>
@@ -15280,7 +15278,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="114" t="s">
+      <c r="B101" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C101" s="28" t="s">
@@ -15308,7 +15306,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="114"/>
+      <c r="B102" s="117"/>
       <c r="C102" s="28" t="s">
         <v>154</v>
       </c>
@@ -15334,7 +15332,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="114"/>
+      <c r="B103" s="117"/>
       <c r="C103" s="28" t="s">
         <v>155</v>
       </c>
@@ -15359,7 +15357,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B104" s="77" t="s">
         <v>156</v>
       </c>
@@ -15387,7 +15385,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="107" t="s">
         <v>239</v>
       </c>
@@ -15399,7 +15397,7 @@
       <c r="G106" s="107"/>
       <c r="H106" s="107"/>
     </row>
-    <row r="107" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
         <v>231</v>
       </c>
@@ -15425,11 +15423,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="114" t="s">
+      <c r="B108" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C108" s="28" t="s">
@@ -15457,7 +15455,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="114"/>
+      <c r="B109" s="117"/>
       <c r="C109" s="28" t="s">
         <v>154</v>
       </c>
@@ -15483,7 +15481,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="114"/>
+      <c r="B110" s="117"/>
       <c r="C110" s="28" t="s">
         <v>155</v>
       </c>
@@ -15509,7 +15507,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="114" t="s">
+      <c r="B111" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C111" s="28" t="s">
@@ -15537,7 +15535,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="114"/>
+      <c r="B112" s="117"/>
       <c r="C112" s="28" t="s">
         <v>154</v>
       </c>
@@ -15563,7 +15561,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="114"/>
+      <c r="B113" s="117"/>
       <c r="C113" s="28" t="s">
         <v>155</v>
       </c>
@@ -15589,7 +15587,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="114" t="s">
+      <c r="B114" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C114" s="28" t="s">
@@ -15617,7 +15615,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="114"/>
+      <c r="B115" s="117"/>
       <c r="C115" s="28" t="s">
         <v>154</v>
       </c>
@@ -15643,7 +15641,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="114"/>
+      <c r="B116" s="117"/>
       <c r="C116" s="28" t="s">
         <v>155</v>
       </c>
@@ -15669,7 +15667,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="114" t="s">
+      <c r="B117" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C117" s="28" t="s">
@@ -15697,7 +15695,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="114"/>
+      <c r="B118" s="117"/>
       <c r="C118" s="28" t="s">
         <v>154</v>
       </c>
@@ -15723,7 +15721,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="114"/>
+      <c r="B119" s="117"/>
       <c r="C119" s="28" t="s">
         <v>155</v>
       </c>
@@ -15749,7 +15747,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="114" t="s">
+      <c r="B120" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C120" s="28" t="s">
@@ -15777,7 +15775,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="114"/>
+      <c r="B121" s="117"/>
       <c r="C121" s="28" t="s">
         <v>154</v>
       </c>
@@ -15803,7 +15801,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="114"/>
+      <c r="B122" s="117"/>
       <c r="C122" s="28" t="s">
         <v>155</v>
       </c>
@@ -15828,7 +15826,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B123" s="77" t="s">
         <v>156</v>
       </c>
@@ -15863,11 +15861,11 @@
       <c r="G124" s="101"/>
       <c r="H124" s="101"/>
     </row>
-    <row r="125" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="B125" s="114" t="s">
+      <c r="B125" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C125" s="28" t="s">
@@ -15895,7 +15893,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="114"/>
+      <c r="B126" s="117"/>
       <c r="C126" s="28" t="s">
         <v>154</v>
       </c>
@@ -15921,7 +15919,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="114"/>
+      <c r="B127" s="117"/>
       <c r="C127" s="28" t="s">
         <v>155</v>
       </c>
@@ -15947,7 +15945,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="114" t="s">
+      <c r="B128" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C128" s="28" t="s">
@@ -15975,7 +15973,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="114"/>
+      <c r="B129" s="117"/>
       <c r="C129" s="28" t="s">
         <v>154</v>
       </c>
@@ -16001,7 +15999,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="114"/>
+      <c r="B130" s="117"/>
       <c r="C130" s="28" t="s">
         <v>155</v>
       </c>
@@ -16027,7 +16025,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="114" t="s">
+      <c r="B131" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C131" s="28" t="s">
@@ -16055,7 +16053,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="114"/>
+      <c r="B132" s="117"/>
       <c r="C132" s="28" t="s">
         <v>154</v>
       </c>
@@ -16081,7 +16079,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="114"/>
+      <c r="B133" s="117"/>
       <c r="C133" s="28" t="s">
         <v>155</v>
       </c>
@@ -16107,7 +16105,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="114" t="s">
+      <c r="B134" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C134" s="28" t="s">
@@ -16135,7 +16133,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="114"/>
+      <c r="B135" s="117"/>
       <c r="C135" s="28" t="s">
         <v>154</v>
       </c>
@@ -16161,7 +16159,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="114"/>
+      <c r="B136" s="117"/>
       <c r="C136" s="28" t="s">
         <v>155</v>
       </c>
@@ -16187,7 +16185,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="114" t="s">
+      <c r="B137" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C137" s="28" t="s">
@@ -16215,7 +16213,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="114"/>
+      <c r="B138" s="117"/>
       <c r="C138" s="28" t="s">
         <v>154</v>
       </c>
@@ -16241,7 +16239,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="114"/>
+      <c r="B139" s="117"/>
       <c r="C139" s="28" t="s">
         <v>155</v>
       </c>
@@ -16266,7 +16264,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B140" s="77" t="s">
         <v>156</v>
       </c>
@@ -16301,11 +16299,11 @@
       <c r="G141" s="101"/>
       <c r="H141" s="101"/>
     </row>
-    <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="78" t="s">
         <v>242</v>
       </c>
-      <c r="B142" s="114" t="s">
+      <c r="B142" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C142" s="28" t="s">
@@ -16333,7 +16331,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="114"/>
+      <c r="B143" s="117"/>
       <c r="C143" s="28" t="s">
         <v>154</v>
       </c>
@@ -16359,7 +16357,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="114"/>
+      <c r="B144" s="117"/>
       <c r="C144" s="28" t="s">
         <v>155</v>
       </c>
@@ -16385,7 +16383,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="114" t="s">
+      <c r="B145" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C145" s="28" t="s">
@@ -16413,7 +16411,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="114"/>
+      <c r="B146" s="117"/>
       <c r="C146" s="28" t="s">
         <v>154</v>
       </c>
@@ -16439,7 +16437,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="114"/>
+      <c r="B147" s="117"/>
       <c r="C147" s="28" t="s">
         <v>155</v>
       </c>
@@ -16465,7 +16463,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="114" t="s">
+      <c r="B148" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C148" s="28" t="s">
@@ -16493,7 +16491,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="114"/>
+      <c r="B149" s="117"/>
       <c r="C149" s="28" t="s">
         <v>154</v>
       </c>
@@ -16519,7 +16517,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="114"/>
+      <c r="B150" s="117"/>
       <c r="C150" s="28" t="s">
         <v>155</v>
       </c>
@@ -16545,7 +16543,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="114" t="s">
+      <c r="B151" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C151" s="28" t="s">
@@ -16573,7 +16571,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="114"/>
+      <c r="B152" s="117"/>
       <c r="C152" s="28" t="s">
         <v>154</v>
       </c>
@@ -16599,7 +16597,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="114"/>
+      <c r="B153" s="117"/>
       <c r="C153" s="28" t="s">
         <v>155</v>
       </c>
@@ -16625,7 +16623,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="114" t="s">
+      <c r="B154" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C154" s="28" t="s">
@@ -16653,7 +16651,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="114"/>
+      <c r="B155" s="117"/>
       <c r="C155" s="28" t="s">
         <v>154</v>
       </c>
@@ -16679,7 +16677,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="114"/>
+      <c r="B156" s="117"/>
       <c r="C156" s="28" t="s">
         <v>155</v>
       </c>
@@ -16704,7 +16702,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="77" t="s">
         <v>156</v>
       </c>
@@ -16735,6 +16733,42 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="d5TbHPQi63nwx2Wq5JJSqukalmMv3C31IJEOC6Ln2RHu+2wV3FQIapEnZTD1R3DDEUxGNC0W0Oqhkaf0Boqebg==" saltValue="VXHqyG/n1ojfTzC/S0zfNA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -16744,42 +16778,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -16800,22 +16798,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="34.1796875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="28" customWidth="1"/>
     <col min="5" max="6" width="15" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="16.1796875" style="28"/>
+    <col min="7" max="16384" width="16.21875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="81"/>
       <c r="C2" s="82" t="s">
         <v>54</v>
@@ -16830,7 +16828,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>244</v>
       </c>
@@ -16914,7 +16912,7 @@
       <c r="E8" s="76"/>
       <c r="F8" s="76"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>249</v>
       </c>
@@ -16937,7 +16935,7 @@
       <c r="E10" s="76"/>
       <c r="F10" s="76"/>
     </row>
-    <row r="11" spans="1:6" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>245</v>
       </c>
@@ -16946,7 +16944,7 @@
       <c r="E11" s="89"/>
       <c r="F11" s="89"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>246</v>
       </c>
@@ -17006,7 +17004,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="46"/>
       <c r="C16" s="90"/>
@@ -17014,7 +17012,7 @@
       <c r="E16" s="76"/>
       <c r="F16" s="76"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>248</v>
       </c>
@@ -17163,7 +17161,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="46"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="107" t="s">
         <v>235</v>
       </c>
@@ -17173,12 +17171,12 @@
       <c r="E27" s="110"/>
       <c r="F27" s="110"/>
     </row>
-    <row r="28" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="81"/>
       <c r="C29" s="82" t="s">
         <v>54</v>
@@ -17193,7 +17191,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>250</v>
       </c>
@@ -17293,7 +17291,7 @@
       <c r="E35" s="76"/>
       <c r="F35" s="76"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>262</v>
       </c>
@@ -17314,7 +17312,7 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="79" t="s">
         <v>245</v>
       </c>
@@ -17324,7 +17322,7 @@
       <c r="E38" s="89"/>
       <c r="F38" s="89"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>251</v>
       </c>
@@ -17396,7 +17394,7 @@
         <v>2.9330000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
       <c r="B43" s="46"/>
       <c r="C43" s="90"/>
@@ -17404,7 +17402,7 @@
       <c r="E43" s="76"/>
       <c r="F43" s="76"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>252</v>
       </c>
@@ -17582,7 +17580,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="107" t="s">
         <v>239</v>
       </c>
@@ -17592,12 +17590,12 @@
       <c r="E54" s="110"/>
       <c r="F54" s="110"/>
     </row>
-    <row r="55" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="79" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="81"/>
       <c r="C56" s="82" t="s">
         <v>54</v>
@@ -17612,7 +17610,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>253</v>
       </c>
@@ -17712,7 +17710,7 @@
       <c r="E62" s="76"/>
       <c r="F62" s="76"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>263</v>
       </c>
@@ -17733,7 +17731,7 @@
         <v>1.9890000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="79" t="s">
         <v>245</v>
       </c>
@@ -17743,7 +17741,7 @@
       <c r="E65" s="89"/>
       <c r="F65" s="89"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>254</v>
       </c>
@@ -17815,7 +17813,7 @@
         <v>5.447000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30"/>
       <c r="B70" s="46"/>
       <c r="C70" s="90"/>
@@ -17823,7 +17821,7 @@
       <c r="E70" s="76"/>
       <c r="F70" s="76"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
         <v>255</v>
       </c>
@@ -18022,23 +18020,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" style="28" customWidth="1"/>
-    <col min="4" max="8" width="14.7265625" style="28" customWidth="1"/>
-    <col min="9" max="12" width="15.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="27.21875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" style="28" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="28" customWidth="1"/>
+    <col min="9" max="12" width="15.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
         <v>226</v>
       </c>
@@ -18072,7 +18070,7 @@
       <c r="O2" s="94"/>
       <c r="P2" s="94"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="28" t="s">
         <v>87</v>
@@ -18505,7 +18503,7 @@
       <c r="O17" s="93"/>
       <c r="P17" s="93"/>
     </row>
-    <row r="18" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="32" t="s">
         <v>269</v>
       </c>
@@ -18763,12 +18761,12 @@
       <c r="O26" s="93"/>
       <c r="P26" s="93"/>
     </row>
-    <row r="28" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="93" t="s">
         <v>279</v>
       </c>
@@ -18802,7 +18800,7 @@
       <c r="O29" s="94"/>
       <c r="P29" s="94"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
       <c r="B30" s="28" t="s">
         <v>87</v>
@@ -19497,12 +19495,12 @@
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
     </row>
-    <row r="55" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="79" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="93" t="s">
         <v>121</v>
       </c>
@@ -19530,7 +19528,7 @@
       <c r="O56" s="94"/>
       <c r="P56" s="94"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
       <c r="B57" s="28" t="s">
         <v>101</v>
@@ -19676,12 +19674,12 @@
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
     </row>
-    <row r="64" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="79" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="93" t="s">
         <v>128</v>
       </c>
@@ -19715,7 +19713,7 @@
       <c r="O65" s="94"/>
       <c r="P65" s="94"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="97"/>
       <c r="B66" s="28" t="s">
         <v>78</v>
@@ -20751,12 +20749,12 @@
       <c r="O101" s="93"/>
       <c r="P101" s="93"/>
     </row>
-    <row r="103" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="79" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="93" t="s">
         <v>87</v>
       </c>
@@ -20790,7 +20788,7 @@
       <c r="O104" s="94"/>
       <c r="P104" s="94"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="30"/>
       <c r="C105" s="32" t="s">
         <v>129</v>
@@ -20903,13 +20901,13 @@
       <c r="O108" s="93"/>
       <c r="P108" s="93"/>
     </row>
-    <row r="110" spans="1:16" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="107" t="s">
         <v>235</v>
       </c>
       <c r="H110" s="107"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="79" t="s">
         <v>264</v>
       </c>
@@ -20921,7 +20919,7 @@
       <c r="G111" s="80"/>
       <c r="H111" s="80"/>
     </row>
-    <row r="112" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="93" t="s">
         <v>226</v>
       </c>
@@ -20947,7 +20945,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="30"/>
       <c r="B113" s="28" t="s">
         <v>87</v>
@@ -21566,7 +21564,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="79" t="s">
         <v>278</v>
       </c>
@@ -21578,7 +21576,7 @@
       <c r="G138" s="80"/>
       <c r="H138" s="80"/>
     </row>
-    <row r="139" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="93" t="s">
         <v>279</v>
       </c>
@@ -21604,7 +21602,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="30"/>
       <c r="B140" s="28" t="s">
         <v>87</v>
@@ -22227,7 +22225,7 @@
       <c r="C164" s="32"/>
       <c r="D164" s="32"/>
     </row>
-    <row r="165" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="79" t="s">
         <v>271</v>
       </c>
@@ -22239,7 +22237,7 @@
       <c r="G165" s="80"/>
       <c r="H165" s="80"/>
     </row>
-    <row r="166" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A166" s="93" t="s">
         <v>121</v>
       </c>
@@ -22263,7 +22261,7 @@
       </c>
       <c r="H166" s="94"/>
     </row>
-    <row r="167" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="30"/>
       <c r="B167" s="28" t="s">
         <v>101</v>
@@ -22409,7 +22407,7 @@
       <c r="C173" s="32"/>
       <c r="D173" s="32"/>
     </row>
-    <row r="174" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="79" t="s">
         <v>275</v>
       </c>
@@ -22421,7 +22419,7 @@
       <c r="G174" s="80"/>
       <c r="H174" s="80"/>
     </row>
-    <row r="175" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A175" s="93" t="s">
         <v>128</v>
       </c>
@@ -22447,7 +22445,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="97"/>
       <c r="B176" s="28" t="s">
         <v>78</v>
@@ -23339,7 +23337,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="79" t="s">
         <v>277</v>
       </c>
@@ -23351,7 +23349,7 @@
       <c r="G213" s="80"/>
       <c r="H213" s="80"/>
     </row>
-    <row r="214" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A214" s="93" t="s">
         <v>87</v>
       </c>
@@ -23377,7 +23375,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="30"/>
       <c r="C215" s="32" t="s">
         <v>129</v>
@@ -23474,13 +23472,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="107" t="s">
         <v>239</v>
       </c>
       <c r="H220" s="107"/>
     </row>
-    <row r="221" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="79" t="s">
         <v>264</v>
       </c>
@@ -23493,7 +23491,7 @@
       <c r="H221" s="80"/>
       <c r="I221" s="80"/>
     </row>
-    <row r="222" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="93" t="s">
         <v>226</v>
       </c>
@@ -23520,7 +23518,7 @@
       </c>
       <c r="I222" s="94"/>
     </row>
-    <row r="223" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="30"/>
       <c r="B223" s="28" t="s">
         <v>87</v>
@@ -24163,7 +24161,7 @@
       </c>
       <c r="I246" s="93"/>
     </row>
-    <row r="248" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="79" t="s">
         <v>278</v>
       </c>
@@ -24176,7 +24174,7 @@
       <c r="H248" s="80"/>
       <c r="I248" s="80"/>
     </row>
-    <row r="249" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="93" t="s">
         <v>279</v>
       </c>
@@ -24203,7 +24201,7 @@
       </c>
       <c r="I249" s="94"/>
     </row>
-    <row r="250" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="30"/>
       <c r="B250" s="28" t="s">
         <v>87</v>
@@ -24850,7 +24848,7 @@
       <c r="C274" s="32"/>
       <c r="D274" s="32"/>
     </row>
-    <row r="275" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="79" t="s">
         <v>271</v>
       </c>
@@ -24863,7 +24861,7 @@
       <c r="H275" s="80"/>
       <c r="I275" s="80"/>
     </row>
-    <row r="276" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A276" s="93" t="s">
         <v>121</v>
       </c>
@@ -24887,7 +24885,7 @@
       </c>
       <c r="H276" s="94"/>
     </row>
-    <row r="277" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="30"/>
       <c r="B277" s="28" t="s">
         <v>101</v>
@@ -25033,7 +25031,7 @@
       <c r="C283" s="32"/>
       <c r="D283" s="32"/>
     </row>
-    <row r="284" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="79" t="s">
         <v>275</v>
       </c>
@@ -25046,7 +25044,7 @@
       <c r="H284" s="80"/>
       <c r="I284" s="80"/>
     </row>
-    <row r="285" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A285" s="93" t="s">
         <v>128</v>
       </c>
@@ -25073,7 +25071,7 @@
       </c>
       <c r="I285" s="94"/>
     </row>
-    <row r="286" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="97"/>
       <c r="B286" s="28" t="s">
         <v>78</v>
@@ -26001,7 +25999,7 @@
       </c>
       <c r="I321" s="93"/>
     </row>
-    <row r="323" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="79" t="s">
         <v>277</v>
       </c>
@@ -26014,7 +26012,7 @@
       <c r="H323" s="80"/>
       <c r="I323" s="80"/>
     </row>
-    <row r="324" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A324" s="93" t="s">
         <v>87</v>
       </c>
@@ -26041,7 +26039,7 @@
       </c>
       <c r="I324" s="94"/>
     </row>
-    <row r="325" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="30"/>
       <c r="C325" s="32" t="s">
         <v>129</v>
@@ -26163,24 +26161,24 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.81640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="44.77734375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="28" customWidth="1"/>
     <col min="6" max="6" width="15" style="28" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.7265625" style="28"/>
+    <col min="7" max="7" width="13.77734375" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="97" t="s">
         <v>0</v>
       </c>
@@ -26221,7 +26219,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="73" t="s">
         <v>281</v>
@@ -26242,7 +26240,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>282</v>
       </c>
@@ -26335,12 +26333,12 @@
       <c r="F10" s="73"/>
       <c r="G10" s="73"/>
     </row>
-    <row r="11" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="84"/>
       <c r="B12" s="46" t="s">
         <v>184</v>
@@ -26361,16 +26359,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="84"/>
       <c r="B13" s="46"/>
     </row>
-    <row r="14" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="97" t="s">
         <v>279</v>
       </c>
@@ -26393,7 +26391,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="73" t="s">
         <v>287</v>
@@ -26414,7 +26412,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="97" t="s">
         <v>121</v>
       </c>
@@ -26438,12 +26436,12 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="79" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="44" t="s">
         <v>69</v>
       </c>
@@ -26474,12 +26472,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="107" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="79" t="s">
         <v>233</v>
       </c>
@@ -26490,7 +26488,7 @@
       <c r="F24" s="80"/>
       <c r="G24" s="80"/>
     </row>
-    <row r="25" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="97" t="s">
         <v>0</v>
       </c>
@@ -26535,7 +26533,7 @@
         <v>157.22999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
       <c r="B27" s="73" t="s">
         <v>290</v>
@@ -26561,7 +26559,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="84" t="s">
         <v>291</v>
       </c>
@@ -26674,7 +26672,7 @@
       <c r="F33" s="73"/>
       <c r="G33" s="73"/>
     </row>
-    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="79" t="s">
         <v>295</v>
       </c>
@@ -26685,7 +26683,7 @@
       <c r="F34" s="80"/>
       <c r="G34" s="80"/>
     </row>
-    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="84"/>
       <c r="B35" s="46" t="s">
         <v>296</v>
@@ -26708,11 +26706,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="84"/>
       <c r="B36" s="46"/>
     </row>
-    <row r="37" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="79" t="s">
         <v>283</v>
       </c>
@@ -26723,7 +26721,7 @@
       <c r="F37" s="80"/>
       <c r="G37" s="80"/>
     </row>
-    <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="97" t="s">
         <v>279</v>
       </c>
@@ -26751,7 +26749,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
       <c r="B39" s="73" t="s">
         <v>298</v>
@@ -26777,7 +26775,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="97" t="s">
         <v>121</v>
       </c>
@@ -26805,7 +26803,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="79" t="s">
         <v>300</v>
       </c>
@@ -26816,7 +26814,7 @@
       <c r="F42" s="80"/>
       <c r="G42" s="80"/>
     </row>
-    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="84"/>
       <c r="B43" s="84"/>
       <c r="C43" s="44" t="s">
@@ -26854,12 +26852,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="107" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="79" t="s">
         <v>233</v>
       </c>
@@ -26870,7 +26868,7 @@
       <c r="F47" s="80"/>
       <c r="G47" s="80"/>
     </row>
-    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="97" t="s">
         <v>0</v>
       </c>
@@ -26915,7 +26913,7 @@
         <v>183.435</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
       <c r="B50" s="73" t="s">
         <v>303</v>
@@ -26941,7 +26939,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="84" t="s">
         <v>304</v>
       </c>
@@ -27054,7 +27052,7 @@
       <c r="F56" s="73"/>
       <c r="G56" s="73"/>
     </row>
-    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="79" t="s">
         <v>308</v>
       </c>
@@ -27065,7 +27063,7 @@
       <c r="F57" s="80"/>
       <c r="G57" s="80"/>
     </row>
-    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="84"/>
       <c r="B58" s="46" t="s">
         <v>309</v>
@@ -27088,11 +27086,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="84"/>
       <c r="B59" s="46"/>
     </row>
-    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="79" t="s">
         <v>283</v>
       </c>
@@ -27103,7 +27101,7 @@
       <c r="F60" s="80"/>
       <c r="G60" s="80"/>
     </row>
-    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="97" t="s">
         <v>279</v>
       </c>
@@ -27131,7 +27129,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
       <c r="B62" s="73" t="s">
         <v>311</v>
@@ -27157,7 +27155,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="97" t="s">
         <v>121</v>
       </c>
@@ -27185,7 +27183,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="79" t="s">
         <v>313</v>
       </c>
@@ -27196,7 +27194,7 @@
       <c r="F65" s="80"/>
       <c r="G65" s="80"/>
     </row>
-    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="84"/>
       <c r="B66" s="84"/>
       <c r="C66" s="44" t="s">
@@ -27256,16 +27254,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.26953125" style="28" customWidth="1"/>
-    <col min="2" max="6" width="16.1796875" style="28"/>
-    <col min="7" max="7" width="17.26953125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="16.1796875" style="28"/>
+    <col min="1" max="1" width="52.21875" style="28" customWidth="1"/>
+    <col min="2" max="6" width="16.21875" style="28"/>
+    <col min="7" max="7" width="17.21875" style="28" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="16.21875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>160</v>
       </c>
@@ -27511,12 +27509,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="107" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>160</v>
       </c>
@@ -27810,12 +27808,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="107" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>160</v>
       </c>
@@ -28130,15 +28128,15 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="58.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="28" customWidth="1"/>
-    <col min="16" max="16384" width="12.7265625" style="28"/>
+    <col min="16" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="83" t="s">
@@ -28181,7 +28179,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>319</v>
       </c>
@@ -28626,7 +28624,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="46" t="s">
         <v>189</v>
       </c>
@@ -28758,7 +28756,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>320</v>
       </c>
@@ -28940,12 +28938,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="107" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="83" t="s">
@@ -28988,7 +28986,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>321</v>
       </c>
@@ -29734,7 +29732,7 @@
         <v>0.29700000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>323</v>
       </c>
@@ -29968,12 +29966,12 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="107" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="83" t="s">
@@ -30016,7 +30014,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>322</v>
       </c>
@@ -30762,7 +30760,7 @@
         <v>0.34650000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>324</v>
       </c>
@@ -31017,15 +31015,15 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" style="28" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="21.21875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="28" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="42"/>
       <c r="C1" s="30" t="s">
@@ -31044,7 +31042,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>325</v>
       </c>
@@ -31069,7 +31067,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>326</v>
       </c>
@@ -31100,12 +31098,12 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="107" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="42"/>
       <c r="C8" s="30" t="s">
@@ -31124,7 +31122,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>327</v>
       </c>
@@ -31154,7 +31152,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>328</v>
       </c>
@@ -31190,12 +31188,12 @@
         <v>0.12869999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="107" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="42"/>
       <c r="C15" s="30" t="s">
@@ -31214,7 +31212,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>329</v>
       </c>
@@ -31244,7 +31242,7 @@
         <v>0.2205</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>330</v>
       </c>
@@ -31297,24 +31295,24 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="40" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="40" customWidth="1"/>
     <col min="4" max="4" width="15" style="28" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="28"/>
-    <col min="8" max="8" width="17.54296875" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="12.7265625" style="28"/>
+    <col min="5" max="5" width="13.77734375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="28"/>
+    <col min="8" max="8" width="17.5546875" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -31357,13 +31355,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="G2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="H2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -31377,13 +31375,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="G3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="H3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -31710,7 +31708,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="G18" s="105">
         <v>0.62</v>
@@ -31753,7 +31751,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="G20" s="105">
         <v>0.62</v>
@@ -31773,13 +31771,13 @@
         <v>334</v>
       </c>
       <c r="D21" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E21" s="105">
         <v>0</v>
       </c>
       <c r="F21" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G21" s="105">
         <v>0</v>
@@ -31799,7 +31797,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G22" s="105">
         <v>0</v>
@@ -31819,13 +31817,13 @@
         <v>334</v>
       </c>
       <c r="D23" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E23" s="105">
         <v>0</v>
       </c>
       <c r="F23" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G23" s="105">
         <v>0</v>
@@ -31845,7 +31843,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G24" s="105">
         <v>0</v>
@@ -31865,13 +31863,13 @@
         <v>334</v>
       </c>
       <c r="D25" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E25" s="105">
         <v>0</v>
       </c>
       <c r="F25" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G25" s="105">
         <v>0</v>
@@ -31891,7 +31889,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G26" s="105">
         <v>0</v>
@@ -31917,7 +31915,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G27" s="105">
         <v>1</v>
@@ -31937,7 +31935,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G28" s="105">
         <v>0</v>
@@ -31957,7 +31955,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G29" s="105">
         <v>0</v>
@@ -31983,7 +31981,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G30" s="105">
         <v>1</v>
@@ -32003,7 +32001,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G31" s="105">
         <v>0</v>
@@ -32023,7 +32021,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G32" s="105">
         <v>0</v>
@@ -32049,7 +32047,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G33" s="105">
         <v>1</v>
@@ -32069,7 +32067,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G34" s="105">
         <v>0</v>
@@ -32089,7 +32087,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G35" s="105">
         <v>0</v>
@@ -32115,7 +32113,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G36" s="105">
         <v>1</v>
@@ -32135,7 +32133,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G37" s="105">
         <v>0</v>
@@ -32155,7 +32153,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G38" s="105">
         <v>0</v>
@@ -32181,7 +32179,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G39" s="105">
         <v>1</v>
@@ -32201,7 +32199,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G40" s="105">
         <v>0</v>
@@ -32221,7 +32219,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G41" s="105">
         <v>0</v>
@@ -32247,7 +32245,7 @@
         <v>0.3</v>
       </c>
       <c r="F42" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G42" s="105">
         <v>0.3</v>
@@ -32267,7 +32265,7 @@
         <v>0.5</v>
       </c>
       <c r="F43" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G43" s="105">
         <v>0.5</v>
@@ -32287,7 +32285,7 @@
         <v>0.65</v>
       </c>
       <c r="F44" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="G44" s="105">
         <v>0.65</v>
@@ -32310,7 +32308,7 @@
         <v>0.3</v>
       </c>
       <c r="F45" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G45" s="105">
         <v>0.3</v>
@@ -32330,7 +32328,7 @@
         <v>0.49</v>
       </c>
       <c r="F46" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.49</v>
       </c>
       <c r="G46" s="105">
         <v>0.49</v>
@@ -32350,7 +32348,7 @@
         <v>0.52</v>
       </c>
       <c r="F47" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="G47" s="105">
         <v>0.52</v>
@@ -32376,7 +32374,7 @@
         <v>0.88</v>
       </c>
       <c r="F48" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.88</v>
       </c>
       <c r="G48" s="105">
         <v>0.88</v>
@@ -32390,19 +32388,19 @@
         <v>335</v>
       </c>
       <c r="D49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="E49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="F49" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="G49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="H49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -32416,19 +32414,19 @@
         <v>334</v>
       </c>
       <c r="D50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="E50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="F50" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="G50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="H50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -32442,7 +32440,7 @@
         <v>0.86</v>
       </c>
       <c r="F51" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="G51" s="105">
         <v>0.86</v>
@@ -32468,7 +32466,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F52" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G52" s="105">
         <v>0</v>
@@ -32488,7 +32486,7 @@
         <v>0.51</v>
       </c>
       <c r="F53" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G53" s="105">
         <v>0</v>
@@ -32497,14 +32495,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="111" t="s">
         <v>331</v>
       </c>
       <c r="B55" s="112"/>
       <c r="C55" s="112"/>
     </row>
-    <row r="56" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>160</v>
       </c>
@@ -32550,15 +32548,15 @@
       </c>
       <c r="F57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="G57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="H57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -32575,15 +32573,15 @@
       </c>
       <c r="F58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="G58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="H58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -32983,7 +32981,7 @@
       </c>
       <c r="F73" s="105">
         <f t="shared" si="5"/>
-        <v>0.30150000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="G73" s="105">
         <f t="shared" si="5"/>
@@ -33036,7 +33034,7 @@
       </c>
       <c r="F75" s="105">
         <f t="shared" si="7"/>
-        <v>0.30150000000000005</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="G75" s="105">
         <f t="shared" si="7"/>
@@ -33059,7 +33057,7 @@
       </c>
       <c r="D76" s="105">
         <f t="shared" ref="D76:H76" si="8">D21*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E76" s="105">
         <f t="shared" si="8"/>
@@ -33067,7 +33065,7 @@
       </c>
       <c r="F76" s="105">
         <f t="shared" si="8"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G76" s="105">
         <f t="shared" si="8"/>
@@ -33092,7 +33090,7 @@
       </c>
       <c r="F77" s="105">
         <f t="shared" si="9"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G77" s="105">
         <f t="shared" si="9"/>
@@ -33115,7 +33113,7 @@
       </c>
       <c r="D78" s="105">
         <f t="shared" ref="D78:H78" si="10">D23*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E78" s="105">
         <f t="shared" si="10"/>
@@ -33123,7 +33121,7 @@
       </c>
       <c r="F78" s="105">
         <f t="shared" si="10"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G78" s="105">
         <f t="shared" si="10"/>
@@ -33148,7 +33146,7 @@
       </c>
       <c r="F79" s="105">
         <f t="shared" si="11"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G79" s="105">
         <f t="shared" si="11"/>
@@ -33171,7 +33169,7 @@
       </c>
       <c r="D80" s="105">
         <f t="shared" ref="D80:H80" si="12">D25*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E80" s="105">
         <f t="shared" si="12"/>
@@ -33179,7 +33177,7 @@
       </c>
       <c r="F80" s="105">
         <f t="shared" si="12"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G80" s="105">
         <f t="shared" si="12"/>
@@ -33204,7 +33202,7 @@
       </c>
       <c r="F81" s="105">
         <f t="shared" si="13"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G81" s="105">
         <f t="shared" si="13"/>
@@ -33235,7 +33233,7 @@
       </c>
       <c r="F82" s="105">
         <f t="shared" si="14"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G82" s="105">
         <f t="shared" si="14"/>
@@ -33260,7 +33258,7 @@
       </c>
       <c r="F83" s="105">
         <f t="shared" si="15"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G83" s="105">
         <f t="shared" si="15"/>
@@ -33285,7 +33283,7 @@
       </c>
       <c r="F84" s="105">
         <f t="shared" si="16"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G84" s="105">
         <f t="shared" si="16"/>
@@ -33316,7 +33314,7 @@
       </c>
       <c r="F85" s="105">
         <f t="shared" si="17"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G85" s="105">
         <f t="shared" si="17"/>
@@ -33341,7 +33339,7 @@
       </c>
       <c r="F86" s="105">
         <f t="shared" si="18"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G86" s="105">
         <f t="shared" si="18"/>
@@ -33366,7 +33364,7 @@
       </c>
       <c r="F87" s="105">
         <f t="shared" si="19"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G87" s="105">
         <f t="shared" si="19"/>
@@ -33397,7 +33395,7 @@
       </c>
       <c r="F88" s="105">
         <f t="shared" si="20"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G88" s="105">
         <f t="shared" si="20"/>
@@ -33422,7 +33420,7 @@
       </c>
       <c r="F89" s="105">
         <f t="shared" si="21"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G89" s="105">
         <f t="shared" si="21"/>
@@ -33447,7 +33445,7 @@
       </c>
       <c r="F90" s="105">
         <f t="shared" si="22"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G90" s="105">
         <f t="shared" si="22"/>
@@ -33478,7 +33476,7 @@
       </c>
       <c r="F91" s="105">
         <f t="shared" si="23"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G91" s="105">
         <f t="shared" si="23"/>
@@ -33503,7 +33501,7 @@
       </c>
       <c r="F92" s="105">
         <f t="shared" si="24"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G92" s="105">
         <f t="shared" si="24"/>
@@ -33528,7 +33526,7 @@
       </c>
       <c r="F93" s="105">
         <f t="shared" si="25"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G93" s="105">
         <f t="shared" si="25"/>
@@ -33559,7 +33557,7 @@
       </c>
       <c r="F94" s="105">
         <f t="shared" si="26"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G94" s="105">
         <f t="shared" si="26"/>
@@ -33584,7 +33582,7 @@
       </c>
       <c r="F95" s="105">
         <f t="shared" si="27"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G95" s="105">
         <f t="shared" si="27"/>
@@ -33609,7 +33607,7 @@
       </c>
       <c r="F96" s="105">
         <f t="shared" si="28"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G96" s="105">
         <f t="shared" si="28"/>
@@ -33640,7 +33638,7 @@
       </c>
       <c r="F97" s="105">
         <f t="shared" si="29"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G97" s="105">
         <f t="shared" si="29"/>
@@ -33665,7 +33663,7 @@
       </c>
       <c r="F98" s="105">
         <f t="shared" si="30"/>
-        <v>0.30150000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="G98" s="105">
         <f t="shared" si="30"/>
@@ -33690,7 +33688,7 @@
       </c>
       <c r="F99" s="105">
         <f t="shared" si="31"/>
-        <v>0.30150000000000005</v>
+        <v>0.58500000000000008</v>
       </c>
       <c r="G99" s="105">
         <f t="shared" si="31"/>
@@ -33718,7 +33716,7 @@
       </c>
       <c r="F100" s="105">
         <f t="shared" si="32"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G100" s="105">
         <f t="shared" si="32"/>
@@ -33743,7 +33741,7 @@
       </c>
       <c r="F101" s="105">
         <f t="shared" si="33"/>
-        <v>0.30150000000000005</v>
+        <v>0.441</v>
       </c>
       <c r="G101" s="105">
         <f t="shared" si="33"/>
@@ -33768,7 +33766,7 @@
       </c>
       <c r="F102" s="105">
         <f t="shared" si="34"/>
-        <v>0.30150000000000005</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="G102" s="105">
         <f t="shared" si="34"/>
@@ -33799,7 +33797,7 @@
       </c>
       <c r="F103" s="105">
         <f t="shared" si="35"/>
-        <v>0.30150000000000005</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="G103" s="105">
         <f t="shared" si="35"/>
@@ -33816,23 +33814,23 @@
       </c>
       <c r="D104" s="105">
         <f t="shared" ref="D104:H104" si="36">D49*0.9</f>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="E104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="F104" s="105">
         <f t="shared" si="36"/>
-        <v>0.30150000000000005</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="G104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="H104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -33847,23 +33845,23 @@
       </c>
       <c r="D105" s="105">
         <f t="shared" ref="D105:H105" si="37">D50*0.9</f>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="E105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="F105" s="105">
         <f t="shared" si="37"/>
-        <v>0.30150000000000005</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="G105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="H105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -33880,7 +33878,7 @@
       </c>
       <c r="F106" s="105">
         <f t="shared" si="38"/>
-        <v>0.30150000000000005</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="G106" s="105">
         <f t="shared" si="38"/>
@@ -33911,7 +33909,7 @@
       </c>
       <c r="F107" s="105">
         <f t="shared" si="39"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G107" s="105">
         <f t="shared" si="39"/>
@@ -33936,7 +33934,7 @@
       </c>
       <c r="F108" s="105">
         <f t="shared" si="40"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G108" s="105">
         <f t="shared" si="40"/>
@@ -33947,14 +33945,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="111" t="s">
         <v>332</v>
       </c>
       <c r="B110" s="112"/>
       <c r="C110" s="112"/>
     </row>
-    <row r="111" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
         <v>160</v>
       </c>
@@ -34000,15 +33998,15 @@
       </c>
       <c r="F112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="G112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="H112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -34025,15 +34023,15 @@
       </c>
       <c r="F113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="G113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="H113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -34433,7 +34431,7 @@
       </c>
       <c r="F128" s="105">
         <f t="shared" si="46"/>
-        <v>0.35175000000000006</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="G128" s="105">
         <f t="shared" si="46"/>
@@ -34486,7 +34484,7 @@
       </c>
       <c r="F130" s="105">
         <f t="shared" si="48"/>
-        <v>0.35175000000000006</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="G130" s="105">
         <f t="shared" si="48"/>
@@ -34509,7 +34507,7 @@
       </c>
       <c r="D131" s="105">
         <f t="shared" ref="D131:H131" si="49">D21*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E131" s="105">
         <f t="shared" si="49"/>
@@ -34517,7 +34515,7 @@
       </c>
       <c r="F131" s="105">
         <f t="shared" si="49"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G131" s="105">
         <f t="shared" si="49"/>
@@ -34542,7 +34540,7 @@
       </c>
       <c r="F132" s="105">
         <f t="shared" si="50"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G132" s="105">
         <f t="shared" si="50"/>
@@ -34565,7 +34563,7 @@
       </c>
       <c r="D133" s="105">
         <f t="shared" ref="D133:H133" si="51">D23*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E133" s="105">
         <f t="shared" si="51"/>
@@ -34573,7 +34571,7 @@
       </c>
       <c r="F133" s="105">
         <f t="shared" si="51"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G133" s="105">
         <f t="shared" si="51"/>
@@ -34598,7 +34596,7 @@
       </c>
       <c r="F134" s="105">
         <f t="shared" si="52"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G134" s="105">
         <f t="shared" si="52"/>
@@ -34621,7 +34619,7 @@
       </c>
       <c r="D135" s="105">
         <f t="shared" ref="D135:H135" si="53">D25*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E135" s="105">
         <f t="shared" si="53"/>
@@ -34629,7 +34627,7 @@
       </c>
       <c r="F135" s="105">
         <f t="shared" si="53"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G135" s="105">
         <f t="shared" si="53"/>
@@ -34654,7 +34652,7 @@
       </c>
       <c r="F136" s="105">
         <f t="shared" si="54"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G136" s="105">
         <f t="shared" si="54"/>
@@ -34685,7 +34683,7 @@
       </c>
       <c r="F137" s="105">
         <f t="shared" si="55"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G137" s="105">
         <f t="shared" si="55"/>
@@ -34710,7 +34708,7 @@
       </c>
       <c r="F138" s="105">
         <f t="shared" si="56"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G138" s="105">
         <f t="shared" si="56"/>
@@ -34735,7 +34733,7 @@
       </c>
       <c r="F139" s="105">
         <f t="shared" si="57"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G139" s="105">
         <f t="shared" si="57"/>
@@ -34766,7 +34764,7 @@
       </c>
       <c r="F140" s="105">
         <f t="shared" si="58"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G140" s="105">
         <f t="shared" si="58"/>
@@ -34791,7 +34789,7 @@
       </c>
       <c r="F141" s="105">
         <f t="shared" si="59"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G141" s="105">
         <f t="shared" si="59"/>
@@ -34816,7 +34814,7 @@
       </c>
       <c r="F142" s="105">
         <f t="shared" si="60"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G142" s="105">
         <f t="shared" si="60"/>
@@ -34847,7 +34845,7 @@
       </c>
       <c r="F143" s="105">
         <f t="shared" si="61"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G143" s="105">
         <f t="shared" si="61"/>
@@ -34872,7 +34870,7 @@
       </c>
       <c r="F144" s="105">
         <f t="shared" si="62"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G144" s="105">
         <f t="shared" si="62"/>
@@ -34897,7 +34895,7 @@
       </c>
       <c r="F145" s="105">
         <f t="shared" si="63"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G145" s="105">
         <f t="shared" si="63"/>
@@ -34928,7 +34926,7 @@
       </c>
       <c r="F146" s="105">
         <f t="shared" si="64"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G146" s="105">
         <f t="shared" si="64"/>
@@ -34953,7 +34951,7 @@
       </c>
       <c r="F147" s="105">
         <f t="shared" si="65"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G147" s="105">
         <f t="shared" si="65"/>
@@ -34978,7 +34976,7 @@
       </c>
       <c r="F148" s="105">
         <f t="shared" si="66"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G148" s="105">
         <f t="shared" si="66"/>
@@ -35009,7 +35007,7 @@
       </c>
       <c r="F149" s="105">
         <f t="shared" si="67"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G149" s="105">
         <f t="shared" si="67"/>
@@ -35034,7 +35032,7 @@
       </c>
       <c r="F150" s="105">
         <f t="shared" si="68"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G150" s="105">
         <f t="shared" si="68"/>
@@ -35059,7 +35057,7 @@
       </c>
       <c r="F151" s="105">
         <f t="shared" si="69"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G151" s="105">
         <f t="shared" si="69"/>
@@ -35090,7 +35088,7 @@
       </c>
       <c r="F152" s="105">
         <f t="shared" si="70"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G152" s="105">
         <f t="shared" si="70"/>
@@ -35115,7 +35113,7 @@
       </c>
       <c r="F153" s="105">
         <f t="shared" si="71"/>
-        <v>0.35175000000000006</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="G153" s="105">
         <f t="shared" si="71"/>
@@ -35140,7 +35138,7 @@
       </c>
       <c r="F154" s="105">
         <f t="shared" si="72"/>
-        <v>0.35175000000000006</v>
+        <v>0.68250000000000011</v>
       </c>
       <c r="G154" s="105">
         <f t="shared" si="72"/>
@@ -35168,7 +35166,7 @@
       </c>
       <c r="F155" s="105">
         <f t="shared" si="73"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G155" s="105">
         <f t="shared" si="73"/>
@@ -35193,7 +35191,7 @@
       </c>
       <c r="F156" s="105">
         <f t="shared" si="74"/>
-        <v>0.35175000000000006</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="G156" s="105">
         <f t="shared" si="74"/>
@@ -35218,7 +35216,7 @@
       </c>
       <c r="F157" s="105">
         <f t="shared" si="75"/>
-        <v>0.35175000000000006</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="G157" s="105">
         <f t="shared" si="75"/>
@@ -35249,7 +35247,7 @@
       </c>
       <c r="F158" s="105">
         <f t="shared" si="76"/>
-        <v>0.35175000000000006</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="G158" s="105">
         <f t="shared" si="76"/>
@@ -35266,23 +35264,23 @@
       </c>
       <c r="D159" s="105">
         <f t="shared" ref="D159:H159" si="77">D49*1.05</f>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="E159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="F159" s="105">
         <f t="shared" si="77"/>
-        <v>0.35175000000000006</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="G159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="H159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -35297,23 +35295,23 @@
       </c>
       <c r="D160" s="105">
         <f t="shared" ref="D160:H160" si="78">D50*1.05</f>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="E160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="F160" s="105">
         <f t="shared" si="78"/>
-        <v>0.35175000000000006</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="G160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="H160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -35330,7 +35328,7 @@
       </c>
       <c r="F161" s="105">
         <f t="shared" si="79"/>
-        <v>0.35175000000000006</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="G161" s="105">
         <f t="shared" si="79"/>
@@ -35361,7 +35359,7 @@
       </c>
       <c r="F162" s="105">
         <f t="shared" si="80"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G162" s="105">
         <f t="shared" si="80"/>
@@ -35386,7 +35384,7 @@
       </c>
       <c r="F163" s="105">
         <f t="shared" si="81"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G163" s="105">
         <f t="shared" si="81"/>
@@ -35418,16 +35416,16 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="28" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" style="28" customWidth="1"/>
-    <col min="4" max="7" width="17.26953125" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.7265625" style="28"/>
+    <col min="2" max="2" width="27.44140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="28" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>160</v>
       </c>
@@ -35575,12 +35573,12 @@
       </c>
       <c r="H7" s="32"/>
     </row>
-    <row r="9" spans="1:8" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="107" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>160</v>
       </c>
@@ -35745,12 +35743,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="107" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>160</v>
       </c>
@@ -35935,14 +35933,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="31.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Pourcentage des morts de l'année de référence ("&amp;start_year&amp;") imputable à chaque cause"</f>
         <v>Pourcentage des morts de l'année de référence (2017) imputable à chaque cause</v>
@@ -35953,7 +35951,7 @@
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -36036,7 +36034,7 @@
       <c r="B11" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="115">
+      <c r="C11" s="114">
         <f>SUM(C3:C10)</f>
         <v>1</v>
       </c>
@@ -36052,7 +36050,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>86</v>
       </c>
@@ -36230,19 +36228,19 @@
       <c r="B23" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="115">
+      <c r="C23" s="114">
         <f>SUM(C14:C22)</f>
         <v>1</v>
       </c>
-      <c r="D23" s="115">
+      <c r="D23" s="114">
         <f t="shared" ref="D23:F23" si="0">SUM(D14:D22)</f>
         <v>1</v>
       </c>
-      <c r="E23" s="115">
+      <c r="E23" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F23" s="115">
+      <c r="F23" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -36258,7 +36256,7 @@
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -36350,7 +36348,7 @@
       <c r="B35" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="115">
+      <c r="C35" s="114">
         <f>SUM(C26:C34)</f>
         <v>1</v>
       </c>
@@ -36374,13 +36372,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="str">
         <f>"Pourcentage de la population dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -36411,23 +36409,23 @@
       <c r="B2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="117">
+      <c r="C2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.54471569980476653</v>
       </c>
-      <c r="D2" s="117">
+      <c r="D2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.54471569980476653</v>
       </c>
-      <c r="E2" s="117">
+      <c r="E2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.44982829694488635</v>
       </c>
-      <c r="F2" s="117">
+      <c r="F2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.24457139941017503</v>
       </c>
-      <c r="G2" s="117">
+      <c r="G2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.23269074767298425</v>
       </c>
@@ -36436,23 +36434,23 @@
       <c r="B3" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="117">
+      <c r="C3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
         <v>0.32228430019523346</v>
       </c>
-      <c r="D3" s="117">
+      <c r="D3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
         <v>0.32228430019523346</v>
       </c>
-      <c r="E3" s="117">
+      <c r="E3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
         <v>0.35908666207150708</v>
       </c>
-      <c r="F3" s="117">
+      <c r="F3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
         <v>0.37651189492768178</v>
       </c>
-      <c r="G3" s="117">
+      <c r="G3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
         <v>0.37372365733745416</v>
       </c>
@@ -36520,23 +36518,23 @@
       <c r="B8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="117">
+      <c r="C8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.6241955901533508</v>
       </c>
-      <c r="D8" s="117">
+      <c r="D8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.6241955901533508</v>
       </c>
-      <c r="E8" s="117">
+      <c r="E8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.68355843805440353</v>
       </c>
-      <c r="F8" s="117">
+      <c r="F8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.73228840888273117</v>
       </c>
-      <c r="G8" s="117">
+      <c r="G8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.81212055177975573</v>
       </c>
@@ -36545,23 +36543,23 @@
       <c r="B9" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="117">
+      <c r="C9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
         <v>0.28180440984664923</v>
       </c>
-      <c r="D9" s="117">
+      <c r="D9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
         <v>0.28180440984664923</v>
       </c>
-      <c r="E9" s="117">
+      <c r="E9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
         <v>0.2466938696379041</v>
       </c>
-      <c r="F9" s="117">
+      <c r="F9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
         <v>0.21506846670192739</v>
       </c>
-      <c r="G9" s="117">
+      <c r="G9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
         <v>0.15821429221536368</v>
       </c>
@@ -36712,55 +36710,55 @@
       <c r="B15" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="117">
+      <c r="C15" s="116">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="D15" s="117">
+      <c r="D15" s="116">
         <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E15" s="117">
+      <c r="E15" s="116">
         <f t="shared" si="0"/>
         <v>0.32801999999999998</v>
       </c>
-      <c r="F15" s="117">
+      <c r="F15" s="116">
         <f t="shared" si="0"/>
         <v>0.30639</v>
       </c>
-      <c r="G15" s="117">
+      <c r="G15" s="116">
         <f t="shared" si="0"/>
         <v>0.20314000000000002</v>
       </c>
-      <c r="H15" s="117">
+      <c r="H15" s="116">
         <f t="shared" si="0"/>
         <v>0.19865999999999998</v>
       </c>
-      <c r="I15" s="117">
+      <c r="I15" s="116">
         <f t="shared" si="0"/>
         <v>0.18773999999999999</v>
       </c>
-      <c r="J15" s="117">
+      <c r="J15" s="116">
         <f t="shared" si="0"/>
         <v>0.18185999999999999</v>
       </c>
-      <c r="K15" s="117">
+      <c r="K15" s="116">
         <f t="shared" si="0"/>
         <v>0.18564</v>
       </c>
-      <c r="L15" s="117">
+      <c r="L15" s="116">
         <f t="shared" si="0"/>
         <v>0.19865999999999998</v>
       </c>
-      <c r="M15" s="117">
+      <c r="M15" s="116">
         <f t="shared" si="0"/>
         <v>0.18773999999999999</v>
       </c>
-      <c r="N15" s="117">
+      <c r="N15" s="116">
         <f t="shared" si="0"/>
         <v>0.18185999999999999</v>
       </c>
-      <c r="O15" s="117">
+      <c r="O15" s="116">
         <f t="shared" si="0"/>
         <v>0.18564</v>
       </c>
@@ -36798,13 +36796,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="str">
         <f>"Pourcentage des enfants dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -36895,23 +36893,23 @@
       <c r="B5" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="117">
+      <c r="C5" s="116">
         <f>1-SUM(C2:C4)</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="D5" s="117">
+      <c r="D5" s="116">
         <f t="shared" ref="D5:G5" si="0">1-SUM(D2:D4)</f>
         <v>2.4399366085578356E-2</v>
       </c>
-      <c r="E5" s="117">
+      <c r="E5" s="116">
         <f t="shared" si="0"/>
         <v>1.8961838681699872E-2</v>
       </c>
-      <c r="F5" s="117">
+      <c r="F5" s="116">
         <f t="shared" si="0"/>
         <v>0.27800000000000002</v>
       </c>
-      <c r="G5" s="117">
+      <c r="G5" s="116">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -36934,13 +36932,13 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>133</v>
       </c>
@@ -37138,13 +37136,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -37217,15 +37215,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="28" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="28"/>
+    <col min="2" max="2" width="19.21875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>151</v>
       </c>
@@ -37242,7 +37240,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>157</v>
       </c>
@@ -37316,7 +37314,7 @@
       <c r="D7" s="33"/>
       <c r="E7" s="63"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>158</v>
       </c>
@@ -37386,7 +37384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>159</v>
       </c>
@@ -37480,15 +37478,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>5</v>
       </c>
@@ -37502,7 +37500,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>160</v>
       </c>
@@ -37514,7 +37512,7 @@
       </c>
       <c r="D2" s="63"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>164</v>
       </c>

--- a/inputs/fr/demo_testing_input.xlsx
+++ b/inputs/fr/demo_testing_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F608A0C1-3BEB-4CF1-A087-74FDFED0B8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257D1F75-CAC0-4821-9393-86199A8F55A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -2909,15 +2909,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="728">
@@ -5093,18 +5093,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="38.7265625" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="8"/>
+    <col min="1" max="1" width="27.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -5115,14 +5115,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
@@ -5131,7 +5131,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
@@ -5140,7 +5140,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -5209,7 +5209,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
@@ -5252,7 +5252,7 @@
       <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="116">
+      <c r="C20" s="115">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
         <v>0</v>
       </c>
@@ -5340,17 +5340,17 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="115">
+      <c r="C33" s="114">
         <f>SUM(C29:C32)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -5454,7 +5454,7 @@
       <c r="B48" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="116">
+      <c r="C48" s="115">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
         <v>0.495</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5578,19 +5578,19 @@
       <selection activeCell="F2" sqref="F2:G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="40" customWidth="1"/>
     <col min="2" max="2" width="20" style="28" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="36.26953125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="36.21875" style="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="14.453125" style="28"/>
+    <col min="7" max="7" width="22.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>160</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>157</v>
       </c>
@@ -6518,19 +6518,19 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="28"/>
+    <col min="2" max="2" width="47.77734375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -6671,13 +6671,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1796875" style="28" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="28"/>
+    <col min="1" max="1" width="30.21875" style="28" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -6770,7 +6770,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -6885,19 +6885,19 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>211</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>86</v>
       </c>
@@ -7505,7 +7505,7 @@
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>100</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>169</v>
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>180</v>
@@ -7650,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>181</v>
@@ -7886,7 +7886,7 @@
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>75</v>
       </c>
@@ -8136,7 +8136,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>210</v>
       </c>
@@ -8644,7 +8644,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
@@ -8683,16 +8683,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7265625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="28" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="28"/>
-    <col min="5" max="5" width="17.453125" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="28"/>
+    <col min="1" max="1" width="33.77734375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="28" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="28"/>
+    <col min="5" max="5" width="17.44140625" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>216</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>217</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>218</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>219</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>220</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>3</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>221</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>222</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>223</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>224</v>
       </c>
@@ -8890,20 +8890,20 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.81640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" style="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="43" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.1796875" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.26953125" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.81640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.1796875" style="43"/>
+    <col min="6" max="7" width="13.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.77734375" style="43" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.21875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>211</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>86</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="40" t="s">
         <v>171</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="40" t="s">
         <v>157</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="40" t="s">
         <v>158</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="40" t="s">
         <v>159</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="40" t="s">
         <v>184</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="40" t="s">
         <v>185</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="40" t="s">
         <v>189</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="40" t="s">
         <v>191</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="40" t="s">
         <v>192</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
         <v>205</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="40" t="s">
         <v>161</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="40" t="s">
         <v>193</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="40" t="s">
         <v>199</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="40" t="s">
         <v>200</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="40"/>
       <c r="C17" s="99"/>
       <c r="D17" s="99"/>
@@ -9629,7 +9629,7 @@
       <c r="N17" s="99"/>
       <c r="O17" s="99"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>100</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" s="40" t="s">
         <v>169</v>
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="73" t="s">
         <v>180</v>
       </c>
@@ -9765,7 +9765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="73" t="s">
         <v>181</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="74" t="s">
         <v>182</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="40" t="s">
         <v>187</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="40" t="s">
         <v>188</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="40" t="s">
         <v>190</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="40"/>
       <c r="C26" s="99"/>
       <c r="D26" s="99"/>
@@ -10001,7 +10001,7 @@
       <c r="N26" s="99"/>
       <c r="O26" s="99"/>
     </row>
-    <row r="27" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
         <v>75</v>
       </c>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="P27" s="75"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="46" t="s">
         <v>176</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
       <c r="B29" s="46" t="s">
         <v>177</v>
@@ -10138,7 +10138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="46" t="s">
         <v>178</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="46" t="s">
         <v>179</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="40"/>
       <c r="C32" s="100"/>
       <c r="D32" s="100"/>
@@ -10242,7 +10242,7 @@
       <c r="N32" s="99"/>
       <c r="O32" s="99"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
         <v>210</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="40" t="s">
         <v>174</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="40" t="s">
         <v>175</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="40" t="s">
         <v>183</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="40" t="s">
         <v>186</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="40" t="s">
         <v>194</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="40" t="s">
         <v>195</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="40" t="s">
         <v>196</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="40" t="s">
         <v>197</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="40" t="s">
         <v>198</v>
       </c>
@@ -10702,22 +10702,21 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="58.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -11469,22 +11468,21 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="16.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>230</v>
       </c>
@@ -11843,14 +11841,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="8" customWidth="1"/>
-    <col min="2" max="9" width="16.81640625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="8"/>
+    <col min="1" max="1" width="8.44140625" style="8" customWidth="1"/>
+    <col min="2" max="9" width="16.77734375" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>76</v>
       </c>
@@ -12938,15 +12936,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.1796875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="48.21875" style="28" customWidth="1"/>
     <col min="2" max="2" width="15" style="28" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="12.7265625" style="28"/>
+    <col min="3" max="3" width="14.77734375" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>231</v>
       </c>
@@ -12972,11 +12970,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -12999,7 +12997,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="114"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="28" t="s">
         <v>154</v>
       </c>
@@ -13021,7 +13019,7 @@
       <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="114"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="28" t="s">
         <v>155</v>
       </c>
@@ -13043,7 +13041,7 @@
       <c r="J4" s="76"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="28" t="s">
@@ -13067,7 +13065,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="114"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="28" t="s">
         <v>154</v>
       </c>
@@ -13088,7 +13086,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="114"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="28" t="s">
         <v>155</v>
       </c>
@@ -13109,7 +13107,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="28" t="s">
@@ -13132,7 +13130,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="114"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="28" t="s">
         <v>154</v>
       </c>
@@ -13153,7 +13151,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="114"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="28" t="s">
         <v>155</v>
       </c>
@@ -13174,7 +13172,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -13197,7 +13195,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="114"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="28" t="s">
         <v>154</v>
       </c>
@@ -13218,7 +13216,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="114"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="28" t="s">
         <v>155</v>
       </c>
@@ -13239,7 +13237,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -13262,7 +13260,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="114"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="28" t="s">
         <v>154</v>
       </c>
@@ -13283,7 +13281,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="114"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="28" t="s">
         <v>155</v>
       </c>
@@ -13303,7 +13301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="77" t="s">
         <v>156</v>
       </c>
@@ -13333,11 +13331,11 @@
       <c r="G18" s="101"/>
       <c r="H18" s="101"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C19" s="28" t="s">
@@ -13360,7 +13358,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="114"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="28" t="s">
         <v>154</v>
       </c>
@@ -13381,7 +13379,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="114"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="28" t="s">
         <v>155</v>
       </c>
@@ -13402,7 +13400,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="114" t="s">
+      <c r="B22" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C22" s="28" t="s">
@@ -13425,7 +13423,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="114"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="28" t="s">
         <v>154</v>
       </c>
@@ -13446,7 +13444,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="114"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="28" t="s">
         <v>155</v>
       </c>
@@ -13467,7 +13465,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -13490,7 +13488,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="114"/>
+      <c r="B26" s="117"/>
       <c r="C26" s="28" t="s">
         <v>154</v>
       </c>
@@ -13511,7 +13509,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="114"/>
+      <c r="B27" s="117"/>
       <c r="C27" s="28" t="s">
         <v>155</v>
       </c>
@@ -13532,7 +13530,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="114" t="s">
+      <c r="B28" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="28" t="s">
@@ -13555,7 +13553,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="114"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="28" t="s">
         <v>154</v>
       </c>
@@ -13576,7 +13574,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="114"/>
+      <c r="B30" s="117"/>
       <c r="C30" s="28" t="s">
         <v>155</v>
       </c>
@@ -13597,7 +13595,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="114" t="s">
+      <c r="B31" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -13620,7 +13618,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="114"/>
+      <c r="B32" s="117"/>
       <c r="C32" s="28" t="s">
         <v>154</v>
       </c>
@@ -13641,7 +13639,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="114"/>
+      <c r="B33" s="117"/>
       <c r="C33" s="28" t="s">
         <v>155</v>
       </c>
@@ -13661,7 +13659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="77" t="s">
         <v>156</v>
       </c>
@@ -13691,11 +13689,11 @@
       <c r="G35" s="101"/>
       <c r="H35" s="101"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="78" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="114" t="s">
+      <c r="B36" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="28" t="s">
@@ -13718,7 +13716,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="114"/>
+      <c r="B37" s="117"/>
       <c r="C37" s="28" t="s">
         <v>154</v>
       </c>
@@ -13739,7 +13737,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="114"/>
+      <c r="B38" s="117"/>
       <c r="C38" s="28" t="s">
         <v>155</v>
       </c>
@@ -13760,7 +13758,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="114" t="s">
+      <c r="B39" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C39" s="28" t="s">
@@ -13783,7 +13781,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="114"/>
+      <c r="B40" s="117"/>
       <c r="C40" s="28" t="s">
         <v>154</v>
       </c>
@@ -13804,7 +13802,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="114"/>
+      <c r="B41" s="117"/>
       <c r="C41" s="28" t="s">
         <v>155</v>
       </c>
@@ -13825,7 +13823,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="114" t="s">
+      <c r="B42" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="28" t="s">
@@ -13848,7 +13846,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="114"/>
+      <c r="B43" s="117"/>
       <c r="C43" s="28" t="s">
         <v>154</v>
       </c>
@@ -13869,7 +13867,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="114"/>
+      <c r="B44" s="117"/>
       <c r="C44" s="28" t="s">
         <v>155</v>
       </c>
@@ -13890,7 +13888,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="114" t="s">
+      <c r="B45" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C45" s="28" t="s">
@@ -13913,7 +13911,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="114"/>
+      <c r="B46" s="117"/>
       <c r="C46" s="28" t="s">
         <v>154</v>
       </c>
@@ -13934,7 +13932,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="114"/>
+      <c r="B47" s="117"/>
       <c r="C47" s="28" t="s">
         <v>155</v>
       </c>
@@ -13955,7 +13953,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="114" t="s">
+      <c r="B48" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C48" s="28" t="s">
@@ -13978,7 +13976,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="114"/>
+      <c r="B49" s="117"/>
       <c r="C49" s="28" t="s">
         <v>154</v>
       </c>
@@ -13999,7 +13997,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="114"/>
+      <c r="B50" s="117"/>
       <c r="C50" s="28" t="s">
         <v>155</v>
       </c>
@@ -14019,7 +14017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="77" t="s">
         <v>156</v>
       </c>
@@ -14042,7 +14040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="107" t="s">
         <v>235</v>
       </c>
@@ -14054,7 +14052,7 @@
       <c r="G53" s="107"/>
       <c r="H53" s="107"/>
     </row>
-    <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>231</v>
       </c>
@@ -14080,11 +14078,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="B55" s="114" t="s">
+      <c r="B55" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C55" s="28" t="s">
@@ -14112,7 +14110,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="114"/>
+      <c r="B56" s="117"/>
       <c r="C56" s="28" t="s">
         <v>154</v>
       </c>
@@ -14138,7 +14136,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="114"/>
+      <c r="B57" s="117"/>
       <c r="C57" s="28" t="s">
         <v>155</v>
       </c>
@@ -14164,7 +14162,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="114" t="s">
+      <c r="B58" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="28" t="s">
@@ -14192,7 +14190,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="114"/>
+      <c r="B59" s="117"/>
       <c r="C59" s="28" t="s">
         <v>154</v>
       </c>
@@ -14218,7 +14216,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="114"/>
+      <c r="B60" s="117"/>
       <c r="C60" s="28" t="s">
         <v>155</v>
       </c>
@@ -14244,7 +14242,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="114" t="s">
+      <c r="B61" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C61" s="28" t="s">
@@ -14272,7 +14270,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="114"/>
+      <c r="B62" s="117"/>
       <c r="C62" s="28" t="s">
         <v>154</v>
       </c>
@@ -14298,7 +14296,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="114"/>
+      <c r="B63" s="117"/>
       <c r="C63" s="28" t="s">
         <v>155</v>
       </c>
@@ -14324,7 +14322,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="114" t="s">
+      <c r="B64" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C64" s="28" t="s">
@@ -14352,7 +14350,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="114"/>
+      <c r="B65" s="117"/>
       <c r="C65" s="28" t="s">
         <v>154</v>
       </c>
@@ -14378,7 +14376,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="114"/>
+      <c r="B66" s="117"/>
       <c r="C66" s="28" t="s">
         <v>155</v>
       </c>
@@ -14404,7 +14402,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="114" t="s">
+      <c r="B67" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="28" t="s">
@@ -14432,7 +14430,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="114"/>
+      <c r="B68" s="117"/>
       <c r="C68" s="28" t="s">
         <v>154</v>
       </c>
@@ -14458,7 +14456,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="114"/>
+      <c r="B69" s="117"/>
       <c r="C69" s="28" t="s">
         <v>155</v>
       </c>
@@ -14483,7 +14481,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="77" t="s">
         <v>156</v>
       </c>
@@ -14518,11 +14516,11 @@
       <c r="G71" s="101"/>
       <c r="H71" s="101"/>
     </row>
-    <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="B72" s="114" t="s">
+      <c r="B72" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C72" s="28" t="s">
@@ -14550,7 +14548,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="114"/>
+      <c r="B73" s="117"/>
       <c r="C73" s="28" t="s">
         <v>154</v>
       </c>
@@ -14576,7 +14574,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="114"/>
+      <c r="B74" s="117"/>
       <c r="C74" s="28" t="s">
         <v>155</v>
       </c>
@@ -14602,7 +14600,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="114" t="s">
+      <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C75" s="28" t="s">
@@ -14630,7 +14628,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="114"/>
+      <c r="B76" s="117"/>
       <c r="C76" s="28" t="s">
         <v>154</v>
       </c>
@@ -14656,7 +14654,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="114"/>
+      <c r="B77" s="117"/>
       <c r="C77" s="28" t="s">
         <v>155</v>
       </c>
@@ -14682,7 +14680,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="114" t="s">
+      <c r="B78" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C78" s="28" t="s">
@@ -14710,7 +14708,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="114"/>
+      <c r="B79" s="117"/>
       <c r="C79" s="28" t="s">
         <v>154</v>
       </c>
@@ -14736,7 +14734,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="114"/>
+      <c r="B80" s="117"/>
       <c r="C80" s="28" t="s">
         <v>155</v>
       </c>
@@ -14762,7 +14760,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="114" t="s">
+      <c r="B81" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C81" s="28" t="s">
@@ -14790,7 +14788,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="114"/>
+      <c r="B82" s="117"/>
       <c r="C82" s="28" t="s">
         <v>154</v>
       </c>
@@ -14816,7 +14814,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="114"/>
+      <c r="B83" s="117"/>
       <c r="C83" s="28" t="s">
         <v>155</v>
       </c>
@@ -14842,7 +14840,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="114" t="s">
+      <c r="B84" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C84" s="28" t="s">
@@ -14870,7 +14868,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="114"/>
+      <c r="B85" s="117"/>
       <c r="C85" s="28" t="s">
         <v>154</v>
       </c>
@@ -14896,7 +14894,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="114"/>
+      <c r="B86" s="117"/>
       <c r="C86" s="28" t="s">
         <v>155</v>
       </c>
@@ -14921,7 +14919,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" s="77" t="s">
         <v>156</v>
       </c>
@@ -14956,11 +14954,11 @@
       <c r="G88" s="101"/>
       <c r="H88" s="101"/>
     </row>
-    <row r="89" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="78" t="s">
         <v>238</v>
       </c>
-      <c r="B89" s="114" t="s">
+      <c r="B89" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C89" s="28" t="s">
@@ -14988,7 +14986,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="114"/>
+      <c r="B90" s="117"/>
       <c r="C90" s="28" t="s">
         <v>154</v>
       </c>
@@ -15014,7 +15012,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="114"/>
+      <c r="B91" s="117"/>
       <c r="C91" s="28" t="s">
         <v>155</v>
       </c>
@@ -15040,7 +15038,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="114" t="s">
+      <c r="B92" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C92" s="28" t="s">
@@ -15068,7 +15066,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="114"/>
+      <c r="B93" s="117"/>
       <c r="C93" s="28" t="s">
         <v>154</v>
       </c>
@@ -15094,7 +15092,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="114"/>
+      <c r="B94" s="117"/>
       <c r="C94" s="28" t="s">
         <v>155</v>
       </c>
@@ -15120,7 +15118,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="114" t="s">
+      <c r="B95" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C95" s="28" t="s">
@@ -15148,7 +15146,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="114"/>
+      <c r="B96" s="117"/>
       <c r="C96" s="28" t="s">
         <v>154</v>
       </c>
@@ -15174,7 +15172,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="114"/>
+      <c r="B97" s="117"/>
       <c r="C97" s="28" t="s">
         <v>155</v>
       </c>
@@ -15200,7 +15198,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="114" t="s">
+      <c r="B98" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C98" s="28" t="s">
@@ -15228,7 +15226,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="114"/>
+      <c r="B99" s="117"/>
       <c r="C99" s="28" t="s">
         <v>154</v>
       </c>
@@ -15254,7 +15252,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="114"/>
+      <c r="B100" s="117"/>
       <c r="C100" s="28" t="s">
         <v>155</v>
       </c>
@@ -15280,7 +15278,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="114" t="s">
+      <c r="B101" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C101" s="28" t="s">
@@ -15308,7 +15306,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="114"/>
+      <c r="B102" s="117"/>
       <c r="C102" s="28" t="s">
         <v>154</v>
       </c>
@@ -15334,7 +15332,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="114"/>
+      <c r="B103" s="117"/>
       <c r="C103" s="28" t="s">
         <v>155</v>
       </c>
@@ -15359,7 +15357,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B104" s="77" t="s">
         <v>156</v>
       </c>
@@ -15387,7 +15385,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="107" t="s">
         <v>239</v>
       </c>
@@ -15399,7 +15397,7 @@
       <c r="G106" s="107"/>
       <c r="H106" s="107"/>
     </row>
-    <row r="107" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
         <v>231</v>
       </c>
@@ -15425,11 +15423,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="114" t="s">
+      <c r="B108" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C108" s="28" t="s">
@@ -15457,7 +15455,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="114"/>
+      <c r="B109" s="117"/>
       <c r="C109" s="28" t="s">
         <v>154</v>
       </c>
@@ -15483,7 +15481,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="114"/>
+      <c r="B110" s="117"/>
       <c r="C110" s="28" t="s">
         <v>155</v>
       </c>
@@ -15509,7 +15507,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="114" t="s">
+      <c r="B111" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C111" s="28" t="s">
@@ -15537,7 +15535,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="114"/>
+      <c r="B112" s="117"/>
       <c r="C112" s="28" t="s">
         <v>154</v>
       </c>
@@ -15563,7 +15561,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="114"/>
+      <c r="B113" s="117"/>
       <c r="C113" s="28" t="s">
         <v>155</v>
       </c>
@@ -15589,7 +15587,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="114" t="s">
+      <c r="B114" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C114" s="28" t="s">
@@ -15617,7 +15615,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="114"/>
+      <c r="B115" s="117"/>
       <c r="C115" s="28" t="s">
         <v>154</v>
       </c>
@@ -15643,7 +15641,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="114"/>
+      <c r="B116" s="117"/>
       <c r="C116" s="28" t="s">
         <v>155</v>
       </c>
@@ -15669,7 +15667,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="114" t="s">
+      <c r="B117" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C117" s="28" t="s">
@@ -15697,7 +15695,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="114"/>
+      <c r="B118" s="117"/>
       <c r="C118" s="28" t="s">
         <v>154</v>
       </c>
@@ -15723,7 +15721,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="114"/>
+      <c r="B119" s="117"/>
       <c r="C119" s="28" t="s">
         <v>155</v>
       </c>
@@ -15749,7 +15747,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="114" t="s">
+      <c r="B120" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C120" s="28" t="s">
@@ -15777,7 +15775,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="114"/>
+      <c r="B121" s="117"/>
       <c r="C121" s="28" t="s">
         <v>154</v>
       </c>
@@ -15803,7 +15801,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="114"/>
+      <c r="B122" s="117"/>
       <c r="C122" s="28" t="s">
         <v>155</v>
       </c>
@@ -15828,7 +15826,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B123" s="77" t="s">
         <v>156</v>
       </c>
@@ -15863,11 +15861,11 @@
       <c r="G124" s="101"/>
       <c r="H124" s="101"/>
     </row>
-    <row r="125" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="B125" s="114" t="s">
+      <c r="B125" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C125" s="28" t="s">
@@ -15895,7 +15893,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="114"/>
+      <c r="B126" s="117"/>
       <c r="C126" s="28" t="s">
         <v>154</v>
       </c>
@@ -15921,7 +15919,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="114"/>
+      <c r="B127" s="117"/>
       <c r="C127" s="28" t="s">
         <v>155</v>
       </c>
@@ -15947,7 +15945,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="114" t="s">
+      <c r="B128" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C128" s="28" t="s">
@@ -15975,7 +15973,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="114"/>
+      <c r="B129" s="117"/>
       <c r="C129" s="28" t="s">
         <v>154</v>
       </c>
@@ -16001,7 +15999,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="114"/>
+      <c r="B130" s="117"/>
       <c r="C130" s="28" t="s">
         <v>155</v>
       </c>
@@ -16027,7 +16025,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="114" t="s">
+      <c r="B131" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C131" s="28" t="s">
@@ -16055,7 +16053,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="114"/>
+      <c r="B132" s="117"/>
       <c r="C132" s="28" t="s">
         <v>154</v>
       </c>
@@ -16081,7 +16079,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="114"/>
+      <c r="B133" s="117"/>
       <c r="C133" s="28" t="s">
         <v>155</v>
       </c>
@@ -16107,7 +16105,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="114" t="s">
+      <c r="B134" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C134" s="28" t="s">
@@ -16135,7 +16133,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="114"/>
+      <c r="B135" s="117"/>
       <c r="C135" s="28" t="s">
         <v>154</v>
       </c>
@@ -16161,7 +16159,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="114"/>
+      <c r="B136" s="117"/>
       <c r="C136" s="28" t="s">
         <v>155</v>
       </c>
@@ -16187,7 +16185,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="114" t="s">
+      <c r="B137" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C137" s="28" t="s">
@@ -16215,7 +16213,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="114"/>
+      <c r="B138" s="117"/>
       <c r="C138" s="28" t="s">
         <v>154</v>
       </c>
@@ -16241,7 +16239,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="114"/>
+      <c r="B139" s="117"/>
       <c r="C139" s="28" t="s">
         <v>155</v>
       </c>
@@ -16266,7 +16264,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B140" s="77" t="s">
         <v>156</v>
       </c>
@@ -16301,11 +16299,11 @@
       <c r="G141" s="101"/>
       <c r="H141" s="101"/>
     </row>
-    <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="78" t="s">
         <v>242</v>
       </c>
-      <c r="B142" s="114" t="s">
+      <c r="B142" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C142" s="28" t="s">
@@ -16333,7 +16331,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="114"/>
+      <c r="B143" s="117"/>
       <c r="C143" s="28" t="s">
         <v>154</v>
       </c>
@@ -16359,7 +16357,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="114"/>
+      <c r="B144" s="117"/>
       <c r="C144" s="28" t="s">
         <v>155</v>
       </c>
@@ -16385,7 +16383,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="114" t="s">
+      <c r="B145" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C145" s="28" t="s">
@@ -16413,7 +16411,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="114"/>
+      <c r="B146" s="117"/>
       <c r="C146" s="28" t="s">
         <v>154</v>
       </c>
@@ -16439,7 +16437,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="114"/>
+      <c r="B147" s="117"/>
       <c r="C147" s="28" t="s">
         <v>155</v>
       </c>
@@ -16465,7 +16463,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="114" t="s">
+      <c r="B148" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C148" s="28" t="s">
@@ -16493,7 +16491,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="114"/>
+      <c r="B149" s="117"/>
       <c r="C149" s="28" t="s">
         <v>154</v>
       </c>
@@ -16519,7 +16517,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="114"/>
+      <c r="B150" s="117"/>
       <c r="C150" s="28" t="s">
         <v>155</v>
       </c>
@@ -16545,7 +16543,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="114" t="s">
+      <c r="B151" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C151" s="28" t="s">
@@ -16573,7 +16571,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="114"/>
+      <c r="B152" s="117"/>
       <c r="C152" s="28" t="s">
         <v>154</v>
       </c>
@@ -16599,7 +16597,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="114"/>
+      <c r="B153" s="117"/>
       <c r="C153" s="28" t="s">
         <v>155</v>
       </c>
@@ -16625,7 +16623,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="114" t="s">
+      <c r="B154" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C154" s="28" t="s">
@@ -16653,7 +16651,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="114"/>
+      <c r="B155" s="117"/>
       <c r="C155" s="28" t="s">
         <v>154</v>
       </c>
@@ -16679,7 +16677,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="114"/>
+      <c r="B156" s="117"/>
       <c r="C156" s="28" t="s">
         <v>155</v>
       </c>
@@ -16704,7 +16702,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="77" t="s">
         <v>156</v>
       </c>
@@ -16735,6 +16733,42 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="d5TbHPQi63nwx2Wq5JJSqukalmMv3C31IJEOC6Ln2RHu+2wV3FQIapEnZTD1R3DDEUxGNC0W0Oqhkaf0Boqebg==" saltValue="VXHqyG/n1ojfTzC/S0zfNA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -16744,42 +16778,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -16800,22 +16798,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="34.1796875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="28" customWidth="1"/>
     <col min="5" max="6" width="15" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="16.1796875" style="28"/>
+    <col min="7" max="16384" width="16.21875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="81"/>
       <c r="C2" s="82" t="s">
         <v>54</v>
@@ -16830,7 +16828,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>244</v>
       </c>
@@ -16914,7 +16912,7 @@
       <c r="E8" s="76"/>
       <c r="F8" s="76"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>249</v>
       </c>
@@ -16937,7 +16935,7 @@
       <c r="E10" s="76"/>
       <c r="F10" s="76"/>
     </row>
-    <row r="11" spans="1:6" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>245</v>
       </c>
@@ -16946,7 +16944,7 @@
       <c r="E11" s="89"/>
       <c r="F11" s="89"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>246</v>
       </c>
@@ -17006,7 +17004,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="46"/>
       <c r="C16" s="90"/>
@@ -17014,7 +17012,7 @@
       <c r="E16" s="76"/>
       <c r="F16" s="76"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>248</v>
       </c>
@@ -17163,7 +17161,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="46"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="107" t="s">
         <v>235</v>
       </c>
@@ -17173,12 +17171,12 @@
       <c r="E27" s="110"/>
       <c r="F27" s="110"/>
     </row>
-    <row r="28" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="81"/>
       <c r="C29" s="82" t="s">
         <v>54</v>
@@ -17193,7 +17191,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>250</v>
       </c>
@@ -17293,7 +17291,7 @@
       <c r="E35" s="76"/>
       <c r="F35" s="76"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>262</v>
       </c>
@@ -17314,7 +17312,7 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="79" t="s">
         <v>245</v>
       </c>
@@ -17324,7 +17322,7 @@
       <c r="E38" s="89"/>
       <c r="F38" s="89"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>251</v>
       </c>
@@ -17396,7 +17394,7 @@
         <v>2.9330000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
       <c r="B43" s="46"/>
       <c r="C43" s="90"/>
@@ -17404,7 +17402,7 @@
       <c r="E43" s="76"/>
       <c r="F43" s="76"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>252</v>
       </c>
@@ -17582,7 +17580,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="107" t="s">
         <v>239</v>
       </c>
@@ -17592,12 +17590,12 @@
       <c r="E54" s="110"/>
       <c r="F54" s="110"/>
     </row>
-    <row r="55" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="79" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="81"/>
       <c r="C56" s="82" t="s">
         <v>54</v>
@@ -17612,7 +17610,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>253</v>
       </c>
@@ -17712,7 +17710,7 @@
       <c r="E62" s="76"/>
       <c r="F62" s="76"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>263</v>
       </c>
@@ -17733,7 +17731,7 @@
         <v>1.9890000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="79" t="s">
         <v>245</v>
       </c>
@@ -17743,7 +17741,7 @@
       <c r="E65" s="89"/>
       <c r="F65" s="89"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>254</v>
       </c>
@@ -17815,7 +17813,7 @@
         <v>5.447000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30"/>
       <c r="B70" s="46"/>
       <c r="C70" s="90"/>
@@ -17823,7 +17821,7 @@
       <c r="E70" s="76"/>
       <c r="F70" s="76"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
         <v>255</v>
       </c>
@@ -18022,23 +18020,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" style="28" customWidth="1"/>
-    <col min="4" max="8" width="14.7265625" style="28" customWidth="1"/>
-    <col min="9" max="12" width="15.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="27.21875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" style="28" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="28" customWidth="1"/>
+    <col min="9" max="12" width="15.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
         <v>226</v>
       </c>
@@ -18072,7 +18070,7 @@
       <c r="O2" s="94"/>
       <c r="P2" s="94"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="28" t="s">
         <v>87</v>
@@ -18505,7 +18503,7 @@
       <c r="O17" s="93"/>
       <c r="P17" s="93"/>
     </row>
-    <row r="18" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="32" t="s">
         <v>269</v>
       </c>
@@ -18763,12 +18761,12 @@
       <c r="O26" s="93"/>
       <c r="P26" s="93"/>
     </row>
-    <row r="28" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="93" t="s">
         <v>279</v>
       </c>
@@ -18802,7 +18800,7 @@
       <c r="O29" s="94"/>
       <c r="P29" s="94"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
       <c r="B30" s="28" t="s">
         <v>87</v>
@@ -19497,12 +19495,12 @@
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
     </row>
-    <row r="55" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="79" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="93" t="s">
         <v>121</v>
       </c>
@@ -19530,7 +19528,7 @@
       <c r="O56" s="94"/>
       <c r="P56" s="94"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
       <c r="B57" s="28" t="s">
         <v>101</v>
@@ -19676,12 +19674,12 @@
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
     </row>
-    <row r="64" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="79" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="93" t="s">
         <v>128</v>
       </c>
@@ -19715,7 +19713,7 @@
       <c r="O65" s="94"/>
       <c r="P65" s="94"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="97"/>
       <c r="B66" s="28" t="s">
         <v>78</v>
@@ -20751,12 +20749,12 @@
       <c r="O101" s="93"/>
       <c r="P101" s="93"/>
     </row>
-    <row r="103" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="79" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="93" t="s">
         <v>87</v>
       </c>
@@ -20790,7 +20788,7 @@
       <c r="O104" s="94"/>
       <c r="P104" s="94"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="30"/>
       <c r="C105" s="32" t="s">
         <v>129</v>
@@ -20903,13 +20901,13 @@
       <c r="O108" s="93"/>
       <c r="P108" s="93"/>
     </row>
-    <row r="110" spans="1:16" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="107" t="s">
         <v>235</v>
       </c>
       <c r="H110" s="107"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="79" t="s">
         <v>264</v>
       </c>
@@ -20921,7 +20919,7 @@
       <c r="G111" s="80"/>
       <c r="H111" s="80"/>
     </row>
-    <row r="112" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="93" t="s">
         <v>226</v>
       </c>
@@ -20947,7 +20945,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="30"/>
       <c r="B113" s="28" t="s">
         <v>87</v>
@@ -21566,7 +21564,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="79" t="s">
         <v>278</v>
       </c>
@@ -21578,7 +21576,7 @@
       <c r="G138" s="80"/>
       <c r="H138" s="80"/>
     </row>
-    <row r="139" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="93" t="s">
         <v>279</v>
       </c>
@@ -21604,7 +21602,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="30"/>
       <c r="B140" s="28" t="s">
         <v>87</v>
@@ -22227,7 +22225,7 @@
       <c r="C164" s="32"/>
       <c r="D164" s="32"/>
     </row>
-    <row r="165" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="79" t="s">
         <v>271</v>
       </c>
@@ -22239,7 +22237,7 @@
       <c r="G165" s="80"/>
       <c r="H165" s="80"/>
     </row>
-    <row r="166" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A166" s="93" t="s">
         <v>121</v>
       </c>
@@ -22263,7 +22261,7 @@
       </c>
       <c r="H166" s="94"/>
     </row>
-    <row r="167" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="30"/>
       <c r="B167" s="28" t="s">
         <v>101</v>
@@ -22409,7 +22407,7 @@
       <c r="C173" s="32"/>
       <c r="D173" s="32"/>
     </row>
-    <row r="174" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="79" t="s">
         <v>275</v>
       </c>
@@ -22421,7 +22419,7 @@
       <c r="G174" s="80"/>
       <c r="H174" s="80"/>
     </row>
-    <row r="175" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A175" s="93" t="s">
         <v>128</v>
       </c>
@@ -22447,7 +22445,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="97"/>
       <c r="B176" s="28" t="s">
         <v>78</v>
@@ -23339,7 +23337,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="79" t="s">
         <v>277</v>
       </c>
@@ -23351,7 +23349,7 @@
       <c r="G213" s="80"/>
       <c r="H213" s="80"/>
     </row>
-    <row r="214" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A214" s="93" t="s">
         <v>87</v>
       </c>
@@ -23377,7 +23375,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="30"/>
       <c r="C215" s="32" t="s">
         <v>129</v>
@@ -23474,13 +23472,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="107" t="s">
         <v>239</v>
       </c>
       <c r="H220" s="107"/>
     </row>
-    <row r="221" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="79" t="s">
         <v>264</v>
       </c>
@@ -23493,7 +23491,7 @@
       <c r="H221" s="80"/>
       <c r="I221" s="80"/>
     </row>
-    <row r="222" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="93" t="s">
         <v>226</v>
       </c>
@@ -23520,7 +23518,7 @@
       </c>
       <c r="I222" s="94"/>
     </row>
-    <row r="223" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="30"/>
       <c r="B223" s="28" t="s">
         <v>87</v>
@@ -24163,7 +24161,7 @@
       </c>
       <c r="I246" s="93"/>
     </row>
-    <row r="248" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="79" t="s">
         <v>278</v>
       </c>
@@ -24176,7 +24174,7 @@
       <c r="H248" s="80"/>
       <c r="I248" s="80"/>
     </row>
-    <row r="249" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="93" t="s">
         <v>279</v>
       </c>
@@ -24203,7 +24201,7 @@
       </c>
       <c r="I249" s="94"/>
     </row>
-    <row r="250" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="30"/>
       <c r="B250" s="28" t="s">
         <v>87</v>
@@ -24850,7 +24848,7 @@
       <c r="C274" s="32"/>
       <c r="D274" s="32"/>
     </row>
-    <row r="275" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="79" t="s">
         <v>271</v>
       </c>
@@ -24863,7 +24861,7 @@
       <c r="H275" s="80"/>
       <c r="I275" s="80"/>
     </row>
-    <row r="276" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A276" s="93" t="s">
         <v>121</v>
       </c>
@@ -24887,7 +24885,7 @@
       </c>
       <c r="H276" s="94"/>
     </row>
-    <row r="277" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="30"/>
       <c r="B277" s="28" t="s">
         <v>101</v>
@@ -25033,7 +25031,7 @@
       <c r="C283" s="32"/>
       <c r="D283" s="32"/>
     </row>
-    <row r="284" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="79" t="s">
         <v>275</v>
       </c>
@@ -25046,7 +25044,7 @@
       <c r="H284" s="80"/>
       <c r="I284" s="80"/>
     </row>
-    <row r="285" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A285" s="93" t="s">
         <v>128</v>
       </c>
@@ -25073,7 +25071,7 @@
       </c>
       <c r="I285" s="94"/>
     </row>
-    <row r="286" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="97"/>
       <c r="B286" s="28" t="s">
         <v>78</v>
@@ -26001,7 +25999,7 @@
       </c>
       <c r="I321" s="93"/>
     </row>
-    <row r="323" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="79" t="s">
         <v>277</v>
       </c>
@@ -26014,7 +26012,7 @@
       <c r="H323" s="80"/>
       <c r="I323" s="80"/>
     </row>
-    <row r="324" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A324" s="93" t="s">
         <v>87</v>
       </c>
@@ -26041,7 +26039,7 @@
       </c>
       <c r="I324" s="94"/>
     </row>
-    <row r="325" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="30"/>
       <c r="C325" s="32" t="s">
         <v>129</v>
@@ -26163,24 +26161,24 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.81640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="44.77734375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="28" customWidth="1"/>
     <col min="6" max="6" width="15" style="28" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.7265625" style="28"/>
+    <col min="7" max="7" width="13.77734375" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="97" t="s">
         <v>0</v>
       </c>
@@ -26221,7 +26219,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="73" t="s">
         <v>281</v>
@@ -26242,7 +26240,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>282</v>
       </c>
@@ -26335,12 +26333,12 @@
       <c r="F10" s="73"/>
       <c r="G10" s="73"/>
     </row>
-    <row r="11" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="84"/>
       <c r="B12" s="46" t="s">
         <v>184</v>
@@ -26361,16 +26359,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="84"/>
       <c r="B13" s="46"/>
     </row>
-    <row r="14" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="97" t="s">
         <v>279</v>
       </c>
@@ -26393,7 +26391,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="73" t="s">
         <v>287</v>
@@ -26414,7 +26412,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="97" t="s">
         <v>121</v>
       </c>
@@ -26438,12 +26436,12 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="79" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="44" t="s">
         <v>69</v>
       </c>
@@ -26474,12 +26472,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="107" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="79" t="s">
         <v>233</v>
       </c>
@@ -26490,7 +26488,7 @@
       <c r="F24" s="80"/>
       <c r="G24" s="80"/>
     </row>
-    <row r="25" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="97" t="s">
         <v>0</v>
       </c>
@@ -26535,7 +26533,7 @@
         <v>157.22999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
       <c r="B27" s="73" t="s">
         <v>290</v>
@@ -26561,7 +26559,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="84" t="s">
         <v>291</v>
       </c>
@@ -26674,7 +26672,7 @@
       <c r="F33" s="73"/>
       <c r="G33" s="73"/>
     </row>
-    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="79" t="s">
         <v>295</v>
       </c>
@@ -26685,7 +26683,7 @@
       <c r="F34" s="80"/>
       <c r="G34" s="80"/>
     </row>
-    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="84"/>
       <c r="B35" s="46" t="s">
         <v>296</v>
@@ -26708,11 +26706,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="84"/>
       <c r="B36" s="46"/>
     </row>
-    <row r="37" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="79" t="s">
         <v>283</v>
       </c>
@@ -26723,7 +26721,7 @@
       <c r="F37" s="80"/>
       <c r="G37" s="80"/>
     </row>
-    <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="97" t="s">
         <v>279</v>
       </c>
@@ -26751,7 +26749,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
       <c r="B39" s="73" t="s">
         <v>298</v>
@@ -26777,7 +26775,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="97" t="s">
         <v>121</v>
       </c>
@@ -26805,7 +26803,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="79" t="s">
         <v>300</v>
       </c>
@@ -26816,7 +26814,7 @@
       <c r="F42" s="80"/>
       <c r="G42" s="80"/>
     </row>
-    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="84"/>
       <c r="B43" s="84"/>
       <c r="C43" s="44" t="s">
@@ -26854,12 +26852,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="107" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="79" t="s">
         <v>233</v>
       </c>
@@ -26870,7 +26868,7 @@
       <c r="F47" s="80"/>
       <c r="G47" s="80"/>
     </row>
-    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="97" t="s">
         <v>0</v>
       </c>
@@ -26915,7 +26913,7 @@
         <v>183.435</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
       <c r="B50" s="73" t="s">
         <v>303</v>
@@ -26941,7 +26939,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="84" t="s">
         <v>304</v>
       </c>
@@ -27054,7 +27052,7 @@
       <c r="F56" s="73"/>
       <c r="G56" s="73"/>
     </row>
-    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="79" t="s">
         <v>308</v>
       </c>
@@ -27065,7 +27063,7 @@
       <c r="F57" s="80"/>
       <c r="G57" s="80"/>
     </row>
-    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="84"/>
       <c r="B58" s="46" t="s">
         <v>309</v>
@@ -27088,11 +27086,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="84"/>
       <c r="B59" s="46"/>
     </row>
-    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="79" t="s">
         <v>283</v>
       </c>
@@ -27103,7 +27101,7 @@
       <c r="F60" s="80"/>
       <c r="G60" s="80"/>
     </row>
-    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="97" t="s">
         <v>279</v>
       </c>
@@ -27131,7 +27129,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
       <c r="B62" s="73" t="s">
         <v>311</v>
@@ -27157,7 +27155,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="97" t="s">
         <v>121</v>
       </c>
@@ -27185,7 +27183,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="79" t="s">
         <v>313</v>
       </c>
@@ -27196,7 +27194,7 @@
       <c r="F65" s="80"/>
       <c r="G65" s="80"/>
     </row>
-    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="84"/>
       <c r="B66" s="84"/>
       <c r="C66" s="44" t="s">
@@ -27256,16 +27254,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.26953125" style="28" customWidth="1"/>
-    <col min="2" max="6" width="16.1796875" style="28"/>
-    <col min="7" max="7" width="17.26953125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="16.1796875" style="28"/>
+    <col min="1" max="1" width="52.21875" style="28" customWidth="1"/>
+    <col min="2" max="6" width="16.21875" style="28"/>
+    <col min="7" max="7" width="17.21875" style="28" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="16.21875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>160</v>
       </c>
@@ -27511,12 +27509,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="107" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>160</v>
       </c>
@@ -27810,12 +27808,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="107" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>160</v>
       </c>
@@ -28130,15 +28128,15 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="58.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="28" customWidth="1"/>
-    <col min="16" max="16384" width="12.7265625" style="28"/>
+    <col min="16" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="83" t="s">
@@ -28181,7 +28179,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>319</v>
       </c>
@@ -28626,7 +28624,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="46" t="s">
         <v>189</v>
       </c>
@@ -28758,7 +28756,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>320</v>
       </c>
@@ -28940,12 +28938,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="107" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="83" t="s">
@@ -28988,7 +28986,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>321</v>
       </c>
@@ -29734,7 +29732,7 @@
         <v>0.29700000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>323</v>
       </c>
@@ -29968,12 +29966,12 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="107" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="83" t="s">
@@ -30016,7 +30014,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>322</v>
       </c>
@@ -30762,7 +30760,7 @@
         <v>0.34650000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>324</v>
       </c>
@@ -31017,15 +31015,15 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" style="28" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="21.21875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="28" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="42"/>
       <c r="C1" s="30" t="s">
@@ -31044,7 +31042,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>325</v>
       </c>
@@ -31069,7 +31067,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>326</v>
       </c>
@@ -31100,12 +31098,12 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="107" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="42"/>
       <c r="C8" s="30" t="s">
@@ -31124,7 +31122,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>327</v>
       </c>
@@ -31154,7 +31152,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>328</v>
       </c>
@@ -31190,12 +31188,12 @@
         <v>0.12869999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="107" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="42"/>
       <c r="C15" s="30" t="s">
@@ -31214,7 +31212,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>329</v>
       </c>
@@ -31244,7 +31242,7 @@
         <v>0.2205</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>330</v>
       </c>
@@ -31297,24 +31295,24 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="40" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="40" customWidth="1"/>
     <col min="4" max="4" width="15" style="28" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="28"/>
-    <col min="8" max="8" width="17.54296875" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="12.7265625" style="28"/>
+    <col min="5" max="5" width="13.77734375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="28"/>
+    <col min="8" max="8" width="17.5546875" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -31357,13 +31355,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="G2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="H2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -31377,13 +31375,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="G3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="H3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -31710,7 +31708,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="G18" s="105">
         <v>0.62</v>
@@ -31753,7 +31751,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="G20" s="105">
         <v>0.62</v>
@@ -31773,13 +31771,13 @@
         <v>334</v>
       </c>
       <c r="D21" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E21" s="105">
         <v>0</v>
       </c>
       <c r="F21" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G21" s="105">
         <v>0</v>
@@ -31799,7 +31797,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G22" s="105">
         <v>0</v>
@@ -31819,13 +31817,13 @@
         <v>334</v>
       </c>
       <c r="D23" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E23" s="105">
         <v>0</v>
       </c>
       <c r="F23" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G23" s="105">
         <v>0</v>
@@ -31845,7 +31843,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G24" s="105">
         <v>0</v>
@@ -31865,13 +31863,13 @@
         <v>334</v>
       </c>
       <c r="D25" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E25" s="105">
         <v>0</v>
       </c>
       <c r="F25" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G25" s="105">
         <v>0</v>
@@ -31891,7 +31889,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G26" s="105">
         <v>0</v>
@@ -31917,7 +31915,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G27" s="105">
         <v>1</v>
@@ -31937,7 +31935,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G28" s="105">
         <v>0</v>
@@ -31957,7 +31955,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G29" s="105">
         <v>0</v>
@@ -31983,7 +31981,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G30" s="105">
         <v>1</v>
@@ -32003,7 +32001,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G31" s="105">
         <v>0</v>
@@ -32023,7 +32021,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G32" s="105">
         <v>0</v>
@@ -32049,7 +32047,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G33" s="105">
         <v>1</v>
@@ -32069,7 +32067,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G34" s="105">
         <v>0</v>
@@ -32089,7 +32087,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G35" s="105">
         <v>0</v>
@@ -32115,7 +32113,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G36" s="105">
         <v>1</v>
@@ -32135,7 +32133,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G37" s="105">
         <v>0</v>
@@ -32155,7 +32153,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G38" s="105">
         <v>0</v>
@@ -32181,7 +32179,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G39" s="105">
         <v>1</v>
@@ -32201,7 +32199,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G40" s="105">
         <v>0</v>
@@ -32221,7 +32219,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G41" s="105">
         <v>0</v>
@@ -32247,7 +32245,7 @@
         <v>0.3</v>
       </c>
       <c r="F42" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G42" s="105">
         <v>0.3</v>
@@ -32267,7 +32265,7 @@
         <v>0.5</v>
       </c>
       <c r="F43" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G43" s="105">
         <v>0.5</v>
@@ -32287,7 +32285,7 @@
         <v>0.65</v>
       </c>
       <c r="F44" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="G44" s="105">
         <v>0.65</v>
@@ -32310,7 +32308,7 @@
         <v>0.3</v>
       </c>
       <c r="F45" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G45" s="105">
         <v>0.3</v>
@@ -32330,7 +32328,7 @@
         <v>0.49</v>
       </c>
       <c r="F46" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.49</v>
       </c>
       <c r="G46" s="105">
         <v>0.49</v>
@@ -32350,7 +32348,7 @@
         <v>0.52</v>
       </c>
       <c r="F47" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="G47" s="105">
         <v>0.52</v>
@@ -32376,7 +32374,7 @@
         <v>0.88</v>
       </c>
       <c r="F48" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.88</v>
       </c>
       <c r="G48" s="105">
         <v>0.88</v>
@@ -32390,19 +32388,19 @@
         <v>335</v>
       </c>
       <c r="D49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="E49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="F49" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="G49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="H49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -32416,19 +32414,19 @@
         <v>334</v>
       </c>
       <c r="D50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="E50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="F50" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="G50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="H50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -32442,7 +32440,7 @@
         <v>0.86</v>
       </c>
       <c r="F51" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="G51" s="105">
         <v>0.86</v>
@@ -32468,7 +32466,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F52" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G52" s="105">
         <v>0</v>
@@ -32488,7 +32486,7 @@
         <v>0.51</v>
       </c>
       <c r="F53" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G53" s="105">
         <v>0</v>
@@ -32497,14 +32495,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="111" t="s">
         <v>331</v>
       </c>
       <c r="B55" s="112"/>
       <c r="C55" s="112"/>
     </row>
-    <row r="56" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>160</v>
       </c>
@@ -32550,15 +32548,15 @@
       </c>
       <c r="F57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="G57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="H57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -32575,15 +32573,15 @@
       </c>
       <c r="F58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="G58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="H58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -32983,7 +32981,7 @@
       </c>
       <c r="F73" s="105">
         <f t="shared" si="5"/>
-        <v>0.30150000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="G73" s="105">
         <f t="shared" si="5"/>
@@ -33036,7 +33034,7 @@
       </c>
       <c r="F75" s="105">
         <f t="shared" si="7"/>
-        <v>0.30150000000000005</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="G75" s="105">
         <f t="shared" si="7"/>
@@ -33059,7 +33057,7 @@
       </c>
       <c r="D76" s="105">
         <f t="shared" ref="D76:H76" si="8">D21*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E76" s="105">
         <f t="shared" si="8"/>
@@ -33067,7 +33065,7 @@
       </c>
       <c r="F76" s="105">
         <f t="shared" si="8"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G76" s="105">
         <f t="shared" si="8"/>
@@ -33092,7 +33090,7 @@
       </c>
       <c r="F77" s="105">
         <f t="shared" si="9"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G77" s="105">
         <f t="shared" si="9"/>
@@ -33115,7 +33113,7 @@
       </c>
       <c r="D78" s="105">
         <f t="shared" ref="D78:H78" si="10">D23*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E78" s="105">
         <f t="shared" si="10"/>
@@ -33123,7 +33121,7 @@
       </c>
       <c r="F78" s="105">
         <f t="shared" si="10"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G78" s="105">
         <f t="shared" si="10"/>
@@ -33148,7 +33146,7 @@
       </c>
       <c r="F79" s="105">
         <f t="shared" si="11"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G79" s="105">
         <f t="shared" si="11"/>
@@ -33171,7 +33169,7 @@
       </c>
       <c r="D80" s="105">
         <f t="shared" ref="D80:H80" si="12">D25*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E80" s="105">
         <f t="shared" si="12"/>
@@ -33179,7 +33177,7 @@
       </c>
       <c r="F80" s="105">
         <f t="shared" si="12"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G80" s="105">
         <f t="shared" si="12"/>
@@ -33204,7 +33202,7 @@
       </c>
       <c r="F81" s="105">
         <f t="shared" si="13"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G81" s="105">
         <f t="shared" si="13"/>
@@ -33235,7 +33233,7 @@
       </c>
       <c r="F82" s="105">
         <f t="shared" si="14"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G82" s="105">
         <f t="shared" si="14"/>
@@ -33260,7 +33258,7 @@
       </c>
       <c r="F83" s="105">
         <f t="shared" si="15"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G83" s="105">
         <f t="shared" si="15"/>
@@ -33285,7 +33283,7 @@
       </c>
       <c r="F84" s="105">
         <f t="shared" si="16"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G84" s="105">
         <f t="shared" si="16"/>
@@ -33316,7 +33314,7 @@
       </c>
       <c r="F85" s="105">
         <f t="shared" si="17"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G85" s="105">
         <f t="shared" si="17"/>
@@ -33341,7 +33339,7 @@
       </c>
       <c r="F86" s="105">
         <f t="shared" si="18"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G86" s="105">
         <f t="shared" si="18"/>
@@ -33366,7 +33364,7 @@
       </c>
       <c r="F87" s="105">
         <f t="shared" si="19"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G87" s="105">
         <f t="shared" si="19"/>
@@ -33397,7 +33395,7 @@
       </c>
       <c r="F88" s="105">
         <f t="shared" si="20"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G88" s="105">
         <f t="shared" si="20"/>
@@ -33422,7 +33420,7 @@
       </c>
       <c r="F89" s="105">
         <f t="shared" si="21"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G89" s="105">
         <f t="shared" si="21"/>
@@ -33447,7 +33445,7 @@
       </c>
       <c r="F90" s="105">
         <f t="shared" si="22"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G90" s="105">
         <f t="shared" si="22"/>
@@ -33478,7 +33476,7 @@
       </c>
       <c r="F91" s="105">
         <f t="shared" si="23"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G91" s="105">
         <f t="shared" si="23"/>
@@ -33503,7 +33501,7 @@
       </c>
       <c r="F92" s="105">
         <f t="shared" si="24"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G92" s="105">
         <f t="shared" si="24"/>
@@ -33528,7 +33526,7 @@
       </c>
       <c r="F93" s="105">
         <f t="shared" si="25"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G93" s="105">
         <f t="shared" si="25"/>
@@ -33559,7 +33557,7 @@
       </c>
       <c r="F94" s="105">
         <f t="shared" si="26"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G94" s="105">
         <f t="shared" si="26"/>
@@ -33584,7 +33582,7 @@
       </c>
       <c r="F95" s="105">
         <f t="shared" si="27"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G95" s="105">
         <f t="shared" si="27"/>
@@ -33609,7 +33607,7 @@
       </c>
       <c r="F96" s="105">
         <f t="shared" si="28"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G96" s="105">
         <f t="shared" si="28"/>
@@ -33640,7 +33638,7 @@
       </c>
       <c r="F97" s="105">
         <f t="shared" si="29"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G97" s="105">
         <f t="shared" si="29"/>
@@ -33665,7 +33663,7 @@
       </c>
       <c r="F98" s="105">
         <f t="shared" si="30"/>
-        <v>0.30150000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="G98" s="105">
         <f t="shared" si="30"/>
@@ -33690,7 +33688,7 @@
       </c>
       <c r="F99" s="105">
         <f t="shared" si="31"/>
-        <v>0.30150000000000005</v>
+        <v>0.58500000000000008</v>
       </c>
       <c r="G99" s="105">
         <f t="shared" si="31"/>
@@ -33718,7 +33716,7 @@
       </c>
       <c r="F100" s="105">
         <f t="shared" si="32"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G100" s="105">
         <f t="shared" si="32"/>
@@ -33743,7 +33741,7 @@
       </c>
       <c r="F101" s="105">
         <f t="shared" si="33"/>
-        <v>0.30150000000000005</v>
+        <v>0.441</v>
       </c>
       <c r="G101" s="105">
         <f t="shared" si="33"/>
@@ -33768,7 +33766,7 @@
       </c>
       <c r="F102" s="105">
         <f t="shared" si="34"/>
-        <v>0.30150000000000005</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="G102" s="105">
         <f t="shared" si="34"/>
@@ -33799,7 +33797,7 @@
       </c>
       <c r="F103" s="105">
         <f t="shared" si="35"/>
-        <v>0.30150000000000005</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="G103" s="105">
         <f t="shared" si="35"/>
@@ -33816,23 +33814,23 @@
       </c>
       <c r="D104" s="105">
         <f t="shared" ref="D104:H104" si="36">D49*0.9</f>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="E104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="F104" s="105">
         <f t="shared" si="36"/>
-        <v>0.30150000000000005</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="G104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="H104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -33847,23 +33845,23 @@
       </c>
       <c r="D105" s="105">
         <f t="shared" ref="D105:H105" si="37">D50*0.9</f>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="E105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="F105" s="105">
         <f t="shared" si="37"/>
-        <v>0.30150000000000005</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="G105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="H105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -33880,7 +33878,7 @@
       </c>
       <c r="F106" s="105">
         <f t="shared" si="38"/>
-        <v>0.30150000000000005</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="G106" s="105">
         <f t="shared" si="38"/>
@@ -33911,7 +33909,7 @@
       </c>
       <c r="F107" s="105">
         <f t="shared" si="39"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G107" s="105">
         <f t="shared" si="39"/>
@@ -33936,7 +33934,7 @@
       </c>
       <c r="F108" s="105">
         <f t="shared" si="40"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G108" s="105">
         <f t="shared" si="40"/>
@@ -33947,14 +33945,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="111" t="s">
         <v>332</v>
       </c>
       <c r="B110" s="112"/>
       <c r="C110" s="112"/>
     </row>
-    <row r="111" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
         <v>160</v>
       </c>
@@ -34000,15 +33998,15 @@
       </c>
       <c r="F112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="G112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="H112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -34025,15 +34023,15 @@
       </c>
       <c r="F113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="G113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="H113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -34433,7 +34431,7 @@
       </c>
       <c r="F128" s="105">
         <f t="shared" si="46"/>
-        <v>0.35175000000000006</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="G128" s="105">
         <f t="shared" si="46"/>
@@ -34486,7 +34484,7 @@
       </c>
       <c r="F130" s="105">
         <f t="shared" si="48"/>
-        <v>0.35175000000000006</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="G130" s="105">
         <f t="shared" si="48"/>
@@ -34509,7 +34507,7 @@
       </c>
       <c r="D131" s="105">
         <f t="shared" ref="D131:H131" si="49">D21*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E131" s="105">
         <f t="shared" si="49"/>
@@ -34517,7 +34515,7 @@
       </c>
       <c r="F131" s="105">
         <f t="shared" si="49"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G131" s="105">
         <f t="shared" si="49"/>
@@ -34542,7 +34540,7 @@
       </c>
       <c r="F132" s="105">
         <f t="shared" si="50"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G132" s="105">
         <f t="shared" si="50"/>
@@ -34565,7 +34563,7 @@
       </c>
       <c r="D133" s="105">
         <f t="shared" ref="D133:H133" si="51">D23*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E133" s="105">
         <f t="shared" si="51"/>
@@ -34573,7 +34571,7 @@
       </c>
       <c r="F133" s="105">
         <f t="shared" si="51"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G133" s="105">
         <f t="shared" si="51"/>
@@ -34598,7 +34596,7 @@
       </c>
       <c r="F134" s="105">
         <f t="shared" si="52"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G134" s="105">
         <f t="shared" si="52"/>
@@ -34621,7 +34619,7 @@
       </c>
       <c r="D135" s="105">
         <f t="shared" ref="D135:H135" si="53">D25*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E135" s="105">
         <f t="shared" si="53"/>
@@ -34629,7 +34627,7 @@
       </c>
       <c r="F135" s="105">
         <f t="shared" si="53"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G135" s="105">
         <f t="shared" si="53"/>
@@ -34654,7 +34652,7 @@
       </c>
       <c r="F136" s="105">
         <f t="shared" si="54"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G136" s="105">
         <f t="shared" si="54"/>
@@ -34685,7 +34683,7 @@
       </c>
       <c r="F137" s="105">
         <f t="shared" si="55"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G137" s="105">
         <f t="shared" si="55"/>
@@ -34710,7 +34708,7 @@
       </c>
       <c r="F138" s="105">
         <f t="shared" si="56"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G138" s="105">
         <f t="shared" si="56"/>
@@ -34735,7 +34733,7 @@
       </c>
       <c r="F139" s="105">
         <f t="shared" si="57"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G139" s="105">
         <f t="shared" si="57"/>
@@ -34766,7 +34764,7 @@
       </c>
       <c r="F140" s="105">
         <f t="shared" si="58"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G140" s="105">
         <f t="shared" si="58"/>
@@ -34791,7 +34789,7 @@
       </c>
       <c r="F141" s="105">
         <f t="shared" si="59"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G141" s="105">
         <f t="shared" si="59"/>
@@ -34816,7 +34814,7 @@
       </c>
       <c r="F142" s="105">
         <f t="shared" si="60"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G142" s="105">
         <f t="shared" si="60"/>
@@ -34847,7 +34845,7 @@
       </c>
       <c r="F143" s="105">
         <f t="shared" si="61"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G143" s="105">
         <f t="shared" si="61"/>
@@ -34872,7 +34870,7 @@
       </c>
       <c r="F144" s="105">
         <f t="shared" si="62"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G144" s="105">
         <f t="shared" si="62"/>
@@ -34897,7 +34895,7 @@
       </c>
       <c r="F145" s="105">
         <f t="shared" si="63"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G145" s="105">
         <f t="shared" si="63"/>
@@ -34928,7 +34926,7 @@
       </c>
       <c r="F146" s="105">
         <f t="shared" si="64"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G146" s="105">
         <f t="shared" si="64"/>
@@ -34953,7 +34951,7 @@
       </c>
       <c r="F147" s="105">
         <f t="shared" si="65"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G147" s="105">
         <f t="shared" si="65"/>
@@ -34978,7 +34976,7 @@
       </c>
       <c r="F148" s="105">
         <f t="shared" si="66"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G148" s="105">
         <f t="shared" si="66"/>
@@ -35009,7 +35007,7 @@
       </c>
       <c r="F149" s="105">
         <f t="shared" si="67"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G149" s="105">
         <f t="shared" si="67"/>
@@ -35034,7 +35032,7 @@
       </c>
       <c r="F150" s="105">
         <f t="shared" si="68"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G150" s="105">
         <f t="shared" si="68"/>
@@ -35059,7 +35057,7 @@
       </c>
       <c r="F151" s="105">
         <f t="shared" si="69"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G151" s="105">
         <f t="shared" si="69"/>
@@ -35090,7 +35088,7 @@
       </c>
       <c r="F152" s="105">
         <f t="shared" si="70"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G152" s="105">
         <f t="shared" si="70"/>
@@ -35115,7 +35113,7 @@
       </c>
       <c r="F153" s="105">
         <f t="shared" si="71"/>
-        <v>0.35175000000000006</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="G153" s="105">
         <f t="shared" si="71"/>
@@ -35140,7 +35138,7 @@
       </c>
       <c r="F154" s="105">
         <f t="shared" si="72"/>
-        <v>0.35175000000000006</v>
+        <v>0.68250000000000011</v>
       </c>
       <c r="G154" s="105">
         <f t="shared" si="72"/>
@@ -35168,7 +35166,7 @@
       </c>
       <c r="F155" s="105">
         <f t="shared" si="73"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G155" s="105">
         <f t="shared" si="73"/>
@@ -35193,7 +35191,7 @@
       </c>
       <c r="F156" s="105">
         <f t="shared" si="74"/>
-        <v>0.35175000000000006</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="G156" s="105">
         <f t="shared" si="74"/>
@@ -35218,7 +35216,7 @@
       </c>
       <c r="F157" s="105">
         <f t="shared" si="75"/>
-        <v>0.35175000000000006</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="G157" s="105">
         <f t="shared" si="75"/>
@@ -35249,7 +35247,7 @@
       </c>
       <c r="F158" s="105">
         <f t="shared" si="76"/>
-        <v>0.35175000000000006</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="G158" s="105">
         <f t="shared" si="76"/>
@@ -35266,23 +35264,23 @@
       </c>
       <c r="D159" s="105">
         <f t="shared" ref="D159:H159" si="77">D49*1.05</f>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="E159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="F159" s="105">
         <f t="shared" si="77"/>
-        <v>0.35175000000000006</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="G159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="H159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -35297,23 +35295,23 @@
       </c>
       <c r="D160" s="105">
         <f t="shared" ref="D160:H160" si="78">D50*1.05</f>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="E160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="F160" s="105">
         <f t="shared" si="78"/>
-        <v>0.35175000000000006</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="G160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="H160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -35330,7 +35328,7 @@
       </c>
       <c r="F161" s="105">
         <f t="shared" si="79"/>
-        <v>0.35175000000000006</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="G161" s="105">
         <f t="shared" si="79"/>
@@ -35361,7 +35359,7 @@
       </c>
       <c r="F162" s="105">
         <f t="shared" si="80"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G162" s="105">
         <f t="shared" si="80"/>
@@ -35386,7 +35384,7 @@
       </c>
       <c r="F163" s="105">
         <f t="shared" si="81"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G163" s="105">
         <f t="shared" si="81"/>
@@ -35418,16 +35416,16 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="28" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" style="28" customWidth="1"/>
-    <col min="4" max="7" width="17.26953125" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.7265625" style="28"/>
+    <col min="2" max="2" width="27.44140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="28" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>160</v>
       </c>
@@ -35575,12 +35573,12 @@
       </c>
       <c r="H7" s="32"/>
     </row>
-    <row r="9" spans="1:8" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="107" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>160</v>
       </c>
@@ -35745,12 +35743,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="107" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>160</v>
       </c>
@@ -35935,14 +35933,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="31.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Pourcentage des morts de l'année de référence ("&amp;start_year&amp;") imputable à chaque cause"</f>
         <v>Pourcentage des morts de l'année de référence (2017) imputable à chaque cause</v>
@@ -35953,7 +35951,7 @@
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -36036,7 +36034,7 @@
       <c r="B11" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="115">
+      <c r="C11" s="114">
         <f>SUM(C3:C10)</f>
         <v>1</v>
       </c>
@@ -36052,7 +36050,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>86</v>
       </c>
@@ -36230,19 +36228,19 @@
       <c r="B23" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="115">
+      <c r="C23" s="114">
         <f>SUM(C14:C22)</f>
         <v>1</v>
       </c>
-      <c r="D23" s="115">
+      <c r="D23" s="114">
         <f t="shared" ref="D23:F23" si="0">SUM(D14:D22)</f>
         <v>1</v>
       </c>
-      <c r="E23" s="115">
+      <c r="E23" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F23" s="115">
+      <c r="F23" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -36258,7 +36256,7 @@
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -36350,7 +36348,7 @@
       <c r="B35" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="115">
+      <c r="C35" s="114">
         <f>SUM(C26:C34)</f>
         <v>1</v>
       </c>
@@ -36374,13 +36372,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="str">
         <f>"Pourcentage de la population dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -36411,23 +36409,23 @@
       <c r="B2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="117">
+      <c r="C2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.54471569980476653</v>
       </c>
-      <c r="D2" s="117">
+      <c r="D2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.54471569980476653</v>
       </c>
-      <c r="E2" s="117">
+      <c r="E2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.44982829694488635</v>
       </c>
-      <c r="F2" s="117">
+      <c r="F2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.24457139941017503</v>
       </c>
-      <c r="G2" s="117">
+      <c r="G2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.23269074767298425</v>
       </c>
@@ -36436,23 +36434,23 @@
       <c r="B3" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="117">
+      <c r="C3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
         <v>0.32228430019523346</v>
       </c>
-      <c r="D3" s="117">
+      <c r="D3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
         <v>0.32228430019523346</v>
       </c>
-      <c r="E3" s="117">
+      <c r="E3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
         <v>0.35908666207150708</v>
       </c>
-      <c r="F3" s="117">
+      <c r="F3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
         <v>0.37651189492768178</v>
       </c>
-      <c r="G3" s="117">
+      <c r="G3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
         <v>0.37372365733745416</v>
       </c>
@@ -36520,23 +36518,23 @@
       <c r="B8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="117">
+      <c r="C8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.6241955901533508</v>
       </c>
-      <c r="D8" s="117">
+      <c r="D8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.6241955901533508</v>
       </c>
-      <c r="E8" s="117">
+      <c r="E8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.68355843805440353</v>
       </c>
-      <c r="F8" s="117">
+      <c r="F8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.73228840888273117</v>
       </c>
-      <c r="G8" s="117">
+      <c r="G8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.81212055177975573</v>
       </c>
@@ -36545,23 +36543,23 @@
       <c r="B9" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="117">
+      <c r="C9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
         <v>0.28180440984664923</v>
       </c>
-      <c r="D9" s="117">
+      <c r="D9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
         <v>0.28180440984664923</v>
       </c>
-      <c r="E9" s="117">
+      <c r="E9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
         <v>0.2466938696379041</v>
       </c>
-      <c r="F9" s="117">
+      <c r="F9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
         <v>0.21506846670192739</v>
       </c>
-      <c r="G9" s="117">
+      <c r="G9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
         <v>0.15821429221536368</v>
       </c>
@@ -36712,55 +36710,55 @@
       <c r="B15" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="117">
+      <c r="C15" s="116">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="D15" s="117">
+      <c r="D15" s="116">
         <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E15" s="117">
+      <c r="E15" s="116">
         <f t="shared" si="0"/>
         <v>0.32801999999999998</v>
       </c>
-      <c r="F15" s="117">
+      <c r="F15" s="116">
         <f t="shared" si="0"/>
         <v>0.30639</v>
       </c>
-      <c r="G15" s="117">
+      <c r="G15" s="116">
         <f t="shared" si="0"/>
         <v>0.20314000000000002</v>
       </c>
-      <c r="H15" s="117">
+      <c r="H15" s="116">
         <f t="shared" si="0"/>
         <v>0.19865999999999998</v>
       </c>
-      <c r="I15" s="117">
+      <c r="I15" s="116">
         <f t="shared" si="0"/>
         <v>0.18773999999999999</v>
       </c>
-      <c r="J15" s="117">
+      <c r="J15" s="116">
         <f t="shared" si="0"/>
         <v>0.18185999999999999</v>
       </c>
-      <c r="K15" s="117">
+      <c r="K15" s="116">
         <f t="shared" si="0"/>
         <v>0.18564</v>
       </c>
-      <c r="L15" s="117">
+      <c r="L15" s="116">
         <f t="shared" si="0"/>
         <v>0.19865999999999998</v>
       </c>
-      <c r="M15" s="117">
+      <c r="M15" s="116">
         <f t="shared" si="0"/>
         <v>0.18773999999999999</v>
       </c>
-      <c r="N15" s="117">
+      <c r="N15" s="116">
         <f t="shared" si="0"/>
         <v>0.18185999999999999</v>
       </c>
-      <c r="O15" s="117">
+      <c r="O15" s="116">
         <f t="shared" si="0"/>
         <v>0.18564</v>
       </c>
@@ -36798,13 +36796,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="str">
         <f>"Pourcentage des enfants dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -36895,23 +36893,23 @@
       <c r="B5" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="117">
+      <c r="C5" s="116">
         <f>1-SUM(C2:C4)</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="D5" s="117">
+      <c r="D5" s="116">
         <f t="shared" ref="D5:G5" si="0">1-SUM(D2:D4)</f>
         <v>2.4399366085578356E-2</v>
       </c>
-      <c r="E5" s="117">
+      <c r="E5" s="116">
         <f t="shared" si="0"/>
         <v>1.8961838681699872E-2</v>
       </c>
-      <c r="F5" s="117">
+      <c r="F5" s="116">
         <f t="shared" si="0"/>
         <v>0.27800000000000002</v>
       </c>
-      <c r="G5" s="117">
+      <c r="G5" s="116">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -36934,13 +36932,13 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>133</v>
       </c>
@@ -37138,13 +37136,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -37217,15 +37215,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="28" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="28"/>
+    <col min="2" max="2" width="19.21875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>151</v>
       </c>
@@ -37242,7 +37240,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>157</v>
       </c>
@@ -37316,7 +37314,7 @@
       <c r="D7" s="33"/>
       <c r="E7" s="63"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>158</v>
       </c>
@@ -37386,7 +37384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>159</v>
       </c>
@@ -37480,15 +37478,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>5</v>
       </c>
@@ -37502,7 +37500,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>160</v>
       </c>
@@ -37514,7 +37512,7 @@
       </c>
       <c r="D2" s="63"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>164</v>
       </c>

--- a/inputs/fr/demo_testing_input.xlsx
+++ b/inputs/fr/demo_testing_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257D1F75-CAC0-4821-9393-86199A8F55A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015F221F-33B0-41A4-97C5-E5DCB050CF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -590,7 +590,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="341">
   <si>
     <t>Condition</t>
   </si>
@@ -1602,6 +1602,18 @@
   <si>
     <t>Efficacité à prévenir un cas</t>
   </si>
+  <si>
+    <t>Enfant 1-5 mois</t>
+  </si>
+  <si>
+    <t>Enfant 6-11 mois</t>
+  </si>
+  <si>
+    <t>Enfant 12-23 mois</t>
+  </si>
+  <si>
+    <t>Enfant 24-59 mois</t>
+  </si>
 </sst>
 </file>
 
@@ -1614,7 +1626,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1784,6 +1796,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2646,7 +2664,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2915,6 +2933,9 @@
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6518,7 +6539,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -12974,7 +12995,7 @@
       <c r="A2" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -12997,7 +13018,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="117"/>
+      <c r="B3" s="118"/>
       <c r="C3" s="28" t="s">
         <v>154</v>
       </c>
@@ -13019,7 +13040,7 @@
       <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="117"/>
+      <c r="B4" s="118"/>
       <c r="C4" s="28" t="s">
         <v>155</v>
       </c>
@@ -13041,7 +13062,7 @@
       <c r="J4" s="76"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="28" t="s">
@@ -13065,7 +13086,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="117"/>
+      <c r="B6" s="118"/>
       <c r="C6" s="28" t="s">
         <v>154</v>
       </c>
@@ -13086,7 +13107,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="117"/>
+      <c r="B7" s="118"/>
       <c r="C7" s="28" t="s">
         <v>155</v>
       </c>
@@ -13107,7 +13128,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="117" t="s">
+      <c r="B8" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="28" t="s">
@@ -13130,7 +13151,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="117"/>
+      <c r="B9" s="118"/>
       <c r="C9" s="28" t="s">
         <v>154</v>
       </c>
@@ -13151,7 +13172,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="117"/>
+      <c r="B10" s="118"/>
       <c r="C10" s="28" t="s">
         <v>155</v>
       </c>
@@ -13172,7 +13193,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -13195,7 +13216,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="117"/>
+      <c r="B12" s="118"/>
       <c r="C12" s="28" t="s">
         <v>154</v>
       </c>
@@ -13216,7 +13237,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="117"/>
+      <c r="B13" s="118"/>
       <c r="C13" s="28" t="s">
         <v>155</v>
       </c>
@@ -13237,7 +13258,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="117" t="s">
+      <c r="B14" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -13260,7 +13281,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="117"/>
+      <c r="B15" s="118"/>
       <c r="C15" s="28" t="s">
         <v>154</v>
       </c>
@@ -13281,7 +13302,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="117"/>
+      <c r="B16" s="118"/>
       <c r="C16" s="28" t="s">
         <v>155</v>
       </c>
@@ -13335,7 +13356,7 @@
       <c r="A19" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C19" s="28" t="s">
@@ -13358,7 +13379,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="117"/>
+      <c r="B20" s="118"/>
       <c r="C20" s="28" t="s">
         <v>154</v>
       </c>
@@ -13379,7 +13400,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="117"/>
+      <c r="B21" s="118"/>
       <c r="C21" s="28" t="s">
         <v>155</v>
       </c>
@@ -13400,7 +13421,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="117" t="s">
+      <c r="B22" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C22" s="28" t="s">
@@ -13423,7 +13444,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="117"/>
+      <c r="B23" s="118"/>
       <c r="C23" s="28" t="s">
         <v>154</v>
       </c>
@@ -13444,7 +13465,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="117"/>
+      <c r="B24" s="118"/>
       <c r="C24" s="28" t="s">
         <v>155</v>
       </c>
@@ -13465,7 +13486,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -13488,7 +13509,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="117"/>
+      <c r="B26" s="118"/>
       <c r="C26" s="28" t="s">
         <v>154</v>
       </c>
@@ -13509,7 +13530,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="117"/>
+      <c r="B27" s="118"/>
       <c r="C27" s="28" t="s">
         <v>155</v>
       </c>
@@ -13530,7 +13551,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="117" t="s">
+      <c r="B28" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="28" t="s">
@@ -13553,7 +13574,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="117"/>
+      <c r="B29" s="118"/>
       <c r="C29" s="28" t="s">
         <v>154</v>
       </c>
@@ -13574,7 +13595,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="117"/>
+      <c r="B30" s="118"/>
       <c r="C30" s="28" t="s">
         <v>155</v>
       </c>
@@ -13595,7 +13616,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="117" t="s">
+      <c r="B31" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -13618,7 +13639,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="117"/>
+      <c r="B32" s="118"/>
       <c r="C32" s="28" t="s">
         <v>154</v>
       </c>
@@ -13639,7 +13660,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="117"/>
+      <c r="B33" s="118"/>
       <c r="C33" s="28" t="s">
         <v>155</v>
       </c>
@@ -13693,7 +13714,7 @@
       <c r="A36" s="78" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="117" t="s">
+      <c r="B36" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="28" t="s">
@@ -13716,7 +13737,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="117"/>
+      <c r="B37" s="118"/>
       <c r="C37" s="28" t="s">
         <v>154</v>
       </c>
@@ -13737,7 +13758,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="117"/>
+      <c r="B38" s="118"/>
       <c r="C38" s="28" t="s">
         <v>155</v>
       </c>
@@ -13758,7 +13779,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="117" t="s">
+      <c r="B39" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C39" s="28" t="s">
@@ -13781,7 +13802,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="117"/>
+      <c r="B40" s="118"/>
       <c r="C40" s="28" t="s">
         <v>154</v>
       </c>
@@ -13802,7 +13823,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="117"/>
+      <c r="B41" s="118"/>
       <c r="C41" s="28" t="s">
         <v>155</v>
       </c>
@@ -13823,7 +13844,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="117" t="s">
+      <c r="B42" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="28" t="s">
@@ -13846,7 +13867,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="117"/>
+      <c r="B43" s="118"/>
       <c r="C43" s="28" t="s">
         <v>154</v>
       </c>
@@ -13867,7 +13888,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="117"/>
+      <c r="B44" s="118"/>
       <c r="C44" s="28" t="s">
         <v>155</v>
       </c>
@@ -13888,7 +13909,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="117" t="s">
+      <c r="B45" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C45" s="28" t="s">
@@ -13911,7 +13932,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="117"/>
+      <c r="B46" s="118"/>
       <c r="C46" s="28" t="s">
         <v>154</v>
       </c>
@@ -13932,7 +13953,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="117"/>
+      <c r="B47" s="118"/>
       <c r="C47" s="28" t="s">
         <v>155</v>
       </c>
@@ -13953,7 +13974,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="117" t="s">
+      <c r="B48" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C48" s="28" t="s">
@@ -13976,7 +13997,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="117"/>
+      <c r="B49" s="118"/>
       <c r="C49" s="28" t="s">
         <v>154</v>
       </c>
@@ -13997,7 +14018,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="117"/>
+      <c r="B50" s="118"/>
       <c r="C50" s="28" t="s">
         <v>155</v>
       </c>
@@ -14082,7 +14103,7 @@
       <c r="A55" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="B55" s="117" t="s">
+      <c r="B55" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C55" s="28" t="s">
@@ -14110,7 +14131,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="117"/>
+      <c r="B56" s="118"/>
       <c r="C56" s="28" t="s">
         <v>154</v>
       </c>
@@ -14136,7 +14157,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="117"/>
+      <c r="B57" s="118"/>
       <c r="C57" s="28" t="s">
         <v>155</v>
       </c>
@@ -14162,7 +14183,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="117" t="s">
+      <c r="B58" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="28" t="s">
@@ -14190,7 +14211,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="117"/>
+      <c r="B59" s="118"/>
       <c r="C59" s="28" t="s">
         <v>154</v>
       </c>
@@ -14216,7 +14237,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="117"/>
+      <c r="B60" s="118"/>
       <c r="C60" s="28" t="s">
         <v>155</v>
       </c>
@@ -14242,7 +14263,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="117" t="s">
+      <c r="B61" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C61" s="28" t="s">
@@ -14270,7 +14291,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="117"/>
+      <c r="B62" s="118"/>
       <c r="C62" s="28" t="s">
         <v>154</v>
       </c>
@@ -14296,7 +14317,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="117"/>
+      <c r="B63" s="118"/>
       <c r="C63" s="28" t="s">
         <v>155</v>
       </c>
@@ -14322,7 +14343,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="117" t="s">
+      <c r="B64" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C64" s="28" t="s">
@@ -14350,7 +14371,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="117"/>
+      <c r="B65" s="118"/>
       <c r="C65" s="28" t="s">
         <v>154</v>
       </c>
@@ -14376,7 +14397,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="117"/>
+      <c r="B66" s="118"/>
       <c r="C66" s="28" t="s">
         <v>155</v>
       </c>
@@ -14402,7 +14423,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="117" t="s">
+      <c r="B67" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="28" t="s">
@@ -14430,7 +14451,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="117"/>
+      <c r="B68" s="118"/>
       <c r="C68" s="28" t="s">
         <v>154</v>
       </c>
@@ -14456,7 +14477,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="117"/>
+      <c r="B69" s="118"/>
       <c r="C69" s="28" t="s">
         <v>155</v>
       </c>
@@ -14520,7 +14541,7 @@
       <c r="A72" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="B72" s="117" t="s">
+      <c r="B72" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C72" s="28" t="s">
@@ -14548,7 +14569,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="117"/>
+      <c r="B73" s="118"/>
       <c r="C73" s="28" t="s">
         <v>154</v>
       </c>
@@ -14574,7 +14595,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="117"/>
+      <c r="B74" s="118"/>
       <c r="C74" s="28" t="s">
         <v>155</v>
       </c>
@@ -14600,7 +14621,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="117" t="s">
+      <c r="B75" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C75" s="28" t="s">
@@ -14628,7 +14649,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="117"/>
+      <c r="B76" s="118"/>
       <c r="C76" s="28" t="s">
         <v>154</v>
       </c>
@@ -14654,7 +14675,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="117"/>
+      <c r="B77" s="118"/>
       <c r="C77" s="28" t="s">
         <v>155</v>
       </c>
@@ -14680,7 +14701,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="117" t="s">
+      <c r="B78" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C78" s="28" t="s">
@@ -14708,7 +14729,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="117"/>
+      <c r="B79" s="118"/>
       <c r="C79" s="28" t="s">
         <v>154</v>
       </c>
@@ -14734,7 +14755,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="117"/>
+      <c r="B80" s="118"/>
       <c r="C80" s="28" t="s">
         <v>155</v>
       </c>
@@ -14760,7 +14781,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="117" t="s">
+      <c r="B81" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C81" s="28" t="s">
@@ -14788,7 +14809,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="117"/>
+      <c r="B82" s="118"/>
       <c r="C82" s="28" t="s">
         <v>154</v>
       </c>
@@ -14814,7 +14835,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="117"/>
+      <c r="B83" s="118"/>
       <c r="C83" s="28" t="s">
         <v>155</v>
       </c>
@@ -14840,7 +14861,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="117" t="s">
+      <c r="B84" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C84" s="28" t="s">
@@ -14868,7 +14889,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="117"/>
+      <c r="B85" s="118"/>
       <c r="C85" s="28" t="s">
         <v>154</v>
       </c>
@@ -14894,7 +14915,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="117"/>
+      <c r="B86" s="118"/>
       <c r="C86" s="28" t="s">
         <v>155</v>
       </c>
@@ -14958,7 +14979,7 @@
       <c r="A89" s="78" t="s">
         <v>238</v>
       </c>
-      <c r="B89" s="117" t="s">
+      <c r="B89" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C89" s="28" t="s">
@@ -14986,7 +15007,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="117"/>
+      <c r="B90" s="118"/>
       <c r="C90" s="28" t="s">
         <v>154</v>
       </c>
@@ -15012,7 +15033,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="117"/>
+      <c r="B91" s="118"/>
       <c r="C91" s="28" t="s">
         <v>155</v>
       </c>
@@ -15038,7 +15059,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="117" t="s">
+      <c r="B92" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C92" s="28" t="s">
@@ -15066,7 +15087,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="117"/>
+      <c r="B93" s="118"/>
       <c r="C93" s="28" t="s">
         <v>154</v>
       </c>
@@ -15092,7 +15113,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="117"/>
+      <c r="B94" s="118"/>
       <c r="C94" s="28" t="s">
         <v>155</v>
       </c>
@@ -15118,7 +15139,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="117" t="s">
+      <c r="B95" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C95" s="28" t="s">
@@ -15146,7 +15167,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="117"/>
+      <c r="B96" s="118"/>
       <c r="C96" s="28" t="s">
         <v>154</v>
       </c>
@@ -15172,7 +15193,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="117"/>
+      <c r="B97" s="118"/>
       <c r="C97" s="28" t="s">
         <v>155</v>
       </c>
@@ -15198,7 +15219,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="117" t="s">
+      <c r="B98" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C98" s="28" t="s">
@@ -15226,7 +15247,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="117"/>
+      <c r="B99" s="118"/>
       <c r="C99" s="28" t="s">
         <v>154</v>
       </c>
@@ -15252,7 +15273,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="117"/>
+      <c r="B100" s="118"/>
       <c r="C100" s="28" t="s">
         <v>155</v>
       </c>
@@ -15278,7 +15299,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="117" t="s">
+      <c r="B101" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C101" s="28" t="s">
@@ -15306,7 +15327,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="117"/>
+      <c r="B102" s="118"/>
       <c r="C102" s="28" t="s">
         <v>154</v>
       </c>
@@ -15332,7 +15353,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="117"/>
+      <c r="B103" s="118"/>
       <c r="C103" s="28" t="s">
         <v>155</v>
       </c>
@@ -15427,7 +15448,7 @@
       <c r="A108" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="117" t="s">
+      <c r="B108" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C108" s="28" t="s">
@@ -15455,7 +15476,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="117"/>
+      <c r="B109" s="118"/>
       <c r="C109" s="28" t="s">
         <v>154</v>
       </c>
@@ -15481,7 +15502,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="117"/>
+      <c r="B110" s="118"/>
       <c r="C110" s="28" t="s">
         <v>155</v>
       </c>
@@ -15507,7 +15528,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="117" t="s">
+      <c r="B111" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C111" s="28" t="s">
@@ -15535,7 +15556,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="117"/>
+      <c r="B112" s="118"/>
       <c r="C112" s="28" t="s">
         <v>154</v>
       </c>
@@ -15561,7 +15582,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="117"/>
+      <c r="B113" s="118"/>
       <c r="C113" s="28" t="s">
         <v>155</v>
       </c>
@@ -15587,7 +15608,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="117" t="s">
+      <c r="B114" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C114" s="28" t="s">
@@ -15615,7 +15636,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="117"/>
+      <c r="B115" s="118"/>
       <c r="C115" s="28" t="s">
         <v>154</v>
       </c>
@@ -15641,7 +15662,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="117"/>
+      <c r="B116" s="118"/>
       <c r="C116" s="28" t="s">
         <v>155</v>
       </c>
@@ -15667,7 +15688,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="117" t="s">
+      <c r="B117" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C117" s="28" t="s">
@@ -15695,7 +15716,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="117"/>
+      <c r="B118" s="118"/>
       <c r="C118" s="28" t="s">
         <v>154</v>
       </c>
@@ -15721,7 +15742,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="117"/>
+      <c r="B119" s="118"/>
       <c r="C119" s="28" t="s">
         <v>155</v>
       </c>
@@ -15747,7 +15768,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="117" t="s">
+      <c r="B120" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C120" s="28" t="s">
@@ -15775,7 +15796,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="117"/>
+      <c r="B121" s="118"/>
       <c r="C121" s="28" t="s">
         <v>154</v>
       </c>
@@ -15801,7 +15822,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="117"/>
+      <c r="B122" s="118"/>
       <c r="C122" s="28" t="s">
         <v>155</v>
       </c>
@@ -15865,7 +15886,7 @@
       <c r="A125" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="B125" s="117" t="s">
+      <c r="B125" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C125" s="28" t="s">
@@ -15893,7 +15914,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="117"/>
+      <c r="B126" s="118"/>
       <c r="C126" s="28" t="s">
         <v>154</v>
       </c>
@@ -15919,7 +15940,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="117"/>
+      <c r="B127" s="118"/>
       <c r="C127" s="28" t="s">
         <v>155</v>
       </c>
@@ -15945,7 +15966,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="117" t="s">
+      <c r="B128" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C128" s="28" t="s">
@@ -15973,7 +15994,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="117"/>
+      <c r="B129" s="118"/>
       <c r="C129" s="28" t="s">
         <v>154</v>
       </c>
@@ -15999,7 +16020,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="117"/>
+      <c r="B130" s="118"/>
       <c r="C130" s="28" t="s">
         <v>155</v>
       </c>
@@ -16025,7 +16046,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="117" t="s">
+      <c r="B131" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C131" s="28" t="s">
@@ -16053,7 +16074,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="117"/>
+      <c r="B132" s="118"/>
       <c r="C132" s="28" t="s">
         <v>154</v>
       </c>
@@ -16079,7 +16100,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="117"/>
+      <c r="B133" s="118"/>
       <c r="C133" s="28" t="s">
         <v>155</v>
       </c>
@@ -16105,7 +16126,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="117" t="s">
+      <c r="B134" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C134" s="28" t="s">
@@ -16133,7 +16154,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="117"/>
+      <c r="B135" s="118"/>
       <c r="C135" s="28" t="s">
         <v>154</v>
       </c>
@@ -16159,7 +16180,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="117"/>
+      <c r="B136" s="118"/>
       <c r="C136" s="28" t="s">
         <v>155</v>
       </c>
@@ -16185,7 +16206,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="117" t="s">
+      <c r="B137" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C137" s="28" t="s">
@@ -16213,7 +16234,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="117"/>
+      <c r="B138" s="118"/>
       <c r="C138" s="28" t="s">
         <v>154</v>
       </c>
@@ -16239,7 +16260,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="117"/>
+      <c r="B139" s="118"/>
       <c r="C139" s="28" t="s">
         <v>155</v>
       </c>
@@ -16303,7 +16324,7 @@
       <c r="A142" s="78" t="s">
         <v>242</v>
       </c>
-      <c r="B142" s="117" t="s">
+      <c r="B142" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C142" s="28" t="s">
@@ -16331,7 +16352,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="117"/>
+      <c r="B143" s="118"/>
       <c r="C143" s="28" t="s">
         <v>154</v>
       </c>
@@ -16357,7 +16378,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="117"/>
+      <c r="B144" s="118"/>
       <c r="C144" s="28" t="s">
         <v>155</v>
       </c>
@@ -16383,7 +16404,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="117" t="s">
+      <c r="B145" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C145" s="28" t="s">
@@ -16411,7 +16432,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="117"/>
+      <c r="B146" s="118"/>
       <c r="C146" s="28" t="s">
         <v>154</v>
       </c>
@@ -16437,7 +16458,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="117"/>
+      <c r="B147" s="118"/>
       <c r="C147" s="28" t="s">
         <v>155</v>
       </c>
@@ -16463,7 +16484,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="117" t="s">
+      <c r="B148" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C148" s="28" t="s">
@@ -16491,7 +16512,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="117"/>
+      <c r="B149" s="118"/>
       <c r="C149" s="28" t="s">
         <v>154</v>
       </c>
@@ -16517,7 +16538,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="117"/>
+      <c r="B150" s="118"/>
       <c r="C150" s="28" t="s">
         <v>155</v>
       </c>
@@ -16543,7 +16564,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="117" t="s">
+      <c r="B151" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C151" s="28" t="s">
@@ -16571,7 +16592,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="117"/>
+      <c r="B152" s="118"/>
       <c r="C152" s="28" t="s">
         <v>154</v>
       </c>
@@ -16597,7 +16618,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="117"/>
+      <c r="B153" s="118"/>
       <c r="C153" s="28" t="s">
         <v>155</v>
       </c>
@@ -16623,7 +16644,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="117" t="s">
+      <c r="B154" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C154" s="28" t="s">
@@ -16651,7 +16672,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="117"/>
+      <c r="B155" s="118"/>
       <c r="C155" s="28" t="s">
         <v>154</v>
       </c>
@@ -16677,7 +16698,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="117"/>
+      <c r="B156" s="118"/>
       <c r="C156" s="28" t="s">
         <v>155</v>
       </c>
@@ -35929,8 +35950,8 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36057,17 +36078,17 @@
       <c r="B13" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>99</v>
+      <c r="C13" s="117" t="s">
+        <v>337</v>
+      </c>
+      <c r="D13" s="117" t="s">
+        <v>338</v>
+      </c>
+      <c r="E13" s="117" t="s">
+        <v>339</v>
+      </c>
+      <c r="F13" s="117" t="s">
+        <v>340</v>
       </c>
       <c r="G13" s="19"/>
     </row>
@@ -36354,7 +36375,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Z1IkxsXFo1Ye8/eU53xcXajSQ2TMIbCXXylMwhWbu0xYZKN1sMMisNpTSv6oL7zJzgcuJrlhiL45hfgjzeE1Nw==" saltValue="xNrRk7r2jNf3qYXh2MKtKA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0dXE7dnfDpd1zkigInJke5I1ji3uo+fuNxXf+VaQhXDsff99tK5lVTBd4cZI3Yful3KG2Gs6JtLrgOVWhzV9Og==" saltValue="kPVu0gq/wBMSJkgsYiFjzQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/inputs/fr/demo_testing_input.xlsx
+++ b/inputs/fr/demo_testing_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8691CB82-1DE0-4002-B414-0E6E7C749F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ED7E9CB-1BBB-4BE3-864A-DAF0926078A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Données pop de l'année de ref" sheetId="1" r:id="rId1"/>
@@ -665,7 +665,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="335">
   <si>
     <t>Condition</t>
   </si>
@@ -871,6 +871,9 @@
     <t>Insuffisance pondérale à la naissance</t>
   </si>
   <si>
+    <t>Année</t>
+  </si>
+  <si>
     <t>Nombre de naissances</t>
   </si>
   <si>
@@ -893,9 +896,6 @@
   </si>
   <si>
     <t>FAP non enceintes</t>
-  </si>
-  <si>
-    <t>année</t>
   </si>
   <si>
     <t>Néonatal</t>
@@ -1312,7 +1312,7 @@
     <t>En forme de S (coût marginal décroissant puis croissant)</t>
   </si>
   <si>
-    <t>Efficacité</t>
+    <t>efficacité</t>
   </si>
   <si>
     <t>Méthode</t>
@@ -1618,9 +1618,6 @@
     <t>Petite quantité de supplémentation en nutriments à base de lipids - supérieur</t>
   </si>
   <si>
-    <t>efficacité</t>
-  </si>
-  <si>
     <t>fraction touchée</t>
   </si>
   <si>
@@ -1667,9 +1664,6 @@
   </si>
   <si>
     <t>Condition ciblée</t>
-  </si>
-  <si>
-    <t>Fraction touchée</t>
   </si>
   <si>
     <t>Efficacité à prévenir une mort</t>
@@ -4853,7 +4847,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Baseline year population inputs"/>
@@ -5864,7 +5858,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="thz/Q7ZkM7IKFVySwysBx7hOdCcxVvnhY4RbSMrcAxeEtySkEEBZZqzxqp67EBlkLvOyoNDn+C1VsArWkYek5Q==" saltValue="qu5ZZguqeoNYn86j5m4zMA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YsaXMz/CDqG5go/gKk2/sJ8hn+sXsKE0Xrhq7/U1/FOiuqQ2AofeCqoJVeK64VaUNu7kygL4JtvNjryfEmRNvQ==" saltValue="DDUFPOaY9eD2VJALX0qiPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6793,7 +6787,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NQNgQ5R347p6iDjjJAVEh3SUaNXZpeAsrl6FPPwsVhZGdSHGm2ggQSMXKAaQ/U+P2ErHXDJBzHAGHVF7UffMHg==" saltValue="XrC1jPrj1jXyyGE/4svqVA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="34ujC3uYCl1mCvgYf77/TCqW/5eCYzVKEeU+T//Fei88MVPO9NoA+vwE7Y1MT4d5p+9ae+c+uQiC5vSu29f4gg==" saltValue="zT808DP5DIldQWT/GfKh6A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6957,7 +6951,7 @@
       <c r="C20" s="67"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NOTa0uR15O0pqV1k4jAkSKHP+lMNbjG/+mTQDYePVilupBkkOlLzLPDFd709yPFQOL55BOGZ3/rIbwzUF8cZEg==" saltValue="7NVNCMDp4Fm+4J/jtv7OoA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TZRUuYqMVXIU+3rkbiFiQOPz+fkzTerQkn+KCh6G8a8TaoYTQQhFO8ymRzXflm6+xwL/79fymjzVJvRjqebPbg==" saltValue="WZ4T8BCYNI6IcAbw2FSv4g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -7057,7 +7051,7 @@
       <c r="A19" s="35"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZmriovH1nS+DSquXiAgPASRr8e86oeWwETzXVnD8PQayDgtLp9N3bcd6cRXyAYnyNAVXB02WnGMkBKTlW3qS5Q==" saltValue="xPzlKwuvSUqE+sL8c5TrVA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z2eAsBd8tlFg/hFcvFicdJVKMPjFrcUOziFy0z59AWPxdfzNIanQrX6UZkB9JIsV/Ppj3YK6nD8e8OfNWlGH3g==" saltValue="awa/HccsIU+pRuyaoGmQeA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -7172,7 +7166,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bDKMvDBn1gv3zOfh8aUehfftP5m8TZlzgDihFyh+wGujOjHxPQ12NyFqBCpGfSERUCpuPAng9pdrBOYaMm1ppg==" saltValue="hgREVkIcX80XyId2ENZpFw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TpkCfXfrm7zlusjYCFcuzg5fp5XQS7+CssR84QbvQgDaAJN17cD3O1HgDGRnnuNAgGKBN/8i7X4aYGQMvxQZxA==" saltValue="g2OYwDhFPXtYJtYTwCaweA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7236,16 +7230,16 @@
         <v>125</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8192,7 +8186,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24" s="45" t="s">
         <v>172</v>
@@ -8933,7 +8927,7 @@
       <c r="B40" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Szcz1Pzk1M7BtcqMnC++XDrvJhvASH29OkrR0tIpZF4aFOyogEae8SiKcJcTdC6zc9fPq3zf+8XgpP72cWPzow==" saltValue="NteLypyE/sUwz3MCqtrytQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="g7wkvGPTZq0wx5TA3N/iAT9ijiBJ0OTMRx5zQBJdiCrTngBJpi0HUVvmUadi+zuoUMLXhj5j6MrbtmZI0NDkQQ==" saltValue="gMBBr1Sja8xZ3JlnWYCXuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8973,7 +8967,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EcZgX6KKIsmAsCT1qlhni7yeJ0Pw9ydrCWt71UkNL8MaIqJAftsyDOrUO/xQRsdj3678uH+uMoZh788+K6+NAA==" saltValue="USnAsGTGm+gLPPdJbggWFw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rSuKS04pNXM9D14tqotenE718hRbwfocPdzQC8Ew3usNjpsaeQU2zmkCza3BRG7hZO4Jy6d/uA1oWZQY3n/PBA==" saltValue="qM1rltjYUHWNYDYwFHiFgA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9178,7 +9172,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4B4m1ZX28greq+vmVTqvP+ZKHhGgB2vRs3SoF4tUjJR+F+8e4/VqjysgCY9lOUvjfHHJ7eZuqtTCrAbAnBjLjg==" saltValue="8f2gSukhVUtsknnxYOe16g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3BCT5ba9zPWTBfKSXUa6Ln3p2gUOQYxx9w03sLjc20BBuoWv/gpzqunjYLvWswirDiR8XuvHjd4LJJYoh+oAaA==" saltValue="rdH4ln77wo2s3jLiQwhdMw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -9244,16 +9238,16 @@
         <v>125</v>
       </c>
       <c r="L1" s="43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M1" s="43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N1" s="43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O1" s="43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10309,7 +10303,7 @@
     </row>
     <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" s="39" t="s">
         <v>172</v>
@@ -10992,7 +10986,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nk4Jg/CXsduzpppI/iYpFkEBsphLv/UgngMBJ44fR5TYASSQUzNNlwGucN4wZdcRZbJxQPrZ0L4azDNAKbE0Zw==" saltValue="I6AfJ8lcyjavMA2YWgtLrA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GWBYmiB+D56RHC67mRa4VwCQ1E1CSERhxGq7KFEivGtfIMw5Zh3zeNTP5TBg0sOSgmH0IV3utUe4G2HGNez7eQ==" saltValue="Rs/4rp6ZazDl3z42GckflQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11055,7 +11049,7 @@
         <v>36</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -11759,7 +11753,7 @@
       <c r="K39" s="101"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mykH2XdojLPstdbeDgkbDOICVwQmjN9Pl5sKm0AubTR3bpUFGavcWKGYhFBPHNE2gE5/Mo0MwbOuEPNH1kn8Nw==" saltValue="ttfhYBqefcvERfZnud0UEg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5azvzL2IJgQ2zaU4ZfQT5YAbhu52y/ZKFcQ4R1/OLuWUn1+noEhABFIYK77thctaVMUEriaFZcO9iP3zYhepkw==" saltValue="GdBMawZLj4j1AHdNQo1VoA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11822,7 +11816,7 @@
         <v>36</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -12056,7 +12050,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" s="101"/>
       <c r="C11" s="101" t="s">
@@ -12077,7 +12071,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" s="101"/>
       <c r="C12" s="101" t="s">
@@ -12096,7 +12090,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13" s="101"/>
       <c r="C13" s="101" t="s">
@@ -12115,7 +12109,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" s="101"/>
       <c r="C14" s="101" t="s">
@@ -12133,7 +12127,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yz+CoIiNW93GYQN1rhnptyxa2w2abnnbtrxh0LoaKZFj7pjHWulCvVfQkZVFh4e1e7chK7SH5CYM9HCcUA25lw==" saltValue="1yxIXY8ftC0sHxzcUiAAIw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EDHNhm92PrySpDZHrDwvoe3DtFIwO9l6SDHq7UPa3c/OWvLXJJNg3LyXsgz1iFKsgAPbazvZeyIeq5ZSYc9eaQ==" saltValue="QQoFEKM557+22SKNha7TCg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12158,31 +12152,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13222,7 +13216,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iQ5Mutv2gJ9oFnpYLwQCb9scrpQuK3U46EDvxsWgQKLVS5J/uWHNUDPFzvKVZhtyW8DDLro3sPv697Vy59WUng==" saltValue="bBy+6d3XRRWfHGhqVz9NAA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="To12x19lKwk5BStmcpG1Mo0x4+4S3aC2fFTinu08uyncvoZYDpu5Drvj0gEnHYaaZFS0QKU5l+eOgrpZdPFrvg==" saltValue="P0qCwuOkhaczskWTOtjOKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -17039,7 +17033,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hP40RdircDOfvpxF6COiIMSFHrPWG/ohV2ySJwEPEmg0KGjbonnykm7oWPn+mKp6SIQgrMMwIqeuaSmtsFmXHw==" saltValue="G/S/kEfuUHmTg5onT/7z9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="il30S9y48kY/45Vs64XXVZBHdAWPSMQWM30Nuysu/bc6wn55qYapzuYC2SPnng7NlUYvR/a4anaj7xy4JDjP5g==" saltValue="vUweszVGIeDwzy+nL975/A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
@@ -18308,7 +18302,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="R56q9T4Pby5m5ybHD8bJBsU+HfxGr0poni/Nooj8s2+jQoxjE9vNo3K1MozPwh5ZX8SXTzMR6foe3qgsSC81mQ==" saltValue="Iw9sNJmSIEsq8t7fQ+eF3w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z3JcUcxbcmKK3jknhXS+RecCPfqGKure3cQWMsSWKUZpXgWl1ISmCpLeyIKMAhEc2XDmIPoC3ezHxjsRroLQYg==" saltValue="M1sKyLAnrhPu4i9I49M4bA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26449,7 +26443,7 @@
       <c r="I328" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HXBVsIIOtiqRgJiHVf5Hkuq/pUh8C/+Z28NDvbs53n1I0s7FRonO2fE5ZF3Q+T36m1gb3H6x3uEAzraC2WN6pg==" saltValue="TQOxJK7peh559JSDAe+KXw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="R5qaKWQa7LxrI3CrgotXppz7xbo7H5aufUifBTMUe+ccMlH8PFQw6KCLuESDlmNFWMwhk2VdVQ/nM3TFWBRkPA==" saltValue="3Wm8cQ9Pc/cRcx1Y5A4zLA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26751,16 +26745,16 @@
     </row>
     <row r="20" spans="1:7" s="83" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -27126,16 +27120,16 @@
       <c r="A43" s="83"/>
       <c r="B43" s="83"/>
       <c r="C43" s="43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G43" s="83"/>
     </row>
@@ -27506,16 +27500,16 @@
       <c r="A66" s="83"/>
       <c r="B66" s="83"/>
       <c r="C66" s="43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D66" s="43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E66" s="43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F66" s="43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G66" s="83"/>
     </row>
@@ -27541,7 +27535,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SvgQR32eEhH2S/KrDdxCiKPnSokGiSeSdSYcfWVijs98NywkwoPYVHITnOCDe7jM7sQvYsqw+khbUCAfCwkMaQ==" saltValue="QT65dpzmToEk5dRtRl0tJw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1pKMOz4IvsXt0Flgo24NeidhB28pEhNMEP846yHi4u5LWpVPKAw0l1sii4yakA2A8v+GyiKp+HY+nL5VgfnfWw==" saltValue="rWxOzAYbbM94vGrT6bsZxw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27594,7 +27588,7 @@
         <v>168</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C2" s="104">
         <v>0.21</v>
@@ -27612,7 +27606,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="72"/>
       <c r="B3" s="72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C3" s="104">
         <v>1</v>
@@ -27632,7 +27626,7 @@
         <v>180</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C4" s="104">
         <v>0.15</v>
@@ -27650,7 +27644,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="72"/>
       <c r="B5" s="72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C5" s="104">
         <v>1</v>
@@ -27670,7 +27664,7 @@
         <v>181</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C6" s="104">
         <v>0.15</v>
@@ -27688,7 +27682,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="72"/>
       <c r="B7" s="72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C7" s="104">
         <v>1</v>
@@ -27708,7 +27702,7 @@
         <v>182</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C8" s="104">
         <v>0.35</v>
@@ -27726,7 +27720,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="72"/>
       <c r="B9" s="72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C9" s="104">
         <v>1</v>
@@ -27746,7 +27740,7 @@
         <v>186</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C10" s="104">
         <v>0.35</v>
@@ -27764,7 +27758,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="72"/>
       <c r="B11" s="72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C11" s="104">
         <v>1</v>
@@ -27784,7 +27778,7 @@
         <v>190</v>
       </c>
       <c r="B12" s="72" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C12" s="104">
         <v>0.23</v>
@@ -27802,7 +27796,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="72"/>
       <c r="B13" s="72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C13" s="104">
         <v>1</v>
@@ -27845,7 +27839,7 @@
         <v>168</v>
       </c>
       <c r="B17" s="72" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C17" s="104">
         <f>C2*0.9</f>
@@ -27867,7 +27861,7 @@
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="72"/>
       <c r="B18" s="72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C18" s="104">
         <f t="shared" ref="C18:F18" si="1">C3*0.9</f>
@@ -27891,7 +27885,7 @@
         <v>180</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C19" s="104">
         <f t="shared" ref="C19:F19" si="2">C4*0.9</f>
@@ -27913,7 +27907,7 @@
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="72"/>
       <c r="B20" s="72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C20" s="104">
         <f t="shared" ref="C20:F20" si="3">C5*0.9</f>
@@ -27937,7 +27931,7 @@
         <v>181</v>
       </c>
       <c r="B21" s="72" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C21" s="104">
         <f t="shared" ref="C21:F21" si="4">C6*0.9</f>
@@ -27959,7 +27953,7 @@
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="72"/>
       <c r="B22" s="72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C22" s="104">
         <f t="shared" ref="C22:F22" si="5">C7*0.9</f>
@@ -27983,7 +27977,7 @@
         <v>182</v>
       </c>
       <c r="B23" s="72" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C23" s="104">
         <f t="shared" ref="C23:F23" si="6">C8*0.9</f>
@@ -28005,7 +27999,7 @@
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="72"/>
       <c r="B24" s="72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C24" s="104">
         <f t="shared" ref="C24:F24" si="7">C9*0.9</f>
@@ -28029,7 +28023,7 @@
         <v>186</v>
       </c>
       <c r="B25" s="72" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C25" s="104">
         <f t="shared" ref="C25:F25" si="8">C10*0.9</f>
@@ -28051,7 +28045,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="72"/>
       <c r="B26" s="72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C26" s="104">
         <f t="shared" ref="C26:F26" si="9">C11*0.9</f>
@@ -28075,7 +28069,7 @@
         <v>190</v>
       </c>
       <c r="B27" s="72" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C27" s="104">
         <f t="shared" ref="C27:F27" si="10">C12*0.9</f>
@@ -28097,7 +28091,7 @@
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
       <c r="B28" s="72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C28" s="104">
         <f t="shared" ref="C28:F28" si="11">C13*0.9</f>
@@ -28144,7 +28138,7 @@
         <v>168</v>
       </c>
       <c r="B32" s="72" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C32" s="104">
         <f>C2*1.05</f>
@@ -28166,7 +28160,7 @@
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="72"/>
       <c r="B33" s="72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C33" s="104">
         <f t="shared" ref="C33:F33" si="13">C3*1.05</f>
@@ -28190,7 +28184,7 @@
         <v>180</v>
       </c>
       <c r="B34" s="72" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C34" s="104">
         <f t="shared" ref="C34:F34" si="14">C4*1.05</f>
@@ -28212,7 +28206,7 @@
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="72"/>
       <c r="B35" s="72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C35" s="104">
         <f t="shared" ref="C35:F35" si="15">C5*1.05</f>
@@ -28236,7 +28230,7 @@
         <v>181</v>
       </c>
       <c r="B36" s="72" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C36" s="104">
         <f t="shared" ref="C36:F36" si="16">C6*1.05</f>
@@ -28258,7 +28252,7 @@
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="72"/>
       <c r="B37" s="72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C37" s="104">
         <f t="shared" ref="C37:F37" si="17">C7*1.05</f>
@@ -28282,7 +28276,7 @@
         <v>182</v>
       </c>
       <c r="B38" s="72" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C38" s="104">
         <f t="shared" ref="C38:F38" si="18">C8*1.05</f>
@@ -28304,7 +28298,7 @@
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="72"/>
       <c r="B39" s="72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C39" s="104">
         <f t="shared" ref="C39:F39" si="19">C9*1.05</f>
@@ -28328,7 +28322,7 @@
         <v>186</v>
       </c>
       <c r="B40" s="72" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C40" s="104">
         <f t="shared" ref="C40:F40" si="20">C10*1.05</f>
@@ -28350,7 +28344,7 @@
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="72"/>
       <c r="B41" s="72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C41" s="104">
         <f t="shared" ref="C41:F41" si="21">C11*1.05</f>
@@ -28374,7 +28368,7 @@
         <v>190</v>
       </c>
       <c r="B42" s="72" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C42" s="104">
         <f t="shared" ref="C42:F42" si="22">C12*1.05</f>
@@ -28396,7 +28390,7 @@
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="72"/>
       <c r="B43" s="72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C43" s="104">
         <f t="shared" ref="C43:F43" si="23">C13*1.05</f>
@@ -28416,7 +28410,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TORFFxPcGYHfiX5t1XH9uKOEdXvi8aYE/OPt7ve+mYxpeCxVzRN8A7GzP0+SyblGo7BiXT9YDJoiIEVhjdlHVg==" saltValue="sQK8Z2wF/aFykrURUV4D0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wOuXmlawds37wL86lAseF9id5I/H8PcmQ69nvgRb/L/lVEmJpLYqBkRzSr0nhIwlGwNICBEBaJEpL1Mq2Yuojg==" saltValue="7xnPFH5qGNQr6bNaU6pa+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28463,16 +28457,16 @@
         <v>99</v>
       </c>
       <c r="H1" s="82" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I1" s="82" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J1" s="82" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K1" s="82" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L1" s="82" t="s">
         <v>122</v>
@@ -28489,7 +28483,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -29066,7 +29060,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B17" s="45"/>
     </row>
@@ -29270,16 +29264,16 @@
         <v>99</v>
       </c>
       <c r="H24" s="82" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I24" s="82" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J24" s="82" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K24" s="82" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L24" s="82" t="s">
         <v>122</v>
@@ -29296,7 +29290,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -30042,7 +30036,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B40" s="45"/>
     </row>
@@ -30298,16 +30292,16 @@
         <v>99</v>
       </c>
       <c r="H47" s="82" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I47" s="82" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J47" s="82" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K47" s="82" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L47" s="82" t="s">
         <v>122</v>
@@ -30324,7 +30318,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -31070,7 +31064,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B63" s="45"/>
     </row>
@@ -31303,7 +31297,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zVrypttBRJirpCSJTnRdWhL0OnijkuYpgJRDJPJBdOxYwhPCxcG8fCRI9Vb/Q/ZbGMp13xOTRBYpeDVKVQQqkw==" saltValue="qN3WOdqcBT56fSQRFeXz0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="owlP7oDa88MHqICuLQsg/AI0FZ7s/dXvG6tWLdZPk+ivCVDhDVDaKEZk37glONSb3LRebytiiuYUB2tbkEG3GA==" saltValue="bdrNHWm2TFlORZLSD8V4pA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31352,7 +31346,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -31377,7 +31371,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B4" s="45"/>
       <c r="C4" s="97"/>
@@ -31408,7 +31402,7 @@
     </row>
     <row r="7" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="106" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -31432,7 +31426,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -31462,7 +31456,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B11" s="45"/>
       <c r="C11" s="97"/>
@@ -31498,7 +31492,7 @@
     </row>
     <row r="14" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="106" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -31522,7 +31516,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -31552,7 +31546,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B18" s="45"/>
       <c r="C18" s="97"/>
@@ -31587,7 +31581,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Fv76hFf666Sz17+YbYjefo1pZi34uYqgEOLFabLlpA4rFTCbMj+EWvIQaTvXdvHmzWqmj+qk2IqA369mCx4KfA==" saltValue="Ptws0fx/HD/Fmwx4HmQtbw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/8EP+cb/7gtUPpkHuxJ7GwW/l4NLY/zTgvXGUS0ZJxJoYIy34n+T35vwDasmDRU+xApqecZysB4V216DnUwZig==" saltValue="/hi9Ag6Es2isbg5ZZF4azA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -31625,7 +31619,7 @@
         <v>160</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C1" s="96" t="s">
         <v>11</v>
@@ -31654,7 +31648,7 @@
         <v>87</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D2" s="104">
         <v>0</v>
@@ -31674,7 +31668,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D3" s="104">
         <v>0</v>
@@ -31694,7 +31688,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D4" s="104">
         <v>0</v>
@@ -31720,7 +31714,7 @@
         <v>208</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D5" s="104">
         <v>0</v>
@@ -31740,7 +31734,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D6" s="104">
         <v>0</v>
@@ -31763,7 +31757,7 @@
         <v>209</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D7" s="104">
         <v>0</v>
@@ -31783,7 +31777,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D8" s="104">
         <v>0</v>
@@ -31809,7 +31803,7 @@
         <v>208</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D9" s="104">
         <v>0</v>
@@ -31829,7 +31823,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D10" s="104">
         <v>0</v>
@@ -31852,7 +31846,7 @@
         <v>209</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D11" s="104">
         <v>0</v>
@@ -31872,7 +31866,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D12" s="104">
         <v>0</v>
@@ -31898,7 +31892,7 @@
         <v>208</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D13" s="104">
         <v>0</v>
@@ -31918,7 +31912,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D14" s="104">
         <v>0</v>
@@ -31941,7 +31935,7 @@
         <v>209</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D15" s="104">
         <v>0</v>
@@ -31961,7 +31955,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D16" s="104">
         <v>0</v>
@@ -31987,7 +31981,7 @@
         <v>208</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D17" s="104">
         <v>0</v>
@@ -32007,7 +32001,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D18" s="104">
         <v>0</v>
@@ -32030,7 +32024,7 @@
         <v>209</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D19" s="104">
         <v>0</v>
@@ -32050,7 +32044,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D20" s="104">
         <v>0</v>
@@ -32076,7 +32070,7 @@
         <v>84</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D21" s="104">
         <v>0.28260869565217389</v>
@@ -32096,7 +32090,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D22" s="104">
         <v>0.46</v>
@@ -32122,7 +32116,7 @@
         <v>84</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D23" s="104">
         <v>0.28260869565217389</v>
@@ -32142,7 +32136,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D24" s="104">
         <v>0.46</v>
@@ -32168,7 +32162,7 @@
         <v>84</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D25" s="104">
         <v>0.28260869565217389</v>
@@ -32188,7 +32182,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C26" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D26" s="104">
         <v>0.46</v>
@@ -32214,7 +32208,7 @@
         <v>87</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D27" s="104">
         <v>1</v>
@@ -32234,7 +32228,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D28" s="104">
         <v>0</v>
@@ -32254,7 +32248,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D29" s="104">
         <v>0</v>
@@ -32280,7 +32274,7 @@
         <v>87</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D30" s="104">
         <v>1</v>
@@ -32300,7 +32294,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C31" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D31" s="104">
         <v>0</v>
@@ -32320,7 +32314,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C32" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D32" s="104">
         <v>0</v>
@@ -32346,7 +32340,7 @@
         <v>87</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D33" s="104">
         <v>1</v>
@@ -32366,7 +32360,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D34" s="104">
         <v>0</v>
@@ -32386,7 +32380,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D35" s="104">
         <v>0</v>
@@ -32412,7 +32406,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D36" s="104">
         <v>1</v>
@@ -32432,7 +32426,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D37" s="104">
         <v>0</v>
@@ -32452,7 +32446,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D38" s="104">
         <v>0</v>
@@ -32478,7 +32472,7 @@
         <v>87</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D39" s="104">
         <v>1</v>
@@ -32498,7 +32492,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D40" s="104">
         <v>0</v>
@@ -32518,7 +32512,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D41" s="104">
         <v>0</v>
@@ -32544,7 +32538,7 @@
         <v>87</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D42" s="104">
         <v>0.3</v>
@@ -32564,7 +32558,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D43" s="104">
         <v>0.5</v>
@@ -32584,7 +32578,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D44" s="104">
         <v>0.65</v>
@@ -32607,7 +32601,7 @@
         <v>88</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D45" s="104">
         <v>0.3</v>
@@ -32627,7 +32621,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D46" s="104">
         <v>0.49</v>
@@ -32647,7 +32641,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D47" s="104">
         <v>0.52</v>
@@ -32673,7 +32667,7 @@
         <v>87</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D48" s="104">
         <v>0.88</v>
@@ -32693,7 +32687,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C49" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D49" s="104">
         <v>0.78409090909090906</v>
@@ -32719,7 +32713,7 @@
         <v>87</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D50" s="104">
         <v>0.88372093023255816</v>
@@ -32739,7 +32733,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C51" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D51" s="104">
         <v>0.86</v>
@@ -32765,7 +32759,7 @@
         <v>82</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D52" s="104">
         <v>0.57999999999999996</v>
@@ -32785,7 +32779,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C53" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D53" s="104">
         <v>0.51</v>
@@ -32805,7 +32799,7 @@
     </row>
     <row r="55" spans="1:8" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="110" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B55" s="111"/>
       <c r="C55" s="111"/>
@@ -32815,7 +32809,7 @@
         <v>160</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C56" s="96" t="s">
         <v>11</v>
@@ -32844,7 +32838,7 @@
         <v>87</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D57" s="104">
         <f t="shared" ref="D57:H66" si="0">D2*0.9</f>
@@ -32869,7 +32863,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C58" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D58" s="104">
         <f t="shared" si="0"/>
@@ -32894,7 +32888,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C59" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D59" s="104">
         <f t="shared" si="0"/>
@@ -32925,7 +32919,7 @@
         <v>208</v>
       </c>
       <c r="C60" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D60" s="104">
         <f t="shared" si="0"/>
@@ -32950,7 +32944,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D61" s="104">
         <f t="shared" si="0"/>
@@ -32978,7 +32972,7 @@
         <v>209</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D62" s="104">
         <f t="shared" si="0"/>
@@ -33003,7 +32997,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C63" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D63" s="104">
         <f t="shared" si="0"/>
@@ -33034,7 +33028,7 @@
         <v>208</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D64" s="104">
         <f t="shared" si="0"/>
@@ -33059,7 +33053,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C65" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D65" s="104">
         <f t="shared" si="0"/>
@@ -33087,7 +33081,7 @@
         <v>209</v>
       </c>
       <c r="C66" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D66" s="104">
         <f t="shared" si="0"/>
@@ -33112,7 +33106,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C67" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D67" s="104">
         <f t="shared" ref="D67:H67" si="1">D12*0.9</f>
@@ -33143,7 +33137,7 @@
         <v>208</v>
       </c>
       <c r="C68" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D68" s="104">
         <f t="shared" ref="D68:H70" si="2">D13*0.9</f>
@@ -33168,7 +33162,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C69" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D69" s="104">
         <f t="shared" si="2"/>
@@ -33196,7 +33190,7 @@
         <v>209</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D70" s="104">
         <f t="shared" si="2"/>
@@ -33221,7 +33215,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C71" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D71" s="104">
         <f t="shared" ref="D71:H71" si="3">D16*0.9</f>
@@ -33252,7 +33246,7 @@
         <v>208</v>
       </c>
       <c r="C72" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D72" s="104">
         <f t="shared" ref="D72:H72" si="4">D17*0.9</f>
@@ -33277,7 +33271,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C73" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D73" s="104">
         <f t="shared" ref="D73:H73" si="5">D18*0.9</f>
@@ -33305,7 +33299,7 @@
         <v>209</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D74" s="104">
         <f t="shared" ref="D74:H74" si="6">D19*0.9</f>
@@ -33330,7 +33324,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C75" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D75" s="104">
         <f t="shared" ref="D75:H75" si="7">D20*0.9</f>
@@ -33361,7 +33355,7 @@
         <v>84</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D76" s="104">
         <f t="shared" ref="D76:H76" si="8">D21*0.9</f>
@@ -33386,7 +33380,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C77" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D77" s="104">
         <f t="shared" ref="D77:H77" si="9">D22*0.9</f>
@@ -33417,7 +33411,7 @@
         <v>84</v>
       </c>
       <c r="C78" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D78" s="104">
         <f t="shared" ref="D78:H78" si="10">D23*0.9</f>
@@ -33442,7 +33436,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C79" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D79" s="104">
         <f t="shared" ref="D79:H79" si="11">D24*0.9</f>
@@ -33473,7 +33467,7 @@
         <v>84</v>
       </c>
       <c r="C80" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D80" s="104">
         <f t="shared" ref="D80:H80" si="12">D25*0.9</f>
@@ -33498,7 +33492,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C81" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D81" s="104">
         <f t="shared" ref="D81:H81" si="13">D26*0.9</f>
@@ -33529,7 +33523,7 @@
         <v>87</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D82" s="104">
         <f t="shared" ref="D82:H82" si="14">D27*0.9</f>
@@ -33554,7 +33548,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C83" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D83" s="104">
         <f t="shared" ref="D83:H83" si="15">D28*0.9</f>
@@ -33579,7 +33573,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C84" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D84" s="104">
         <f t="shared" ref="D84:H84" si="16">D29*0.9</f>
@@ -33610,7 +33604,7 @@
         <v>87</v>
       </c>
       <c r="C85" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D85" s="104">
         <f t="shared" ref="D85:H85" si="17">D30*0.9</f>
@@ -33635,7 +33629,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C86" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D86" s="104">
         <f t="shared" ref="D86:H86" si="18">D31*0.9</f>
@@ -33660,7 +33654,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C87" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D87" s="104">
         <f t="shared" ref="D87:H87" si="19">D32*0.9</f>
@@ -33691,7 +33685,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D88" s="104">
         <f t="shared" ref="D88:H88" si="20">D33*0.9</f>
@@ -33716,7 +33710,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C89" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D89" s="104">
         <f t="shared" ref="D89:H89" si="21">D34*0.9</f>
@@ -33741,7 +33735,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C90" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D90" s="104">
         <f t="shared" ref="D90:H90" si="22">D35*0.9</f>
@@ -33772,7 +33766,7 @@
         <v>87</v>
       </c>
       <c r="C91" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D91" s="104">
         <f t="shared" ref="D91:H91" si="23">D36*0.9</f>
@@ -33797,7 +33791,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C92" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D92" s="104">
         <f t="shared" ref="D92:H92" si="24">D37*0.9</f>
@@ -33822,7 +33816,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C93" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D93" s="104">
         <f t="shared" ref="D93:H93" si="25">D38*0.9</f>
@@ -33853,7 +33847,7 @@
         <v>87</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D94" s="104">
         <f t="shared" ref="D94:H94" si="26">D39*0.9</f>
@@ -33878,7 +33872,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C95" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D95" s="104">
         <f t="shared" ref="D95:H95" si="27">D40*0.9</f>
@@ -33903,7 +33897,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C96" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D96" s="104">
         <f t="shared" ref="D96:H96" si="28">D41*0.9</f>
@@ -33934,7 +33928,7 @@
         <v>87</v>
       </c>
       <c r="C97" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D97" s="104">
         <f t="shared" ref="D97:H97" si="29">D42*0.9</f>
@@ -33959,7 +33953,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C98" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D98" s="104">
         <f t="shared" ref="D98:H98" si="30">D43*0.9</f>
@@ -33984,7 +33978,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C99" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D99" s="104">
         <f t="shared" ref="D99:H99" si="31">D44*0.9</f>
@@ -34012,7 +34006,7 @@
         <v>88</v>
       </c>
       <c r="C100" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D100" s="104">
         <f t="shared" ref="D100:H100" si="32">D45*0.9</f>
@@ -34037,7 +34031,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C101" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D101" s="104">
         <f t="shared" ref="D101:H101" si="33">D46*0.9</f>
@@ -34062,7 +34056,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C102" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D102" s="104">
         <f t="shared" ref="D102:H102" si="34">D47*0.9</f>
@@ -34093,7 +34087,7 @@
         <v>87</v>
       </c>
       <c r="C103" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D103" s="104">
         <f t="shared" ref="D103:H103" si="35">D48*0.9</f>
@@ -34118,7 +34112,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C104" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D104" s="104">
         <f t="shared" ref="D104:H104" si="36">D49*0.9</f>
@@ -34149,7 +34143,7 @@
         <v>87</v>
       </c>
       <c r="C105" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D105" s="104">
         <f t="shared" ref="D105:H105" si="37">D50*0.9</f>
@@ -34174,7 +34168,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C106" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D106" s="104">
         <f t="shared" ref="D106:H106" si="38">D51*0.9</f>
@@ -34205,7 +34199,7 @@
         <v>82</v>
       </c>
       <c r="C107" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D107" s="104">
         <f t="shared" ref="D107:H107" si="39">D52*0.9</f>
@@ -34230,7 +34224,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C108" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D108" s="104">
         <f t="shared" ref="D108:H108" si="40">D53*0.9</f>
@@ -34255,7 +34249,7 @@
     </row>
     <row r="110" spans="1:8" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="110" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B110" s="111"/>
       <c r="C110" s="111"/>
@@ -34265,7 +34259,7 @@
         <v>160</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C111" s="96" t="s">
         <v>11</v>
@@ -34294,7 +34288,7 @@
         <v>87</v>
       </c>
       <c r="C112" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D112" s="104">
         <f t="shared" ref="D112:H121" si="41">D2*1.05</f>
@@ -34319,7 +34313,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C113" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D113" s="104">
         <f t="shared" si="41"/>
@@ -34344,7 +34338,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C114" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D114" s="104">
         <f t="shared" si="41"/>
@@ -34375,7 +34369,7 @@
         <v>208</v>
       </c>
       <c r="C115" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D115" s="104">
         <f t="shared" si="41"/>
@@ -34400,7 +34394,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C116" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D116" s="104">
         <f t="shared" si="41"/>
@@ -34428,7 +34422,7 @@
         <v>209</v>
       </c>
       <c r="C117" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D117" s="104">
         <f t="shared" si="41"/>
@@ -34453,7 +34447,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C118" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D118" s="104">
         <f t="shared" si="41"/>
@@ -34484,7 +34478,7 @@
         <v>208</v>
       </c>
       <c r="C119" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D119" s="104">
         <f t="shared" si="41"/>
@@ -34509,7 +34503,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C120" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D120" s="104">
         <f t="shared" si="41"/>
@@ -34537,7 +34531,7 @@
         <v>209</v>
       </c>
       <c r="C121" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D121" s="104">
         <f t="shared" si="41"/>
@@ -34562,7 +34556,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C122" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D122" s="104">
         <f t="shared" ref="D122:H122" si="42">D12*1.05</f>
@@ -34593,7 +34587,7 @@
         <v>208</v>
       </c>
       <c r="C123" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D123" s="104">
         <f t="shared" ref="D123:H125" si="43">D13*1.05</f>
@@ -34618,7 +34612,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C124" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D124" s="104">
         <f t="shared" si="43"/>
@@ -34646,7 +34640,7 @@
         <v>209</v>
       </c>
       <c r="C125" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D125" s="104">
         <f t="shared" si="43"/>
@@ -34671,7 +34665,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C126" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D126" s="104">
         <f t="shared" ref="D126:H126" si="44">D16*1.05</f>
@@ -34702,7 +34696,7 @@
         <v>208</v>
       </c>
       <c r="C127" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D127" s="104">
         <f t="shared" ref="D127:H127" si="45">D17*1.05</f>
@@ -34727,7 +34721,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C128" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D128" s="104">
         <f t="shared" ref="D128:H128" si="46">D18*1.05</f>
@@ -34755,7 +34749,7 @@
         <v>209</v>
       </c>
       <c r="C129" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D129" s="104">
         <f t="shared" ref="D129:H129" si="47">D19*1.05</f>
@@ -34780,7 +34774,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C130" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D130" s="104">
         <f t="shared" ref="D130:H130" si="48">D20*1.05</f>
@@ -34811,7 +34805,7 @@
         <v>84</v>
       </c>
       <c r="C131" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D131" s="104">
         <f t="shared" ref="D131:H131" si="49">D21*1.05</f>
@@ -34836,7 +34830,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C132" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D132" s="104">
         <f t="shared" ref="D132:H132" si="50">D22*1.05</f>
@@ -34867,7 +34861,7 @@
         <v>84</v>
       </c>
       <c r="C133" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D133" s="104">
         <f t="shared" ref="D133:H133" si="51">D23*1.05</f>
@@ -34892,7 +34886,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C134" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D134" s="104">
         <f t="shared" ref="D134:H134" si="52">D24*1.05</f>
@@ -34923,7 +34917,7 @@
         <v>84</v>
       </c>
       <c r="C135" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D135" s="104">
         <f t="shared" ref="D135:H135" si="53">D25*1.05</f>
@@ -34948,7 +34942,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C136" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D136" s="104">
         <f t="shared" ref="D136:H136" si="54">D26*1.05</f>
@@ -34979,7 +34973,7 @@
         <v>87</v>
       </c>
       <c r="C137" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D137" s="104">
         <f t="shared" ref="D137:H137" si="55">D27*1.05</f>
@@ -35004,7 +34998,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C138" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D138" s="104">
         <f t="shared" ref="D138:H138" si="56">D28*1.05</f>
@@ -35029,7 +35023,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C139" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D139" s="104">
         <f t="shared" ref="D139:H139" si="57">D29*1.05</f>
@@ -35060,7 +35054,7 @@
         <v>87</v>
       </c>
       <c r="C140" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D140" s="104">
         <f t="shared" ref="D140:H140" si="58">D30*1.05</f>
@@ -35085,7 +35079,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C141" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D141" s="104">
         <f t="shared" ref="D141:H141" si="59">D31*1.05</f>
@@ -35110,7 +35104,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C142" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D142" s="104">
         <f t="shared" ref="D142:H142" si="60">D32*1.05</f>
@@ -35141,7 +35135,7 @@
         <v>87</v>
       </c>
       <c r="C143" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D143" s="104">
         <f t="shared" ref="D143:H143" si="61">D33*1.05</f>
@@ -35166,7 +35160,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C144" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D144" s="104">
         <f t="shared" ref="D144:H144" si="62">D34*1.05</f>
@@ -35191,7 +35185,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C145" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D145" s="104">
         <f t="shared" ref="D145:H145" si="63">D35*1.05</f>
@@ -35222,7 +35216,7 @@
         <v>87</v>
       </c>
       <c r="C146" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D146" s="104">
         <f t="shared" ref="D146:H146" si="64">D36*1.05</f>
@@ -35247,7 +35241,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C147" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D147" s="104">
         <f t="shared" ref="D147:H147" si="65">D37*1.05</f>
@@ -35272,7 +35266,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C148" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D148" s="104">
         <f t="shared" ref="D148:H148" si="66">D38*1.05</f>
@@ -35303,7 +35297,7 @@
         <v>87</v>
       </c>
       <c r="C149" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D149" s="104">
         <f t="shared" ref="D149:H149" si="67">D39*1.05</f>
@@ -35328,7 +35322,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C150" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D150" s="104">
         <f t="shared" ref="D150:H150" si="68">D40*1.05</f>
@@ -35353,7 +35347,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C151" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D151" s="104">
         <f t="shared" ref="D151:H151" si="69">D41*1.05</f>
@@ -35384,7 +35378,7 @@
         <v>87</v>
       </c>
       <c r="C152" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D152" s="104">
         <f t="shared" ref="D152:H152" si="70">D42*1.05</f>
@@ -35409,7 +35403,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C153" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D153" s="104">
         <f t="shared" ref="D153:H153" si="71">D43*1.05</f>
@@ -35434,7 +35428,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C154" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D154" s="104">
         <f t="shared" ref="D154:H154" si="72">D44*1.05</f>
@@ -35462,7 +35456,7 @@
         <v>88</v>
       </c>
       <c r="C155" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D155" s="104">
         <f t="shared" ref="D155:H155" si="73">D45*1.05</f>
@@ -35487,7 +35481,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C156" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D156" s="104">
         <f t="shared" ref="D156:H156" si="74">D46*1.05</f>
@@ -35512,7 +35506,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C157" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D157" s="104">
         <f t="shared" ref="D157:H157" si="75">D47*1.05</f>
@@ -35543,7 +35537,7 @@
         <v>87</v>
       </c>
       <c r="C158" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D158" s="104">
         <f t="shared" ref="D158:H158" si="76">D48*1.05</f>
@@ -35568,7 +35562,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C159" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D159" s="104">
         <f t="shared" ref="D159:H159" si="77">D49*1.05</f>
@@ -35599,7 +35593,7 @@
         <v>87</v>
       </c>
       <c r="C160" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D160" s="104">
         <f t="shared" ref="D160:H160" si="78">D50*1.05</f>
@@ -35624,7 +35618,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C161" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D161" s="104">
         <f t="shared" ref="D161:H161" si="79">D51*1.05</f>
@@ -35655,7 +35649,7 @@
         <v>82</v>
       </c>
       <c r="C162" s="39" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D162" s="104">
         <f t="shared" ref="D162:H162" si="80">D52*1.05</f>
@@ -35680,7 +35674,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C163" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D163" s="104">
         <f t="shared" ref="D163:H163" si="81">D53*1.05</f>
@@ -35704,7 +35698,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lgOiM2EqnOQgk54IA6YjsL4GwtyjTx6MstRTo2COUtZ4y2kHjdjHxBG2Hvxzz+HmWamem5D6agjwNR/Gro7ApQ==" saltValue="mirUc98+BIRjTPsdCZGlaQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="s6vRgg7bdVCKYRj2saLjLBHhUIr+UanNhVLWhTS90bsp1e2fAW+a8mdR1PiuIDqTSpqPOy78q5r4/KVkH/6J8g==" saltValue="w3LeDQzpHAOryp3KhVS8Eg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -35738,7 +35732,7 @@
         <v>160</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="29" t="s">
@@ -35763,7 +35757,7 @@
         <v>104</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D2" s="104">
         <v>1</v>
@@ -35781,7 +35775,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D3" s="104">
         <v>0.2</v>
@@ -35805,7 +35799,7 @@
         <v>104</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D4" s="104">
         <v>1</v>
@@ -35823,7 +35817,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" s="27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D5" s="104">
         <v>0.59</v>
@@ -35847,7 +35841,7 @@
         <v>104</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D6" s="104">
         <v>1</v>
@@ -35865,7 +35859,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D7" s="104">
         <v>0.6</v>
@@ -35883,7 +35877,7 @@
     </row>
     <row r="9" spans="1:8" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="106" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -35891,7 +35885,7 @@
         <v>160</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="29" t="s">
@@ -35915,7 +35909,7 @@
         <v>104</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D11" s="104">
         <f>D2*0.9</f>
@@ -35936,7 +35930,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D12" s="104">
         <f t="shared" ref="D12:G12" si="1">D3*0.9</f>
@@ -35963,7 +35957,7 @@
         <v>104</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D13" s="104">
         <f t="shared" ref="D13:G13" si="2">D4*0.9</f>
@@ -35984,7 +35978,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D14" s="104">
         <f t="shared" ref="D14:G14" si="3">D5*0.9</f>
@@ -36011,7 +36005,7 @@
         <v>104</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D15" s="104">
         <f t="shared" ref="D15:G15" si="4">D6*0.9</f>
@@ -36032,7 +36026,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D16" s="104">
         <f t="shared" ref="D16:G16" si="5">D7*0.9</f>
@@ -36053,7 +36047,7 @@
     </row>
     <row r="18" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="106" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -36061,7 +36055,7 @@
         <v>160</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="29" t="s">
@@ -36085,7 +36079,7 @@
         <v>104</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D20" s="104">
         <f>D2*1.05</f>
@@ -36106,7 +36100,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" s="27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D21" s="104">
         <f t="shared" ref="D21:G21" si="7">D3*1.05</f>
@@ -36133,7 +36127,7 @@
         <v>104</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D22" s="104">
         <f t="shared" ref="D22:G22" si="8">D4*1.05</f>
@@ -36154,7 +36148,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D23" s="104">
         <f t="shared" ref="D23:G23" si="9">D5*1.05</f>
@@ -36181,7 +36175,7 @@
         <v>104</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D24" s="104">
         <f t="shared" ref="D24:G24" si="10">D6*1.05</f>
@@ -36202,7 +36196,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" s="27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D25" s="104">
         <f t="shared" ref="D25:G25" si="11">D7*1.05</f>
@@ -36222,7 +36216,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="v+GUbAKAzBjRV2j8+1xczVtuTiVTQvuVCAIBD2VGP/UmFi/SZKyjVAddWYr2SsjVTCNAWxEwStKgIZx73b6Q5Q==" saltValue="eBuMreIEUDfr0kFm8Y9Uog==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PZGdXWSU7oZO/h70j8ZY+nKVadfCimlRjMJ8EBcFi68Lm6Iom62hqO2sZTa/c3LT2r58KtkClKLcTVkwJ4ugBw==" saltValue="ptQHVDuhc0moaFnkkI7kqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36662,7 +36656,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="a94S8AyoTijkfSprjHX+E8E7gk6M/uem86SOHs+XNiTzSS4Q46sfqKcPK677DURp6l1FbJbel9LeQVWI5YiEQA==" saltValue="NcM8r05urjx+GKEknX1s9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XvZfSXwjShdMfLNvCP3n/RAPxlmAU/OFE1B00yZyDEZ/W9amnB+eP5Gjqg2c97R0dlf3lOaiipFRrNCJhNLRFQ==" saltValue="DpOsCpl5o0fLpSRLfOnovQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36958,16 +36952,16 @@
         <v>125</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O13" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -37086,7 +37080,7 @@
       <c r="G17" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+CQMmYozYwrSbAI2pd6zsr4cdFC5pcgnzNu+IeCcRXsCLsvQx2Bo2dx7TiQOkxPLUMiTZs/ayhjtDHPpRFDS9g==" saltValue="O053zRnVSjyc7an4B4nIow==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="x9dgrNCJfroRUpynKTHTfnk2hLj5OFKRamfu0LjzbhLpBgdkLgnFUfMSnBWA6M+S2LbsDJ2zn0TiCm8TObKzmA==" saltValue="r8gQj/vHd83A0pys8M1RfA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -37223,7 +37217,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nixxuc8DVF8APUH9lm1tUjPrT3nI7iHe56ak3bh650TdzdsVO1iKzN37WErip4oAyazzLbx0rwhLiKu3COKCNQ==" saltValue="zNG7wbpGzLW4F+Ng4RG72Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GOB7tQp7COD2+nHKQ4NGTSNteUV/KzX3x2Zfga38srQ/ITPWbDEWtIZMJfgNo/laWkCC/VpOdr+lhrGcw3gzbA==" saltValue="VxwNdgViXwVlql3JXBlHOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37430,7 +37424,7 @@
       <c r="K14" s="115"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="d12MHnvBQtu3nBcUJeZlo3LtLG7PCy7k87NjWy3slwR1vCMRC1zUcD7En687gccZvKM2LRvgEQBJBmLB9iGTtQ==" saltValue="AuyvwACNWtNZXK9B81nPUw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AlulcbHWrHjhJipg1g4SXhweHzhwTP0+jA+dN4RCk5M+QgvaNP+IHcJXmR1yjNWzWZ9ZaTLJMip9ctpje1sf/w==" saltValue="2GOAsD5RhH8BZqHsZHLv9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37511,7 +37505,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UuV+bOI/4ygwfA1cOslrYPMOs9VgICEW3ZQjz2bwsqdrrW8tHPdLRd87BqGyodbM3Xanc/izFGsmMOaS9VTgNg==" saltValue="axlv4P+zlXskG9US8AOwyw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dbO+aDJVHDpwlSeYgY2y7vWBX/1LAZdgGsDZonbYLayV35PQ6fMI2QodICaAd5WBjP8m0CWlL0KNP2aiu90Gjw==" saltValue="jfRd3YARHlGkoQZEIPGPng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37771,7 +37765,7 @@
       <c r="E21" s="62"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ppdS+4U0nEschoHq7+3Tc93xBikNZgZPBdwMropZvXhcz8es2GHiQox1EkLuf/O0VG/NMndiCbwP8qX8IkOD5A==" saltValue="xdZA5MppBHukEcruhXOGlA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UU3QPQeNGGOOOR2HWE6waK8UlyLkYu1jC5P1Oi/S61uHEFzcOgRGVx4SPTSiKNzfKnKEjuCIS50eanx6DzKp7w==" saltValue="MkffnpXvrY2Dqd4hYGDgLw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37835,7 +37829,7 @@
       <c r="D3" s="62"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ryR8hR6gjCIYiBIA42dBsl+M7nbvLw3FV3jB6v9eQHBz2ZUhj5tTsnrKd08C0GzLyNBzOJm8uTDT399k0J5Dhw==" saltValue="/MC5KWHDrghZ1rUi/Ne+mw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wNC3F1sEo4Gnej4BTjjjkSVfhpzvaj2/odtXKsZB4k2dtQDK6ORvnsE77KNQngrfJbYu1qYrlOOl63zH5E0HZw==" saltValue="JzO66ZOhrKViZDAx+7subw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>